--- a/Kisoma Dhopadhola.xlsx
+++ b/Kisoma Dhopadhola.xlsx
@@ -2,22 +2,1580 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Book2" sheetId="1" r:id="rId1"/>
+    <sheet name="Clean" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="518">
+  <si>
+    <t>Kitabo Mararyo</t>
+  </si>
+  <si>
+    <t>Okoth Mariko omo kigana me Dwe Maraboro, 2003 tundo Dwe Marachiel, 2004.</t>
+  </si>
+  <si>
+    <t>Kigana me nyutho ama</t>
+  </si>
+  <si>
+    <t>Jakeli kigana me ndiko:</t>
+  </si>
+  <si>
+    <t>Nyachwo Dorothy</t>
+  </si>
+  <si>
+    <t>Thwol osangala swa winjo wach no to oyeyo ni, "Kale, walakidho."</t>
+  </si>
+  <si>
+    <t>Ndelo achiel to wendo madwo? obino pecho no, jagombola gipi obino pecho no.  Munyo won pecho no oparo gimutimi ma rweyo jadwo? me onyo ni gi diel achiel kende.  Pecho oparo swa nyuka jadwo? me owacho ni, "Ato onyo ongoye giratima."</t>
+  </si>
+  <si>
+    <t>Olwo?o yach pere aryo to wacho rijo ni, "Kwanyi win min diel no wikidhi wineki."  Yach joredo swa gi min diel athuma.</t>
+  </si>
+  <si>
+    <t>Kareno min pecho gi nyare joredo yupendi ?olo matoke.  Jokwako gowo gi theno.  Munyo matoke twak bapecho owacho ni, "Nyithindho me, jogalo gi fufa ooro nyare wokidhi woneni jotimo a?o gi fufa, kole diel obudho jo to ringo, to idho wiriete kawero ama ni, 'Anywolo achiel.  Mbekuro mama, mbekuro mama.  Ni anywoli aryo mbekuru mama ni agoyi rut mbekuru mama.</t>
+  </si>
+  <si>
+    <t>Mee mee me me kuru mama,</t>
+  </si>
+  <si>
+    <t>Mee mee me me kuru mama.'"</t>
+  </si>
+  <si>
+    <t>Kareno yach me gi nyamin jo gi min jo ju jye jomielo amiela kir gi bajo.  Jo jye jonimieli wendo odo? pecho, kende munyo wendo oneno ni ji ongoye pecho.  Aka piny onyo oyutho to go bende kadho.  Munyo diel oneno ni piny oyutho to weyo weri.  To donjo i lule to lokere ogwa? mager, to jomieli jye joringo dok pecho.  Jonwa?o ni wendo odok, chiemo owa? ma kichamere jonindo aninda kech ka jouro gi ma otimere!</t>
+  </si>
+  <si>
+    <t>Aweyo ran jouro gino tadwoko ran.  Adongi ran kari olwa pa nera!</t>
+  </si>
+  <si>
+    <t>iv.	Otengo gi Gwendi</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo otengo gi gweno to joromo.  Munyo gweno oti?o ri?o madit swa.  To otengo penjo gweno ni, "Iti?o a?o?"</t>
+  </si>
+  <si>
+    <t>Ana gweno ni, "Me jye ri?o."</t>
+  </si>
+  <si>
+    <t>Otengo openjo go ni, "Inwa?o kune ri?o me jye?"</t>
+  </si>
+  <si>
+    <t>Ana gweno ni, "O, awoki nyewo."</t>
+  </si>
+  <si>
+    <t>Ana otengo ni, "Yukune?"</t>
+  </si>
+  <si>
+    <t>Ana gweno ni, "Yupiny yulule koro ibayima."</t>
+  </si>
+  <si>
+    <t>Otengo omedo penjo ni, "Itana nedi kosa a?o?"</t>
+  </si>
+  <si>
+    <t>Ana gweno ni, "Itana rayisi swa ito?o nyaka tiendin achiel timiyo jo ti miyin ri?o kuminito i iye jye."  Kareno gweno ochungo gi tiende achiel man okano i yer.</t>
+  </si>
+  <si>
+    <t>Ana otengo ni, "To?i ran aparan."</t>
+  </si>
+  <si>
+    <t>Gweno oto?o ri otengo tiende munyo otiek chimo ri otengo yukorago.  Otengo oayi gi arama ma tiende jye kir gi awanyama chamo ringo.  To kadho, oriwo piny kuneno kuma ji jochokere i iye ma jonyewo ri?o, kis ka moro jye kosa lule kosa kamoro jye kuneno gimoro, ogik chien penjo gweno ni, "Gikune won kole akineno?"  Onwa?o gweno munyo wotho gi tiende aryo jye, ouro kendo omako nge swa gi gweno kareno tiende ramo go swa.  Aka kunwa?o kada ri?o ouro gweno swa ri wondo go gi to?o kir tiende!</t>
+  </si>
+  <si>
+    <t>Oluwo ri gweno munyo lamo kir gi nge swa ni, "Gweno, iwondan, ito?o kir gi tiendan.  Munyo tiendan raman ama, woki konon abino chamo nyithindhin kir gi nyithindhi nyikwayi nyithindhin nyuka piny otundi i gike."</t>
+  </si>
+  <si>
+    <t>Amumiyo kir gi konon otengo jochamo nyithindhi gwendi.</t>
+  </si>
+  <si>
+    <t>v.	Ochulu gi Liech Jonwa?o ?wen</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo ochulu gi liech.  Kareno ochulu lwo?o liech ni 'Nera.'</t>
+  </si>
+  <si>
+    <t>Obedo ndelo achiel, liech owacho ri ochulu ni, "Nyakewinan owe, wakidhi warangiye ?wen sisi wagoyi."  Jokadho woth i dudi rango ?wen paka ochulu ama wa?e tek, otelo neno wa? gima chalo ?wen.  Owacho ni, "Anwa?o wa? ?wen paran."</t>
+  </si>
+  <si>
+    <t>"Ee!" liech okwero malo swa ka wacho ni, "Be, meno ?wen paran, kenyo akuma oido ajowiye ?wen."</t>
+  </si>
+  <si>
+    <t>Ochulu oweyo rigo to medere kir i ?eti lul moro ochako dwaro to adieri to nwa?o ?wen ma lak alaka.  Munyo otieko goyo to chako nyaro woko lum moro jye ma nitye kacha.  Liech bende goyo ma nende olaro gi ochulu.  Munyo ochulu otieko nyaro to kunyo bur, ato ?wen oido chiegin tukirok.  To ochulu oyombere omo gi umo.  To ?wen pa ochulu tukere duny.</t>
+  </si>
+  <si>
+    <t>Munyo otieko umo, ?wen oduny mange swa.  To ochulu jowo keno madongo swa a?wen, ma liech fwodi kada gimoro kuwok ni ?wen.</t>
+  </si>
+  <si>
+    <t>Munyo okidho jowo keno marabich, ka ni poyi ni liech okonjere.  Kareno nende jowo no kano akana i dudi bor.</t>
+  </si>
+  <si>
+    <t>Liech to wacho rigo ni, "Jame, ?wen perin dunyi maber swa."  Ochulu ojowo meno keno madwo? swa to ?wen chok.  Liech owacho ri ochulu ni, "Jame, miyan ?wen perin me, dikin ikwa?an gine wateri yupa oran."</t>
+  </si>
+  <si>
+    <t>Ochulu oyeyo.  Munyo ku?eyo ni ochulu ni gi ?wen man mukano.  Ochulu jowotho gi liech.  Munyo jodoki munyo ochulu otundo i royo pere ma rwayo, orendere ni rwayo.  Kareno otieko miyo liech ?wen cha ma dikin jolatero yupa or.  To gik chieni omo ?wen pere keno a?wen ma okano i dudi cha.</t>
+  </si>
+  <si>
+    <t>Paka jochikere mondo amonda ma kidho yupa or.  Bende apaka ochulu otimo.  Munyo jokadho kareno liech amuti?o ?wen.  Ochulu owacho ri liech ni, "Nera weyi, a?ata ati?i ?wen ini i dwo?, a?ata anyathi."  Ameno liech bende to miyo ochulu ti?o ?wen.</t>
+  </si>
+  <si>
+    <t>Ochulu jowotho hongo machiek to gesa.  Paka iye kayo go munyo mito gak i dudi.  Ana liech, "Keli ati?i migugu."</t>
+  </si>
+  <si>
+    <t>Ana ochulu ni, "Be, alaketho gika kiwotho alamakin."  Munyo ochulu orwayo obedo piny ochamo ?wen, to doko tweyo paka nende otweyi to ringo to mako liech.</t>
+  </si>
+  <si>
+    <t>Munyo jowothoye kendo hongo moro to odoko gesa iye.  Orwayo gi ?wen kendo munyo ner mere kadho, nyaka to bedo piny to chamo ?wen jye te.  To kunyo bur, to yiko maber swa boke.  To nywongo, to buuuu, buuu mathoth swa!  To tweyo paka nende otweyi to ringo to mako ner mere liech.</t>
+  </si>
+  <si>
+    <t>Jowotho nyuka jotundo pa or.  Osangala gi jo swa, orweyi jo oneki gweno onyewi medho.  Min pecho owacho ni, "?wen paran me kutho alaboko aboka kutho.  Aka amuoyi, meno oboki."  To jume jusewila wegi pecho.  Munyo jodwoko kwa?o jo ni jokidho toko ?wen ni ma nende joboko.</t>
+  </si>
+  <si>
+    <t>?weche won ama ogoyo jo gi bor, "Iyawo mere apeee!"  Joringo yu?eyi wendo ma jowok kwa?o jo.  Ochulu orure okadho chon, to liech amuchungo ni lwo?o ochulu, ochulu okadho chon. Munyo liech odo? gi wich kwot swa tero gima pa meno yupa or.  Kir gi konon jobedo jokwor gi ochulu swa.</t>
+  </si>
+  <si>
+    <t>vi.	Nyir ma Jokidho Kedi</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo nyir ma iyadech to jochikere kidho kedi.  Munyo ndelo otundo jochokere.   To jokidho bothi nyawotigin achiel munwa?o ongoye.  Jonwa?o go, munyo nyaka chielo kali, aka ripo rego, jokunyalo kuro go.</t>
+  </si>
+  <si>
+    <t>To jowacho rigo dhoyo ma jokidho luwo, to jowacho rigo ni, "Kuma inonwa?i dhoyo nitye aryo, min onwa?i wabolo i iye boke, meno ama iluwi."  Kenyo onwa?o nitye ogwa? ma chamo ji.  Munyo ogwa? no oneno boke no, obolo boke no i dhoyo pere.</t>
+  </si>
+  <si>
+    <t>Munyo nyako no otieko rego, omako dhoyo to luwo wadi cha i dhoyo pa ogwa? ayino.  Munyo otundo pa ogwa?, ogwa? osangala gi nyako no swa, to penjo go ni, "A?o nyako?"</t>
+  </si>
+  <si>
+    <t>Nyako odwoko go ni, "Aluwo jowotan ma jobino yukome kedi."</t>
+  </si>
+  <si>
+    <t>Ana ogwa? ni "Bedi piny, akedin jonicha atieko kedo jo judok."  Kere twodo.</t>
+  </si>
+  <si>
+    <t>Nyako obedo piny to okedo go maber swa.  Kama okedo go to ketho gagi pensi, ameno ameno to iyi nyako kichin ma kiwachere.  Ochiko nyako no ni, "Doki, to awacho rin ni kitundo pecho, ongoye nyutho dhano moro jye kedi perin me.  Iwinjo?"</t>
+  </si>
+  <si>
+    <t>Nyako oyeyo.  Munyo otundo pecho openji ni, "Ikedere?"  Okwero.</t>
+  </si>
+  <si>
+    <t>Munyo kimiti nyutho jo kedi pere.  Munyo itedo min guro kwon.  To min orogo ni, "Ringi aringa ithumi ran boke kwon wa?i."  Munyo ringo nyathi mathi be oluwo go.  To munyo por to?o boke ma malo to nanga ma kore to podho.</t>
+  </si>
+  <si>
+    <t>To nyathi no to neno kedi, to ringo gi ?wech ka koko ri min ni, "Mama, kedi pa giche nga ber, kendo kichini ma kiwachere kendo ouro swa swa."</t>
+  </si>
+  <si>
+    <t>Munyo jotieko chiemo to i mako nyako no to i neno kedi pere.  To nyako no ywak swa, ka wacho ni, "?ata ndiri no okedan, ndiri no ochikan ni, i ndelo ma oneni i iye kedi paran.  Awachiri wade paran jo jye jowonindi i ot kama ano nindi i iye ni labino oman."  Bende apaka otimi, ogwa? okelo nindo madwo? swa ri wadi nyako no, to donjo i ot.  Nyako no ni wolwo?, ni wokoki jo no jokiwinji.  Nyuka odonjo to thumo nyako no.  To wich mere ketho i dak pi.</t>
+  </si>
+  <si>
+    <t>Jome jochiewi de rumachien munyo jowinjo remo ama thon i dak to jopenjere ni, "A?o ma thon no?"  Ni jokidho neno to joneno wich nyako no.  To jochako ywak to jouro swa gi ma otimere munyo jonindo.  Joyiko nyako no to jodok munyo jouro gino.</t>
+  </si>
+  <si>
+    <t>vii.	Tuwo pa Simbwor</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo kere pa ogwange simbwor.  Munyo simbwor oti aka paka gochamo ogwange wadi onyo go kinyal ?wech, kinyal nwa?o girachama, to gonindo piny to chako wacho paka gotuwo swa.  Wach ma tuwo pa kere me to lak kis kamoro.</t>
+  </si>
+  <si>
+    <t>Munyo kis ogwa? chunye ramo go.  Onyo kis ogwa? kidho neno jatuwo ka owotho kende, kere wacho rigo ni, "Chore gika gime raman swa ma kir ithan kiwinji maber."</t>
+  </si>
+  <si>
+    <t>Kuchore to mako to chamo go woko kir chwe to chako chwe.  Munyo ochulu bende chunye oramo go, to bende chako woth ma kidho limo jatuwo kere.</t>
+  </si>
+  <si>
+    <t>Munyo otundo bothi jatuwo, ochulu openjo go ni, "Maramin Jadwo??"</t>
+  </si>
+  <si>
+    <t>Jatuwo odwoko go ni, "I?a kole iluwo kodan gi bor bor chore gika."</t>
+  </si>
+  <si>
+    <t>Ana ochulu ni, "Akinyali choroki bothini, chunyan kutire maber ri neno bathi tiendi wadan ma jobino bothin kenyo. Aka odoko jokidwoki ama."</t>
+  </si>
+  <si>
+    <t>Onyo jatuwo ni tekere wopori kwo? ochulu, to ochulu ringo rigo ka wacho ni, "Oido i chamo mami? konon me.  Abothi ran weyi akidhi awachi ri wadan ichowo wan konon, inwa?o ma riek."</t>
+  </si>
+  <si>
+    <t>viii.	Buliri</t>
+  </si>
+  <si>
+    <t>Chango chango, i piny moro obedo ogwa? ma ilwongo ni Buliri.  Ochamo ji otieko i piny no, to kere oweyo dhako acheil kende.  Dhako no onwa?o ni gi iye.</t>
+  </si>
+  <si>
+    <t>Munyo ndelo otundo ma nywol, to nywolo nyithindho aryo rut jo jye yach.  Munyo nyithindho no jodongo to oliesa rijo kwo? ogwa? no ma ilwo?o ni Buliri.  Paka ochamo ji otieko kendo, paka ogwa? no rach kendo ger swa.</t>
+  </si>
+  <si>
+    <t>Nyithindho no jopenjo ni, "Ogwa? no nitye kune?"</t>
+  </si>
+  <si>
+    <t>To owacho rijo ni, "Nitye i lul madongo cha."</t>
+  </si>
+  <si>
+    <t>To jowacho ni, "Wakinyali neko?"</t>
+  </si>
+  <si>
+    <t>Okweri rijo paka ogwa? cha ger swa, "Kir an inywolo win apondo aponda."</t>
+  </si>
+  <si>
+    <t>Jowacho ni, "Kale, weyi watemi."</t>
+  </si>
+  <si>
+    <t>Nyithindho no jochako thedho tonge mabith swa kendo kweth.  Munyo joromo i ndelo achiel odikin swa.  To jowacho ri min jo ni, "Mama lwo?i ri wan Buliri, to kubino ibedi yu?eyi wan."</t>
+  </si>
+  <si>
+    <t>Min jo to wacho ri nyithindho pere munyo lworo swa ni, "A!  Nyithindho paran, ogwa? ago ger swa bino tieko wan kendo obokere ma chulo piny.  Winonyali?"</t>
+  </si>
+  <si>
+    <t>Nyithindho no jowacho ni, "Lwo?i ri wan."  Min jo ochako wer kalwo?o Buliri ama:</t>
+  </si>
+  <si>
+    <t>"Buliro buliri buliriye buliri,</t>
+  </si>
+  <si>
+    <t>Buliro buliri buliriye buliri,</t>
+  </si>
+  <si>
+    <t>Buliro buliri buliriye buliri."</t>
+  </si>
+  <si>
+    <t>Opiyo gi Odongo Buliri nyuka chango anywoli jo Buliri, fwodi jokuneniye Buliri, biye joneniniye Buliri owero ameno dikweth.  Kani jokidho neno piny obokere pa mach ogwa? otundo mager swa min jo opondo yu?eyi yach nyaka ni wokayi Opiyo, Odongo to chwowi ni wowire ri Odongo, Opiyo to chwowi wire meno dikweth.</t>
+  </si>
+  <si>
+    <t>Munyo olach kere bende onwa?o luwo to wacho ama ni, "Kafwodi akitho timi win, ama ?adi win lwetan mathi me ji ma chango achamo jo, jowowok, aka atho."</t>
+  </si>
+  <si>
+    <t>Jotimo ameno.  Adieri ji jowok swa i iye ogwa?.  Rumachien dhako ma oti achiel munyo owok to odoko wacho ni, "O!  Wiyan owili gi churo paran i iy' ogwa?.  Weyi agik akidhi aomi churo."  Munyo odonjo kendo i iye ogwa?.  To ogwa? to tho to ?olo dhakodwo? me i iye.  Kunyalo woki kendo otho koro.  Meno min nyithindhi gi rut pere jowinjo siem kendo jotero piny paka piny pajo kendo jomuwok i iye ogwa? jofwoyo jo swa madit mere jobedo wade pajo.</t>
+  </si>
+  <si>
+    <t>Aweyo ran josangala to adwoko ran.</t>
+  </si>
+  <si>
+    <t>ix.	Kibate</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jal ma ilwo?o ni Kibate.  Kibate me omako mere gi nyawote.  Munyo onwa?o jolimere swa, Kibate kidho limo mere pere.  Mere pere bende bino limo Kibate.</t>
+  </si>
+  <si>
+    <t>Ndelo achiel munyo Kibate otieko kidho limo mere, munyo odwoko obedo piny to paro ama, "Bedi achaki geto ot man manyien kamere paran bino won wa?an, anitye i ot manyien."  Ameno won Kibate ochako geto kendo mapiyo swa.  Yiko kageto kunyo, chano, tweyo, bolo, umo gi rwadho, fuyo chwado piny meno jye orumo.  Kani Kibate kidho neno to limo balwa pa mere pere kawacho rigo paka bino limo go.  Kibate osangala swa paka mere bino munyo ochowo geto ot pere.  Ameno won to mere bino limo go, Kibate osangala swa to rwako mere pere i ot manyien.</t>
+  </si>
+  <si>
+    <t>Mere ouro swa Kibate to wacho rigo ni, "Kibate, igeto nedi ot manyien me ma ikiwacho ran abini, akonyini!  Aneni malo ka orem gute achiel."</t>
+  </si>
+  <si>
+    <t>Munyo chiemo ana Kibate, "Chimi achima ran ameno ayombere ayombo ato? gute achiel, akeli wakethi kenyo."</t>
+  </si>
+  <si>
+    <t>Kibate oweyo mere pere chimo omako le gi thach kidho to?o gute.  Munyo otundo isa, onwa?o gute mulile swa, obolo thach piny omako le nyaka ni oto? gute.  Ana gute, "Kibate, ikiri ito?an weyan."  Kibate obwok swa, to medere gi ?wech dwaro gute man.  Munyo omedere to doko nwa?o gute adek mulile maber swa.</t>
+  </si>
+  <si>
+    <t>Obolo thach piny mako le ni woto? achiel kwo? gute me.  Ana gute ni, "Kibate, ikiri ito?an.  To? mecha mere, ni woto? mecha mere, ana mecha ni, ikiri ito?an."  Nyuka jye oluwo gi Kibate.  Kibate obwok swa to Kibate chako achaka ?wech i dudi kichar.  Munyo fwodi ?wecho kichar ameno to nwa?o thwol madwo? swa manigi wich mere awuchiel.  Wich no jye oluwo gi Kibate.  Wich marapena to wacho ri Kibate ama, "Kibate ikiri inyonan."</t>
+  </si>
+  <si>
+    <t>Mararyo owacho ni, "Kibate nyonin to kunenin."</t>
+  </si>
+  <si>
+    <t>Maradek owacho ni, "Kibate lauro win."</t>
+  </si>
+  <si>
+    <t>Mara?wen owacho ni, "Kibate weyo uro gi muneno to uro win."</t>
+  </si>
+  <si>
+    <t>Marabich owacho ni, "Weyi win Kibate okadhi."</t>
+  </si>
+  <si>
+    <t>Marawuchiel owacho ni, "Kibate fwodi ni chandirok."</t>
+  </si>
+  <si>
+    <t>Munyo Kibate owinjo wach no jye, to nyaka chore kichar to neno kama nitye i iye pendi kano chiko ithe to winjo luwo korago swa.  To rwayo ni, "Kono jo ma luwo no jomedho, amadhiye gimoro."</t>
+  </si>
+  <si>
+    <t>Kani tundo onwa?o ni kere joyiko dhano, timako Kibate tiketho ibur, tinwa?o ?ata otho me, tiketho malo iwi Kibate, tichako yiko jo.</t>
+  </si>
+  <si>
+    <t>Wor munyo otundo jogoli jomotho.  Munyo jobino to jochako lwo?o ?ata otho me, kani jokidho neno jomotho me jowok jaryo to jouro swa to jowacho ri Kibate ni woti? jatho.</t>
+  </si>
+  <si>
+    <t>Kibate oti?o jatho me kir pecho pajo no tundo, to wachi rigo ni woya?i.</t>
+  </si>
+  <si>
+    <t>To Kibate penjo jo ni, "Wiy ya?o g' a?o?"</t>
+  </si>
+  <si>
+    <t>Ana jo ni, "Gi pala."</t>
+  </si>
+  <si>
+    <t>Odoko penjo jo ni, "Aka bende yanja ri win?  An bende, atiyo tich me.  Nende wi nwa?an munyo aomo gikipiny, to bedi nende wiwachi ran gima aya?o gine.  Nende aneno i dhoyo kacha manago ama yanja swa."  Ti oro go ni, "Kidhi iomi."</t>
+  </si>
+  <si>
+    <t>Kibate oringo, ringo ma kichutho.  Munyo otundo i dudi koro to nwa?o obwol otwi ofudho obwol no.  To odoko nwa?o kasiki moro, oti?o kasiki no.</t>
+  </si>
+  <si>
+    <t>Munyo wacho ni omoki gine mach aoyo.</t>
+  </si>
+  <si>
+    <t>Munyo fwodi wotho to romo gi jamilalo moro, kere jamilalo no okwali dhia? pere.  To obwol ma Kibate oti?o to lokere ri?o ma chil to kasiki to lokere wich dhia?.  Milalo to mako Kibate munyo goyo ndur swa kir pa rwoth tundo pa rwoth marapena ri?o olokere obwol.  Wich dhia? olokere kasiki.  Ameno Kibate oloyo banja jamilalo ojulira.  Kokidhi pa rwoth man.  Jamilalo loyo banjo. Munyo kendo kidhi pa rwoth man, Kibate oloyo banja.  Ameno ameno ato wire awira obwol gi kasiki wire awira kir pa kere.  To banja loyo Kibate tibolo Kibate i jera.  Kareno yupa kere nitye ogwa? manigi mach itunge.  Aka i oro jujera omo mach no, jokidwok.</t>
+  </si>
+  <si>
+    <t>Kogwa? no openjo jo ni, "Wachi ran gima itieko neno, jokiluwi meno to jodo? ado?a kenyo."</t>
+  </si>
+  <si>
+    <t>Munyo oori go to munyo otundo both ogwa?, ogwa? openjo go ni wowachiye rigo gima okelo go i jera, to Kibate chako, paka omako mere, paka ogeto ot, paka mere okidho limo go, gi paka mere owacho rigo paka gute oremi, oti?o le gi thach kidho to?o gute.  Oweyo mere chimo malo gi paka yen oluwo gi go paka obwok to ringo kichar paka onwa?o thwol ma jawich awuchiel.  Wich no jye kis achiel oluwo gi go.  Paka oringo nyuka otundo kama i yiko i iye dhano o?eyo ni, 'Kono imedho.'  Munyo oyik go gi dhano no, munyo obin golo ?ato yiki no to jowok jaryo.  Omiyi go ti?o mulambo no kir pecho pa jome.  Omiyi go ya?o jatho cha, rieko muthumo nyuka oori go omo gi ya?o.  Paka onwa?o obwol gi kasiki, oti?o to romo gi mulalo ma okwal dhia? pere.  Paka obwol gi kasiki jolokere rigo.  Banja ma okelo go pa kere to ogwa? to nyiero anyiera swa to podho piny.  To tungi ogwa? ma dimach to tur, to kwanyo to tero ri kere.  Munyo kere oneno go gi mach no, kere osangala swa munyo otito ri kere gima obedo.  Kere omiyo go sanduku ma pesa kir gi motoka mukwa?o go kir pecho pere.  Onwa?o anwa?a mere pere cha fwodi chimo achima malo wi ot kama gute ongoye i iye.</t>
+  </si>
+  <si>
+    <t>Aweyo ran josangala to adwoko ran. Adongi ran kari olwa pa nera."</t>
+  </si>
+  <si>
+    <t>x.	Kilagwech gi Ogwal</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo Kilagwech gi mere pere, Ogwal.  Ikiliesa pajo, kis dhano opakere gi nger ma woth pere.  Paka Ogwal wotho i pi, to Kilagwech wotho i hongo malo.  Otundo kir munyo kiliesa olokere piem.</t>
+  </si>
+  <si>
+    <t>Ana Ogwal ni, "An, Anyalo ringo gi pi to ikinyali yomban."</t>
+  </si>
+  <si>
+    <t>Ana Kilagwech ni, "Ogwal weyi ramo chunyan.  An aringo i hongo kendo aringo swa, inyalo yomban nedi?"</t>
+  </si>
+  <si>
+    <t>Ameno won kole piem ochakere ma ochikere ndelo ma piem ?wech wobedi iye ato sabit achiel yunyi me.  Mafwodi sabit no kurumo kere Ogwal odonjo i pi winjirok gi ogwale wadi ni ?ata owinjo ka Kilagwech wacho ni, "Kururu Ogwal, ayombin ba, odwoki wach achiel achiel."  Kende ni, "?a?"</t>
+  </si>
+  <si>
+    <t>Ameno kis Ogwal jye ma pi jonia? wach me dwoko ni, "?a, ?a."</t>
+  </si>
+  <si>
+    <t>Ameno ndelo otundo ma chako ?wech.  Jodongo ma jokidho neno ?wech me jotundo.  Firimbi gi kwano orumo Ogwal odonjo i pi to nywongo rigo gi kenyo to Kilagwech ringo pa tho.  Munyo otundo kumogo koro to nyaka wodho dwonde ni pakere wacho ri Ogwal ni "Kururu Ogwal, ayombin, ba!"</t>
+  </si>
+  <si>
+    <t>Ogwal odwoko go malo swa ni, "?a?"</t>
+  </si>
+  <si>
+    <t>Odoko Kilagwech oringo swa to doko koko malo swa ni, "Ogwal ayombin, ba!"</t>
+  </si>
+  <si>
+    <t>Ogwal odwoko go ni, "?a?"</t>
+  </si>
+  <si>
+    <t>Kilagwech odoko ameno dwonde a?wen, marabich.</t>
+  </si>
+  <si>
+    <t>Munyo wiye wiro go swa to podho i pi to chako nywongo wi pi.  Otemo lwo?o Ogwal moth moth.  Munyo kidho tho Ogwal kiwinji rumachien mere to Ogwal oneno.  Munyo Kilagwech otho otop miyin ato piem gi jarieko itho mikwiya.</t>
+  </si>
+  <si>
+    <t>Orumo ameno.</t>
+  </si>
+  <si>
+    <t>xi.	Malo gi Gimoro</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jachwo ma ilwo?o ni 'Malo' gi Yach gi nyir pere i malo no.  Obedo bende man ma ilwo?o ni 'Gimoro.'  Gimoro no kareno nitye i piny ka.  Ndelo achiel, yach pa Malo jomito bino i piny kiwayaye.  Munyo jotundo i piny jonwa?o jachwo no ma ilwo?o ni Gimoro.  Go won kende gi dhia? pere bende achiel.</t>
+  </si>
+  <si>
+    <t>Jopenjo go ni, "Inika kendin ichamo a?o?"</t>
+  </si>
+  <si>
+    <t>Jalo owacho rijo ni, "An nigi dhia? paran me.  Aka ka obolo woyo am' achamo."</t>
+  </si>
+  <si>
+    <t>Tidok penjo go ni, "To imadh' a?o?"</t>
+  </si>
+  <si>
+    <t>Ana go ni, "Dhia? paran me, ama ka olayo, ama lach mere amadho."</t>
+  </si>
+  <si>
+    <t>Jo no jouro swa gima jowinjo no.  Munyo jotieko kiliesa ameno to jodok.  Tundo pecho joliesaye ri bajo, Malo.  To Malo uro swa bende.</t>
+  </si>
+  <si>
+    <t>Ndelo achiel jowacho wegi ni, "Wakidho dwaro dhia? pa Gimoro."  Ameno won to joayi kidho kwalo dhia? pa Gimoro to jodwoko gine.  Kareno bajo nigi dhok madit swa i chiel pere.  Gimoro ochandere swa kech gi riyo hongo ma lach swa, munyo Gimoro kwiya, ni dhia? pere nitye kune.  Kareno dhia? no onywol kendo nyithindhe oromo.  Yach no wegi jogik wacho ri Gimoro paka jo?eyo kama dhia? no nitye iye.</t>
+  </si>
+  <si>
+    <t>Jalo osangala swa to penjo jo ni, "Winyalo teran, akidhi aomi?"</t>
+  </si>
+  <si>
+    <t>To Joyeyo ni, "Ei."</t>
+  </si>
+  <si>
+    <t>Ameno jowotho gi Gimoro kir pa jadwo? Malo.  Munyo jotundo pa Malo, okel dhok kweth de, tiwacho ri Gimoro ni, "Ere, iwon pa chim dhok perin."</t>
+  </si>
+  <si>
+    <t>Gimoro owacho ni, "Ha!  An ma gimoro amora me!  Kareno jotieko chikirok gi okondo ni kinoneni aayi, dhia? ma no pie kwo?e, meno dhia? perin.  Odoko ka no kodere i man, meno amutel nywolo.  Ka doko amedere ameno ma luwo ameno ameno nyuka jorum.</t>
+  </si>
+  <si>
+    <t>Dhok marapena ma okel okondo koayi.  Gimoro okwero kawacho ni, "Kwo? dhok me jye aparan ongoye i iye."  Odoko okel dhok ma chiel man, ama nyaka okondo oayi to pie itu? dhia? achiel.</t>
+  </si>
+  <si>
+    <t>Ama Gimoro owacho ni, "Ei, dhia? paran eno."</t>
+  </si>
+  <si>
+    <t>Aka odoko oayi to pie itu? dhia? man, to Gimoro wacho ni, "Man kendo eno ma nywol."  Ameno ameno nyuka ochowo dhok pere jye.  Munyo ochowo oketh dhok no gichien.  Yawere tineko dhia? titedo chiemo gi ri?o no jye gipi.</t>
+  </si>
+  <si>
+    <t>To ilwo?o Gimoro chiemo, to iwacho rigo ni, "Eno, wamiyin chiemo no, cham jye."</t>
+  </si>
+  <si>
+    <t>Gimoro ologo maber, to bedo piny, to wacho ni, "Ha!  An ma gimoro amora me!  Anyalo chamo chiemo me jye chowo!"  Kani bolo wa?e to neno bur maluth swa dhu bothe.  Ochamo manok to chako kwanyo chiemo i boke bolo i bur.  Aka bende boke to bolo gichien.  Munyo otieko bolo jye nyaka to lwo?o jo ni ochowo chiemo.  Munyo kir bur ochule to jo no jouro.</t>
+  </si>
+  <si>
+    <t>To odoko jowacho ri Gimoro ni, "Baba ooro wan ni le e e.  Ni kidhi ibar rigo yen aoya.  Aka yen ma go oyo ibaro tele."  Jye gimoro kokwero.</t>
+  </si>
+  <si>
+    <t>Omako le to kadho kir kama di tele.  Otundo to wacho ni, "Ha!  An ma gimoro amora me!  Tele bende ibaro nedi?!  Weyi atem."  Ni kidho baro, to tele bare maber swa, kendo ma boyo swa.</t>
+  </si>
+  <si>
+    <t>Munyo oromo otweyo wich yen pere madwo? swa ma tele, to chungo to paro ni, 'Tele ma kiti?ere me, alayeyere nedi?'  Kani kidho mako, ape!  Sewi pama sanja.  Ameno won opoy munyo otundo gi wich yen ma tele.  Our to iwacho ni, "Ape!  Kere me gimoro amora adieri!"  To imiyo go dhok pere jye dok gine.  To kareno nitye nyar Malo ilwo?o ni Nya?ono omito swa nywomirok gi Gimoro.</t>
+  </si>
+  <si>
+    <t>Munyo owacho ri bamere, bamere oyeyo go to wacho ri nyare ni, "Kikadho gi Gimoro, Tho wokiri wo?eyi, kendo ikiri ikidhi gi go.  Ato Tho wiye rach, bino chandin."</t>
+  </si>
+  <si>
+    <t>To gosewila Nya?ano gi kis gimoro gwendi, gi kal ma gwendi lachamo.  Kareno Tho kieye bothi Nya?ono.  To ioro Tho bor, tichiko Nya?ono ni, "Kwanyi kis gimoro perin jye, ikadhi.  Ka wiyin owil gi gimoro, kipoyo ikiri dwok iom.  Ato ibino nwa?o Tho odwoko.  Iwinjo!"</t>
+  </si>
+  <si>
+    <t>Ameno won otieko oro Tho.  Nya?ono gi chwore e jokadho, to i royo bor nyaka to Nya?ono poyo ni, "O!  Wiyan owili gi kal pa gwendi.  Gwendi bino tho."</t>
+  </si>
+  <si>
+    <t>Kani gik, onwa?o Tho bende otieko dwoko.  To Tho sangala swa kapenjo ni, "Nya?ono onwa?o iweyan?"</t>
+  </si>
+  <si>
+    <t>To ni otem i wondo Tho nedi.  Aka nyamin wokadhi, Tho kiyey.</t>
+  </si>
+  <si>
+    <t>Bajo munyo ojok to wacho ri nyare ni, "Meno wach perin, akwerin ni kikadho ikiri gik chien onyo kadhi win gi go ongoye rieko."</t>
+  </si>
+  <si>
+    <t>Ameno Nya?ono jokadho gi omin go, Tho.  Munyo jotundo i piny kis ka nyamin onywol to kech neko go.  Go neko nyathi pa nyamin meno nyakewi mere, ni chiemo pere.  Munyo asa neko nyithindho pa Nya?ono, to Nya?ono kidho to ywakere ri bamere paka Tho ochowo kwo?e nyithindho wotimi nedi.  Bamere ooro yach temo dwo?o Tho.  Tho othiero jo ameno jochako riemo ariema gi men to jokunyalo mako go, to jojok to jowacho ni, "Nya?ono, iwon chango imito dwoko gi Tho.  Eno othiero wan do? gine."  Tho odo? to chako neko nyithindho pa Nya?ono, kir pama me.  Rodo? pa Tho piny me, atho munyo pama sika wan piny ka.</t>
+  </si>
+  <si>
+    <t>1. Wanyithindho pa Nya?ono gi Gimoro.</t>
+  </si>
+  <si>
+    <t>2. Wanyikwayi Malo, Were.</t>
+  </si>
+  <si>
+    <t>3. Wanyikewi Tho.</t>
+  </si>
+  <si>
+    <t>xii.	Ochulu gi Liech gi Dhia?</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo Ochulu gi Liech munyo jonigi pesa pajo.  Kis ?ata achiel omito kidho nyewo dhia? pere yu katale.  Ndelo ma katale munyo otundo, jowotho kidho nyewo dhok ato kis ?ata achiel won onyewo dhia? pere.  Ochulu onyewo ma roya.  To Liech onyewo ma thwon.</t>
+  </si>
+  <si>
+    <t>Munyo jotundo pecho, Liech kaliesa liesa pa gomba dhia? pa Ochulu nyuka jotundo kir wacho ni onyo dhoki me jowok wayi weso.  To joyeyere ameno.  Jokwayo ameno iweso oro aryo, Munyo jochako maradek kareno dhia? pa Ochulu odhuro, jomedere ameno kwath munyo weso pa Ochulu orumo, to liech chako, ndelo achiel to Ochulu mito kidho kiliesa ye gi liech yukuma go kwayo i iye dhok.</t>
+  </si>
+  <si>
+    <t>Munyo otundo kere bende andelo ma dhia? pa Ochulu onywoli i iye.  Liech munyo oneno Ochulu bino, to nwa?o thol to tweyo gine nyathi dhia? to tweyo i tiendi thwon pere ka sangala swa.  To koko ri Ochulu gi bor ni, "Jame ochulu anigi silwany madwo? swa, dhia? paran onywoli, yombere ineni."</t>
+  </si>
+  <si>
+    <t>Ochulu kutho oyengo ayenga wiye munyo kunyalo dwoko gimoro kadachiel.  Kende odok to gik i royo munyo paro gi rawacha ri liech.  To Wire to gik both Liech.  Munyo chiegin tundo both Liech to chako ywak gi nge swa ka wacho ni, "Jame, baba otho."</t>
+  </si>
+  <si>
+    <t>Aka otho pama won ma aweyo otieki kir rieyo, kir gi diyo wa?e.  Aka onwa?o baba otho mumoro wa?e!  Liech obwok swa to moth to penjo Ochulu ni, "A?o muneko jadwo??"</t>
+  </si>
+  <si>
+    <t>Ochulu to wacho rigo malo swa ni, "Baba otho gi nywoli!  Baba onwa?o nywoli to nyathi kuwok to tho!"</t>
+  </si>
+  <si>
+    <t>Liech to koko malo swa ni, "Jachwo bende nywoli."</t>
+  </si>
+  <si>
+    <t>To ochulu bende wacho malo ni, "To dhia? ma jachwo bende nywoli!"</t>
+  </si>
+  <si>
+    <t>To Liech chako nyiero gi uro rieko pa Ochulu gi go dwoko ni jachwo bende nywoli gi Ochulu bende dwoko ni, "To dhia? ma jachwo bende nywoli?"  Ameno Liech ogonyo woko thol ma otweyo i tiendi dhuon pere to dwoko ri Ochulu. Ro orieko pere oloyo Liech kir gi konon nyathi dhia? odongi paka a pa Ochulu ma roya pa Ochulu won ama onywolo.</t>
+  </si>
+  <si>
+    <t>Jome rieko ma kwo kiber wiyi Liech okwot swa rogo won dwoko chien ni, "Jachwo bende nywoli!"</t>
+  </si>
+  <si>
+    <t>xiii.	Nyithindho ma Min Jo Eye</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jachwo ma dhako pere oeye to weyo rigo nyithindho a?wen.  To rumachien to kelo dhako maido mere pere ma omiyo kir min nyithindho me oeye to kareno dhako me paka obino kenyo go kifur.  Chiemo munwa?o nyeke cha ofuro ama jochamo rumachien munyo oneno chiemo no rumo to chako kigesa paka nyithindho me jo asa chiemo aka gokiye?.</t>
+  </si>
+  <si>
+    <t>To chwore thumo rigo rieko ama ni, 'Paka onyo chiemo nok, imiyo jo nyaka moro manok aka iweyo madit ka adwoko munyo jonindo to wachamo.'</t>
+  </si>
+  <si>
+    <t>Dhako no osangala gi wach no swa to chako buyo nyithindho me chiemo, to nyithindho me bende Were miyo jo silwany ma chiemo banyithindho me kuro ka nyithindho me nindo nyaka dwoko to gudo thigo moth aka min ot bende chiko achika ithe yawo thigo moth.  Won ot donjo bedo piny ichwayo rigo chiemo.</t>
+  </si>
+  <si>
+    <t>Munyo joneno adieri, joneno nyithindho jonindo, jopoyo ka nyithindho a?wen jye jobedo piny ka jowacho ama</t>
+  </si>
+  <si>
+    <t>Marachiel owacho ni, "Baba eno imiyin."</t>
+  </si>
+  <si>
+    <t>Mararyo owacho ni, "Iwacho rigo to kinen?"</t>
+  </si>
+  <si>
+    <t>Maradek owacho ni, "?ata neno kiwachi rigo?"</t>
+  </si>
+  <si>
+    <t>Mara?wen owacho ni, "Onyo lwo? ni kenyo to ikichami?"</t>
+  </si>
+  <si>
+    <t>Ameno kis nyathi motieko luwo chako achaka chiemo kendo chiemo nyuka ye?.  Ameno ni jothum rieko nedi nyithindho joloyo jo gi rieko nyuka joweyo nyithindho me chiemo achiema gi jo nyuka joye?.</t>
+  </si>
+  <si>
+    <t>Rumachien mere munyo dhako me oneno ni onyo kiye? nyachon to chako achaka dhawi gi chwore to chwore riemo.  Ameno nyithindho jodongo maber swa.  Pecho kir konon jonitye maber swa.</t>
+  </si>
+  <si>
+    <t>xiv.	Rombo kodi Gwok</t>
+  </si>
+  <si>
+    <t>Chango chango, rombo kodi gwok jomako mere.</t>
+  </si>
+  <si>
+    <t>To bedo ndelo achiel to rombo wacho ri gwok ni, "Ibini, iwendi reye." To gwok bende yeyo.  Gwok oayi yawere mere to kidho wendo ri rombo.</t>
+  </si>
+  <si>
+    <t>Munyo gwok otundo pecho pa rombo to rombo sangala gine swa, to miyo go gi bedo to motho go.  Munyo otieko motho go, to kidho to ?olo matoke, to gowo to chako tedo.</t>
+  </si>
+  <si>
+    <t>Munyo matoke chegin chek, to rombo ayi to kidho i riete ?wen, to goyo wich mere i riete ?wen kanyo wacho ni, "Katumi, katumi."  To ?wen chako dunyi to po?o rigo sapik.</t>
+  </si>
+  <si>
+    <t>To rombo dok pecho to nwa?o matoke ochiek to tedo ?wen to miyo wendo pere chiemo.</t>
+  </si>
+  <si>
+    <t>Munyo gwok otieko chiemo to wacho ri rombo ni, "Ibini, ibende iwendi reye."  To ndelo moro to rombo bende to ayi to kidho wendo ri gwok.  Gwok osangala swa to miyo rombo kom to motho go.</t>
+  </si>
+  <si>
+    <t>Gwok to kidho piyo piyo to ?olo matoke to gowo to chako tedo.  Munyo matoke chegin chiek, to ayi to kidho i riete ?wen, to chako goyo wich mere i riete ?wen ka wacho ni, "Katumi, katumi."  Munyo ogoyo maradek wich mere to bare to podho to tho.</t>
+  </si>
+  <si>
+    <t>To pecho kome to rombo temo kuro gwok to kineni, to temo kuro ro kineni, toayi to chako woth, to tundo i riete ?wen to nwa?o gwok nende otho de chon.</t>
+  </si>
+  <si>
+    <t>To rombo wacho ri gwok ni, "Amere paran nende ikitedi ran kada doko?  Aweyo ran iti?o gwok ikidho yiko tadoki ran."</t>
+  </si>
+  <si>
+    <t>Nyadoi Immaculate Owino</t>
+  </si>
+  <si>
+    <t>xv.	Jachiko Awendo</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jal moro ma jachiko awendin.  Jalo obedo gi mon pere awuchiel.</t>
+  </si>
+  <si>
+    <t>To bedo ndelo achiel to jalo kidho chiko to mako awendo pere achiel.  Munyo odwoko pecho to kano awendo pere, to yawere mere to doko mondo kidho chiko awendin, to ndelo no to doko mako awendo pere achiel.</t>
+  </si>
+  <si>
+    <t>To munyo odwoko pecho to nwa?o awendo ma nyoro go omako ongoye kama go okano iye, openjo mon pere to kisi dhano to kwero ni akineno.</t>
+  </si>
+  <si>
+    <t>Jalo odoko okano awendo no to yawere mere to doko kidho chiko ma ndelo maradek. Ndelo no odoko omako awendo achiel, to munyo odwoko pecho odoko onwa?o awendo ma nyoro go okano cha odoko ongoye.</t>
+  </si>
+  <si>
+    <t>Jame odhier to chako penjo mon pere awuchiel me, to kis dhano no kwero ni kuneno awendo.</t>
+  </si>
+  <si>
+    <t>Jame to nge mako go swa, to konyo buri ma luth swa, to lwo?o mon pere jye, to jobino dhu bur, to fwonjo jo wer me.</t>
+  </si>
+  <si>
+    <t>Awendo pa chworan  -  Kewere</t>
+  </si>
+  <si>
+    <t>?ato chami go  -  Kewere</t>
+  </si>
+  <si>
+    <t>Amo tho ka  -  Kewere</t>
+  </si>
+  <si>
+    <t>Kewere, kewere ke  -  Kewere.</t>
+  </si>
+  <si>
+    <t>Kis dhako owero ameno to kalo buri, to munyo otundo weso pa dhako marawuchiel to chako wer to munyo kitho kalo bur to dhako no podho i bur.  To gime nyutho jal me ni kere dhako me amoido kwalo awendin pere.</t>
+  </si>
+  <si>
+    <t>To sawa no won to yiko ayika dhako no iburi no.</t>
+  </si>
+  <si>
+    <t>Aweyo ran iyiko dhako no to adoki ran.</t>
+  </si>
+  <si>
+    <t>xvi.	Nyir ma Jokidho Dimo Yen</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo nyir a?wen ma jokidho dimo yen isa.  Munyo jotieko dimo yen pajo to jotweyo.  Munyo jokidho yeyirok to yach a?wen jobino bothi jo ni jomito nyir.  Kenyo nyako achiel to lokere gwok to odo? nyir adek.</t>
+  </si>
+  <si>
+    <t>Kis jayach oyero nyako pere to jayach achiel do?.  Jayach me owacho ni, "Weyi akwanyi rani gwoki me okidhi okuri rani pecho."  Yach adek jodok gi nyir pecho pajo.  Jayach achiel bende odok gi gwok.</t>
+  </si>
+  <si>
+    <t>Yawere mere to jayach ma oti?o gwok jokadho fur gi min gi bamere, to joweyo gwok kuro pecho.  Gwok munyo oneno ji ongoye, to bolo woko pien to lokere dhano.  Yawo dero, to kwanyo kal, to goyo, to chielo to chako rego.  Munyo wero ni:</t>
+  </si>
+  <si>
+    <t>"Ilwo?an see kere to adhano</t>
+  </si>
+  <si>
+    <t>Ilwo?an gwok kere to adhano</t>
+  </si>
+  <si>
+    <t>Ibolora kwon, kwon machol</t>
+  </si>
+  <si>
+    <t>I ga gi luthi, luthi machol</t>
+  </si>
+  <si>
+    <t>Ilwo?an see kere to adhano</t>
+  </si>
+  <si>
+    <t>I ga gi luthi, luthi machol"</t>
+  </si>
+  <si>
+    <t>Munyo otieko rego to tedo kwon kodi magira, to chamo apere to weyo ri juma jokidho fur.  Jame munyo jodwoko, jonwa?o chiemo to jochamo, kis ndelo ameno ameno.</t>
+  </si>
+  <si>
+    <t>Ndelo achiel to jome, jowacho ni, "Wapondi, waneni ?ata asa tedo riwan."  To ji aryo, jodonj pecho to jopondo.  Nyako me to bolo woko pien to timo paka kis ndelo gotimo.  Munyo gotieko rego, tedo, chiemo, to go kidho lwok, opoyo munyo jayach pere wacho ni, "Nyako kis ndelo iwondo wan ni i gwok kere to in dhano.</t>
+  </si>
+  <si>
+    <t>Nyako me obwoki swa to lokere dhano ki chutho, ko doko lokere gwok to do? ado?a paka dhako.</t>
+  </si>
+  <si>
+    <t>Aweyo ran chamo mbaga madwo? tek tek akaloran olwa pa nera.</t>
+  </si>
+  <si>
+    <t>Nyawere Magdalen</t>
+  </si>
+  <si>
+    <t>xvii.	Jal ma Otero Nyithindho Pere ?weto Ayuyu</t>
+  </si>
+  <si>
+    <t>Chango chango, munyo kech opodho i piny.  To bedo jachwo manigi nyithindho pere aryo, gi dhako pere.  To kareno dhako no kumito nyithindho me be, rupir go kam' onywolo nyithindho no.</t>
+  </si>
+  <si>
+    <t>Ndelo achiel to jowacho ri chwore ni, "Kech kidho neko wan e e.  Gimitim boli woko nyithindho perin aryo me.  Teri jo kamoro bor i dudi.  I lule kama jokinyali dwoko i iye.  Jowotho koro."</t>
+  </si>
+  <si>
+    <t>Jal me owinjo kendo osima wach no rupir nyithindho jokimiyi jowoye?.  Ndelo achiel to bajo wacho ri nyithindho pere ni, "Kwanyi win adita akwa? win wikidhi wi?weti win ayuyu."  Apaka nyithindho no jotimo.</t>
+  </si>
+  <si>
+    <t>To jochako woth gi bajo, tundo i dudi ni nyithindho me jowowachi ri bajo ni, "Baba, kole ayuyu e e."</t>
+  </si>
+  <si>
+    <t>Bajo kwero akwera ni, "Be, yumalo koro amomore, owe win aowa."  Jowotho nyuka jotundo bor swa, kareno joluwo gi dudi, gima go mito won arwenyo nyithindho me royo kadwoko.</t>
+  </si>
+  <si>
+    <t>Rumachien mere to nyaka chimo ri nyithindho no ni, "?weti win kenyo.  ?weti win madit swa.  An e e, anika ato?o kedi, kafufa oromo wino wach ran to wadoki." To nyithindho no jochako ?weto adieri jo?weto madit swa jo?eyo ni bajo nitye kere odok chon swa.</t>
+  </si>
+  <si>
+    <t>Munyo otundo pecho, owacho ri dhako pere ni, "Sangala aliera gim' atieko bolo woko jo, odoko konen jo."</t>
+  </si>
+  <si>
+    <t>Munyo nyithindho no jotieko ?weto a?weta to jochako lwo?o bajo.  Ni jowolwo? kere bajo odok chon, to bende jochako rango dhoyo ama dwoko.  Nyaka bajo li? luwo munyo go tito ri dhako pere, to bende jokonjere jodwoko.  To munyo dhako no oneno nyithindho no to nyaka to julo gi nge swa.</t>
+  </si>
+  <si>
+    <t>Ameno ooro nyithindho no wegi te?o fufa gi tedo nyuka chiek.  Munyo fufa ochiek to jochamo, jochamo pecho gi pi nyuka rumo.  Odikin mere to doko bajo wacho rijo ni, "Owe win odoko akwa? win ?weto kendo.  Nyoro onwa?o fwodi adwoko kedi aka aomi win."</t>
+  </si>
+  <si>
+    <t>Kareno meno wondo jo.  Ameno okalo gi jo lule makalo apar to nyaka odoko wacho ri nyithindho me ni, "Ato?o kedi woni ka, katero pecho aledwoko omo win, wiwinjo?"</t>
+  </si>
+  <si>
+    <t>Munyo fufa orumo, nyithindho ni jo wokor bajo nyuka piny kidho yutho ni jotemo woth kere jomedere yumalo ayino, ameno to piny yutho.  Joneno ?angi tele moro kuma yido ogwa?e jonindo i iye, to jodonjo i iye, to jonindo.</t>
+  </si>
+  <si>
+    <t>Munyo piny oyawere ma nyako mere kareno winjo kech swa.  To ma jayach wacho ri ma nyako ni, "Bedi abeda kenyo abino."  Munyo jayach no wotho gi bor bor, neni gima chalo pa boke pendi.  Ochore nyuka neno ni pendi adieri, kani kidho neno ni matoke achiel ochiek.  Okidho to jako gi pi, to tero ri nyamin, to jochako chamo.</t>
+  </si>
+  <si>
+    <t>Munyo jotieko chamo, omito swa gik dwaro ni won pendi no ?a.  Ameno munyo ogik wotho munyo liwere, munyo kwiya ni 'adech no nitye ?a kosa a?o?'  Nyuka kani kidho neno ni to neno ot moro achiel, kineni won ot no, to thumo rieko idho ot no moth swa to donjo i lum to umere gi lum ma mito neno ni won ot no chale nedi.  Rumachien mere de, to nyaka neno won ot dwoko de ma ool, owok doyo pendi.  Nyaka to bedo piny to chako wacho ni, "Kwiya atedi ri?o a?o?  Ma dhia?, ma rombo, ma diel, ma gwok?"</t>
+  </si>
+  <si>
+    <t>To won to dwoko ni, "Aweyi, atedi ma rombo ama kwako chiek odoko amamit.  Asa oli."</t>
+  </si>
+  <si>
+    <t>Munyo otieko theno fufa to nyaka odoko chako paro gi kwano nyingi matoke ni, "Kwiya atedi nyarwanda, kwiya kiguti, kwiya nyaminnwa, kwiya teretesa."</t>
+  </si>
+  <si>
+    <t>To won odoko dwoko ni, "Aweyi atedi nyarwanda."  Ama yom yom ama kirwu chiek.  Okwako tedo nyarwanda odiyo, munyo oti?o woko matoke le chako toko.  To ?ata ni wilum, to chako gi wer malo i lum gi wer mamit swa ni, "Wer awera ameno ayombere aomi chieno paran, wamieli."  Kere nyaka ni woomi lake ma chamo gine go, yokama go furiye.  Munyo owok gi ?wech, to jayach bende to loro wi ot piyo swa to olo woko matoke jye gi ri?o jye ma kir kado to ?wecho gine both nyamin.  Kani jaomi chieno pere dwoko onwa?o jawer oli?.</t>
+  </si>
+  <si>
+    <t>Ana go, "Winyo wer wacham matoke gi ri?o." Winyo:</t>
+  </si>
+  <si>
+    <t>Pinyi si si si.</t>
+  </si>
+  <si>
+    <t>To wire to wacho ni, "Kada ibedi akitok matoke paran gi ri?o t'achamo."</t>
+  </si>
+  <si>
+    <t>Kani kidho neno sapik, matoke, ongoye girachama moro jye, ongoye!  To paro swa to wacho ni, "Kwiya kendo atedi?"</t>
+  </si>
+  <si>
+    <t>Ana go won ni, "A!  Weyi amadhi churo paran anindi."  To kadho nindo ma kuchiemo .</t>
+  </si>
+  <si>
+    <t>Gima otimere ameno di ?wen, marabich jawer ni kidho idho malo wi ot ni kidho neno onwa?o jadwo? kosa dhakodwo? me odole fwodi wikanindo oworo.  To gik both nyamin tundo dikin odoko to gik neno kendo ni oayi.  Onwa?o awa?a fwodi jakanindo ameno.  Munyo ndelo okadho adek, kani kidho gik kendo onwa?o ni lwa?ino sunga.  Ameno kere gi no otho, to gwedho gi luth moro mabor to podho piny munyo ?we.  Ameno okwanyo to kidho bolo woko.  Munyo otieko bolo woko to chako bino neno bath tiendi, ni i poyo onwa?o jo nitye jaryo kosa kalo kenyo.  Munyo onwa?o ni ongoye kendo man to chako yweyo ot.  To go gi nyamin to jotuk i ot p'Ogwa? me, tundo jolunjo gikipiny p'Ogwa? me, adieri nyithindho cha jo?a?.</t>
+  </si>
+  <si>
+    <t>Munyo piny ogik maber munyo ji man jye jochako woth rupir yido jolworo Ogwa? cha.  To jal moro to tundo kama nyithindho me jonitye to munyo dok to kidho wacho ri banyithindho me paka nyithindho me jo?a?.  Kareno yuthu gi nyithindho me fwodi jokech swa.  Munyo banyithindho me owinjo, okwako mako kavera kidho ni nyithindho jowosakaye rijo.  Munyo nyithindho me joneno bajo, josangala adieri to jotedo chiemo madit swa gi ri?o bende madit swa ma ochamo de otweyo.  To munyo go dok, nyithindho me jodonjo dero ma nitye i iye chieth oyeyo jojowo po? kavera to jokwoyo.  Munyo jowacho ri bajo ni, kir matoke gi ri?o moweyo jye joketho i iye kenyo.  Jalo osangala kendo owotho gi ma yindo swa.</t>
+  </si>
+  <si>
+    <t>Munyo otundo pecho to tito ri dhako pere, paka nyithindho cha jo?a? gi gikipiny modwoko gine to wacho ni wok wany moro modwoko gine gine mochiek wocham.  Ni kidho neno gima ni kutya, kere manago chieth oyeyo ngil.</t>
+  </si>
+  <si>
+    <t>To dhaw gi dhako pere no swa, to goyo go, to riemo go, to gik bedo yupa nyithindho pere.  Kir pama winjo siem swa ma nyithindho joketho go i iye rupir jo?eyo maber ni, min jo ama ndir cha odak jo.</t>
+  </si>
+  <si>
+    <t>To okelo rieko momiyo bajo odak jo gi thwono jo chiemo.  Mon manok swa ma jomito nyithindho pa mon nyek jo ma jotho kosa jo eye.</t>
+  </si>
+  <si>
+    <t>xviii.	Kere Okidho Limo Jojera</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo kere ma piny no okidho limo jomutweyi jo i jera no.  Munyo otundo to i jolo go gi dwo? maber swa.  Owacho paka mitoye kiliesa gi jojera, jomutweyi jo.  To won yero jomutweyi jo kwo? wadi jo.  To yero ja?wen.</t>
+  </si>
+  <si>
+    <t>Owino, Oloka, Ochola, gi Owori to chako penjo kis ?ata achiel achiel.  Olwo?o Owino to penjo go ni, "Nyathi paran Owino banja a?o mitimo ?eyi wokelin i jera ka?"</t>
+  </si>
+  <si>
+    <t>Ana Owino, "Jadwo?, baba rwoth mayuthu wan onwa?o go kimitan apoyo ran kago makan to tweyan."</t>
+  </si>
+  <si>
+    <t>Kere to odoko penjo, "Ngato tweyi mararyo ni to ini Oloka rango otweyin?"</t>
+  </si>
+  <si>
+    <t>To Oloka dwoko ni, "Jadwo? kere, onwa?o nitye jager paran mukwalo gikipiny to rwoth ma yuthu wan to ere ni a?ata akwalo t'imakan t'ikelan i jera ka t'ithumo ran ni banja oloyan tikelan ka."</t>
+  </si>
+  <si>
+    <t>Kere oyengo wiye ka wacho ni, "Jame, otweyi jo ma jongoye gi banja ma jotimo ouro swa."</t>
+  </si>
+  <si>
+    <t>Ameno medo kiliesa gi jo man odoko omedo penjo Ochola kawacho ama, "To in, Ochola, a?a mukelin i jera ka?"</t>
+  </si>
+  <si>
+    <t>Ochola to dwoko piyo swa ni, "Jadwo? kere iyadech mawan to gikipiny chako rwenyo rwenyo onwa?o an kenyo.  Kani aneno rwoth ma iyadech mawan otundo gi jasirikale ka jowacho ran ni 'Ochola wamakini watero tweyin.'  In ?ata kwalo wan tikelan ka titweyan."</t>
+  </si>
+  <si>
+    <t>Munyo Ochola ochowo wach pere to penjo ?ati man.</t>
+  </si>
+  <si>
+    <t>"Ei," Owori munyo kere openjo Owori.  Owori oguro chonge maber swa to luwo gi bwonirok kawacho ama, "Jadwo? kere gima kelan ka yuchien mere wagore gi nyawotan.  Aka a?ata atelo goyo nyawotan no kareno anigi nge swa ato?o kir wiye lero, to munyo waosa to banja loyan agima otweyan i iye ka."</t>
+  </si>
+  <si>
+    <t>To jadwo? onyo pama nge rumo, "Kendo akudok agiki goroki gi nyawotan, kendo indiri cha atimo marach swa goyo nyawotan."</t>
+  </si>
+  <si>
+    <t>Kere osangala swa gi wach pa jayach me roluwo giradieri loyo wadi!  To kere to wacho ri jadwo? ma jera gonyo, "Owor, i jera wodok ro go luwo giradieri ri kere."  Owori owok i jera munyo sangala swa oweyo wadi ro go luwo munyo jobanere.  Wadi jowacho ni, "O, bendi wan, bende waluwi giradieri!"</t>
+  </si>
+  <si>
+    <t>xix.	Jaradhola</t>
+  </si>
+  <si>
+    <t>Chango obedo jal ma ilwo?o ni Obondo, ma obedo gimon pere aryo.  Dhako marapena ilwo?o ni Agemila, aka mararyo ilwo?o ni Nyachuro.  Hongo otundo to Obondo bolo woko Agemila kir gi nyathi pere ma nyako ma ilwo?o ni Apil, to maro swa Nyachuro kodi nyathi pere ma nyako ma ilwo?o ni Nyagol.  Hongo achiel, adhola madwo? swa omako Obondo i tiende.  Otemi tero go pa jomiliel mopokere opokere, to jye adhola konyalo chango.  To dhano moro wacho rigo ni jathieth moro oido nitye ma nyalo botho go.  Munyo oteri go, jathieth me owacho rigo ni pi ma wakawaka kende ama nyalo botho tiendi go.  To oido wakawaka nitye bor swa gi pecho pa jame.</t>
+  </si>
+  <si>
+    <t>Munyo odok pecho to lwo?o Nyagol kodi min, to wacho rijo wach ma owok both jathieth.  Apil rupir onwa?o omaro bamere swa oredo piyo to pondo i buti ot munyo mito winjo gimo timere yowoth ma bamere owok iye.  Obondo oluwo kachiko nyare mere Nyagol paka kapiny oyawere, go ripo mondo swa i wakawaka ma go bino twomo iye pi ma bino botho tiendi go.  Ochiko nyathi me paka k'onyo go kidho kosa dwoko wok i wakawaka me.  Marapena kiripi ?iyo chen.  Mararyo kiripi luwirok kichar i royo, kada motho dhano.  Maradek kiripi luwo kumi gima dongo dongo jye ma go onen i wa? yo, kosa i wa? pi.  Mara?wen k'otundo i jwom to twomo pi, ripo woth wok i jwom kir pecho ma doko koneno chen.  To medo ni wokir wowoth g'Apil rupir, kade nende okel pi pere go kibino oro.  Kada ameno, Apil munyo otieko winjo gime jye, o?wecho swa kidho wacho ri min go paka go bende bino woth gi nyamin kidho i wakawaka.  Min owacho rigo ni wotemi kanyo go ?eyo ni ka bamere o?ey, bino kwero go kidho.</t>
+  </si>
+  <si>
+    <t>Yaweremere Apil okwale gi nyamin kidho i wakawaka gi asanda pere.  Munyo nyithindho me jotieko woth mabor swa, jonwa?o i thengi royo dhakodwo? m'oti swa kanyo furo kod fur kwer.  Nyagol munyo oneno gime to koko swa kanyo nyutho nyawote gima timere.  Apil kodewo to wotho awotha.  Kenyo a kama otiya me olwo?o jo, to luwo gi jo munyo chiko jo kum gima jokiripi timo i royo kanyo jokidho i wakawaka, ma bende ochale achala gi gima Obondo onwa?o otieko wacho.</t>
+  </si>
+  <si>
+    <t>I woth pajo, jotundo yowa?e kama jowinjo ji ma luwo i thengi royo pajo ma nitye i kalima kasa i yikirok moro.  Joma luwere , joma galagasa, joma goyo bunde, joma kudho gwara, gi gikipiny man ameno.  Gima jye onwa?o jowinjo awinja to jokinen.  Munyo jomedere, joneno sandin ma mwenge ma wegi joringo aringa kendi gin gi thengi royo kenyo.  Munyo jomedo woth, doko joneno dhano ma chango otho chon ma oido nitye kir nanga ma yik, ka por apora giwiye i thengi royo kenyo.  Munyo fwodi jomedere, joneno dhako moro ma oido wotho i thengi royo kenyo munyo ?wen agoro duny i wiye.  Nyithindho me joneno gikipiny madongo swa ma kelo dhier, to kada nende ameno Apil okuro chikirok ma owinjo kum bamere kod kum dhako otiya cha.  Go konyalo neno chen, koluwo gimoro jye, ma kada nyamin otemo swa lwo?o go, geyo go gi nyutho go gikipiny ma oido timere.  Okuro kula pere chuka de otundo i jwom to twomo pi i sanda pere to chako woth dok, ma koluwo doko koneno chen.  Nyagol konyalo kuro gime jye.  Oneno chen, ogwelo nyamin, okoko kaluwo kum kis gima go oneno jye, ma kada bedi ni go bende otundo i wakawaka to twomo pi.</t>
+  </si>
+  <si>
+    <t>Munyo nyithindho me jotundo pecho, Obondo okoko gibor kanyo ryemo Apil gi pi pere, to sangala swa gi pi pa Nyagol.  Tekin chako lwoko adhola pere gi pi pa Nyagol, to nyaka tiende ?adere madwo? swa.  Paka go omedo lwoko adhola gi pi me, apaka adhola bede omedo yawirok gi ramogo ma giraura.</t>
+  </si>
+  <si>
+    <t>Ndelo achiel tiwacho rigo ni kono miti ?ata oomo pi i wakawaka konyalo kuro chik ma dhoyo.  I winjo wach me, Obondo okwayo pi pa Apil, ma onwa?o go bende okano akana de wok ndelo ma bamere ryem gine go.  Munyo jadwo? me olwoko adhola pere gi pi pa nyare me, wor no won ama onindo i iye swa.  Rumachien ma ndelo adek, onwa?o munyo go nyalo kir woth, ma oido go kinyal kada ayi malo, nindo kosa chemo.  Jame olwo?o Apil to penjo go gimo timere jye i ndelo ma joomo pi i wakawaka.  Apil owacho rigo kis gima obedo jye.  Jadwo? me osangala swa gi tim pa nyath pere me.  Rumachien ma ndelo abiryo kende, onwa?o jame tiende otieko chango kichutho aka gwecho swa gi kisangala.  Tekin Obondo tieko both, to lwo?o merin, wade gi joger jye bino kisangala kanya achiel gine i kalima madwo? ma go ochano.  Jame oneko thwon madwo? swa maleny, to tedo kalima madwo?.  I kalima me go owacho ri ji paka onwa?o otieko bolo woko dhako pere madwo? me kir gi nyath pere.  To wacho paka i ndelo no, ogik maro dhako pere no kir gi nyath pere Apil, rokula maber ma go ofwonjo nyath pere, tundo kama onyalo botho rigo adhola ma onwa?o nyalo neko go.</t>
+  </si>
+  <si>
+    <t>Kigana me fwonjo wan gime:</t>
+  </si>
+  <si>
+    <t>* Marapena, dongo gi kula motire ma nyalo kelo ri wan silwany.</t>
+  </si>
+  <si>
+    <t>* Marayo, bedo gi chuny wan maber ri jodongo gi jowot wan man jye, kada nende bedi ni jotimo ri wan marach.  Apil kodi min go jomedo ameda maro jodwo? me, kada bedi ni oido obolo woko jo.</t>
+  </si>
+  <si>
+    <t>* Maradek, waripo bedo jamakuro chikirok gi kula ma ripo.</t>
+  </si>
+  <si>
+    <t>* Mara?wen, waripo bedo gi mar ri kis dhano jye ma pecho mawan, ma ongoye nyutho dakirok ri joman.</t>
+  </si>
+  <si>
+    <t>* Marabich, waripo ?eyo ni kiber chayo kosa dak dhano moro jye, rupir nyalo bedo ri wan gi kony i kwo mawan.</t>
+  </si>
+  <si>
+    <t>Aweyo jome munyo fwodi josangala i kalima pajo me, to ayombere bino wacho ri win gima dwo? me.</t>
+  </si>
+  <si>
+    <t>Owor-Obel Joyce</t>
+  </si>
+  <si>
+    <t>xx.	Jal ma Onywomo Mon Adek</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jal manigi mon pere adek.  To kwo? mon no, jobedo, joluwirok kichar kosa jotwodo.  Ndelo achiel to joyiko mwenge, munyo matoke ochiek to jopoko matoke, munyo jodhi?o matoke to ichako yweko pi ma konjo i matoke.  Kwo? mon adek me nitye achiel ma kiluw ma obadha.</t>
+  </si>
+  <si>
+    <t>Munyo mon no jochako kulo kis dhako gi dak pere.  Mon aryo ama jotelo kulo i jwom kareno nitye winyo ma wero.</t>
+  </si>
+  <si>
+    <t>Dhako ma otelo kidho i jwom munyo otieko twomo pi to yere munyo dok to winyo chako wer ni, "Nya pa rwoth me, chwili, konyan akonya chwili.  Wach ri joma pecho chwili ni winyo ni jwom kacha chwili winyo ma oruko tiko chwili winyo ma oruko gagi chwili, cho chicho dak ni pa."</t>
+  </si>
+  <si>
+    <t>To dak to podho to tho to dok pecho munyo ongoye gi dak to ioro dhako mararyo.  Munyo dhako no oti?o dak kidho i jwom to odoko nwa?o winyo no i jwom.  Munyo otieko twomo pi to yere to winyo no odoko chako wer.  Munyo otundo ni dak ni pa to dak wok iwiy dheno to podho piny.</t>
+  </si>
+  <si>
+    <t>Munyo wiro wa?e ni ?iyo chien koma di winyo.  Munyo odok pecho to owacho ri chwore ni, "Dak otho r'oweri pa winyo."  Chwore oriemo go to idok ioro dhako ma obadha kulo, meno adhako maradek.</t>
+  </si>
+  <si>
+    <t>Munyo obadha omako dok pere kidho i jwom to twomo pi, to yere dak, to chako woth.  Munyo wotho to winyo chako wer.  Owero ameno dikweth, munyo dhako ma obadha me wotho nyuka tundo pecho.  Otundo munyo ni gi pi, kendo munyo dak ber.</t>
+  </si>
+  <si>
+    <t>Jal ma won pecho ofwoyo swa dhako pere ma obadha me to won paro kosa chayo swa mon pere aryo me ma joneko degi pajo.  Munyo oparo ni mon me jotimo marach ri winyo me.  Onyo ama jame odo? rigo gi dhako pere achiel kende ma obadha me.  To riemo mon ma joluwo ma joneko degi pere me.</t>
+  </si>
+  <si>
+    <t>Aweyo ran jal cha sangala gi dhako pere ma obadha me loyo mon ma joluwere kichar chalo ma wegi jokwinyo winyo.</t>
+  </si>
+  <si>
+    <t>xxi.	Tiyo</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jachwo ma ilwo?o ni 'Tiyo.'  Kareno jachwo me nigi min ma tuwo.  Tuwo nigi adhola marach swa i tiende.  Tiyo me ama timo rigo kis gimoro kulo, rego, tedo, ?weto, timo kis tich ri min.</t>
+  </si>
+  <si>
+    <t>To kareno Tiyo me omito miel ma kiwinji ni ilamielo kune.  Aka kokidho, kakidho no kutho tedo ri min mado rigo tiende kendo kano go malo wi?ango.  Kuma ogwa? kinyali neno go rupir kareno tiendi min ?we ka gimoro jye lwo?o go woli? ali?a kendo Tiyo me nigi gwokere kweth swa ma wotho gine kakidho i miel.</t>
+  </si>
+  <si>
+    <t>Ndelo achiel to Tiyo kidho i miel.  Otieko timo ri min kis gimoro jye paka tedo, mado rigo tiende gi chiko go ni, "Mama e e, akidho i miel ikiri iye."</t>
+  </si>
+  <si>
+    <t>Ka gimoro luwo woko to go kadho kir gi gwokere pere jye.  Miel ober swa.</t>
+  </si>
+  <si>
+    <t>Pecho ka ondiek obino to chako turo bel woko kosa turo gikipiny woko.  To min tiyo won ere i ot to penjo ni, "?a?"</t>
+  </si>
+  <si>
+    <t>Ana ogwa? woko ka ni, "Ani mere pa Tiyo woni."  To openjo dhako no ni, "Okethani ka wi?a?o?"</t>
+  </si>
+  <si>
+    <t>Ogwa? to donjo to penjo dhako no ni, "Tiyo okulo o?weto, odimo yeni, otedo rini chiemo?"</t>
+  </si>
+  <si>
+    <t>Jye no dhako no kokwer to munyo openjo go ni, "Omado rini tiendini."</t>
+  </si>
+  <si>
+    <t>Okwero ni, "Be, kumado."  To nyaka ondiek tedo kwon ma odhiek odhiek to chako mado gine tiendi min tiyo mado chamo mado chamo.  To kareno mado ma nyawo ri owor.</t>
+  </si>
+  <si>
+    <t>To dhako me winjo litho swa amumiyo woori winyo akuru ni, "Akuru lwo?i rani.  Tiyo kuma okidho i iye mieli ondiek nekani ano miyini maido."</t>
+  </si>
+  <si>
+    <t>Akurur to ayi to kidho kir imieli to chako wer.  Munyo opie kawero ama:</t>
+  </si>
+  <si>
+    <t>"Tiyo ye tiyo ye tiyo</t>
+  </si>
+  <si>
+    <t>Tiyo ye tiyo ye tiyo</t>
+  </si>
+  <si>
+    <t>Kada igalo mieli gwara no"</t>
+  </si>
+  <si>
+    <t>Ondiek ochamo tiendi yukon ni otieko odoko ona?o odoko olwindo Tiyo.</t>
+  </si>
+  <si>
+    <t>Munyo Tiyo owinjo to wacho ri jogoy gikipiny ma miel ni, "Li?i win."  Munyo owinjo maber to pako gwokere pere piyo piyo swa, kir pecho to nwa?o ni tiendi min chwer marach swa.  Gwokere jomako ondiek jolaro alara to jochamo.  Tiyo chunye oramo neno gima ogwa? otimo ri min.  Okwako swa miyo akuru ma yido ro akuru lwo?o go di min otho.</t>
+  </si>
+  <si>
+    <t>Aweyo fwodi Tiyo chandere gi min kir gi konon fwodi tiendi min kochango.</t>
+  </si>
+  <si>
+    <t>Irango?</t>
+  </si>
+  <si>
+    <t>xxii.	Japidi ma Kwach</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo kwach to nywolo nyithindho aryo.</t>
+  </si>
+  <si>
+    <t>To chako rango japidi, ma okwony go gi kuro nyithindho, paka go gi ma chamo dwaro adwara.</t>
+  </si>
+  <si>
+    <t>To nwa?o japidi obedo gwok.  Omiyo gwok chik munyo wacho ri gwok ama, "Gwoki, a?eyo maber swa paka iasa wor ri choko kendo i mito swa, to awacho rin ama, kile mwodo choko imwodo munyo i pielo nyithindho ikiri mwodi munyo iti?o nyithindho itiendin.  Iwinjo?"</t>
+  </si>
+  <si>
+    <t>Ana gwok ni, "Awinjo."</t>
+  </si>
+  <si>
+    <t>Ameno won gwok ochako pidi.  Aka kwach bende onyo nitye tich pere ma dwaro girachama.</t>
+  </si>
+  <si>
+    <t>Ndelo achiel munyo kwach okidho dwar to gwok chako mwodo choko munyo othingo nyathi achiel tiende, kareno nyathi man nindo opielo, to choko por to goyo nyathi ma oti?o me malith to nyathi tho.  To oti?o nyathi mutho me to bende kidho pielo.</t>
+  </si>
+  <si>
+    <t>Ameno kwach to dwoko dwar munyo ool swa, to wacho ri gwok ni, "Keli nyithindho jowodhoth.  To okidho to kelo nyathi ma kwo mere kawacho ni micha mere fwodi nindo swa.  Munyo nyathi me otieko dhoth swa, onyo nindo kir.</t>
+  </si>
+  <si>
+    <t>Ana kwach ni, "Keli micha mere bende wodhoth kichutho,"</t>
+  </si>
+  <si>
+    <t>Ana gwok ni, "Keli meno akidhi apieli kakelo micha."</t>
+  </si>
+  <si>
+    <t>Munyo tero ma owok dhoth me to yuko yuko swa to odoko kelo meno won.  Munyo kwach oneno to kwach wacho ni, "A! Kole me amuwoki dhoth."</t>
+  </si>
+  <si>
+    <t>To gwok piemo swa kawacho ni, "Be, meno m'unwa?o nindo."</t>
+  </si>
+  <si>
+    <t>Munyo kwach oayi kidho neno nyithindho kama jonindo i iye.  To gwok ayi gi ?wech adieri kir yusa i lule.  Munyo kwach oneno ni kole nyathi achiel otho, owok i ot.  Munyo kir wa?e jye ochule to chako ri?o kichar kichar munyo kinen kada gwok.  Oringo ameno munyo kunyalo neno gwok.  To dwoko to chako yiko timi ma yiko nyathi ma otho.</t>
+  </si>
+  <si>
+    <t>Munyo otieko yiko nyathi pere no, to nyaka yiko mbaga madwo? swa ma ilwo?o ni lumbe, to lwo?o kis ogwange moro jye to kelo jogoy gi miel ma nger gi nger.  Munyo gwok owinjo gima timere jye, chunye oramo go swa.  To munyo gwok oromo gi rombo madwo? swa ma wode.  To chako winjirok gi wodi rombo ni wokani go iyiwe.</t>
+  </si>
+  <si>
+    <t>To bende wodi rombo me kukwero to medo chiko go ni, "Kada gima ywak no omedere ywak mamit nedi?  Ikiri iayi i miel kendo, ikiri imedhi.  Iwinjo?"</t>
+  </si>
+  <si>
+    <t>Ana gwok ni, "Awinjo."  To rombo kano go iyiwe.</t>
+  </si>
+  <si>
+    <t>Rombo otundo gi woro ma medho omer omeriye to i ero goyo gima ywak no kichar ameno ogwange jomer i miel kichar no rombo bende oayi to chako miel.  Munyo por aka wito iyiwe malo ka wero ni,</t>
+  </si>
+  <si>
+    <t>"Makatengi tengi makatengi tengi dule newini yiwan eni</t>
+  </si>
+  <si>
+    <t>Makatengi tengi makatengi tengi dule newini yiwan eni."</t>
+  </si>
+  <si>
+    <t>Kani ineno gwok obudhere iyiwe rombo to kwach gi ni jolaro alara gwok to jochamo kir gi rombo jye.</t>
+  </si>
+  <si>
+    <t>Aweyo ran ogwange joye? kendo josangala to an, adwoko ran.</t>
+  </si>
+  <si>
+    <t>- 4 -</t>
+  </si>
+  <si>
+    <t>Chiliendi Owino Anthony</t>
+  </si>
+  <si>
+    <t>jafwonji ma Miganja P/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bende afwoyo swa yach aryo ma jowok Siwa konyan goyo picha jye i kitabo me.  </t>
+  </si>
+  <si>
+    <t>Atimo wilo maber gi konyo wok CCT swa.</t>
+  </si>
+  <si>
+    <t>Okoth Mariko omo kitabo me ri fwonjo Dhopadhola kod kuro kigana ma Jopadhola.</t>
+  </si>
+  <si>
+    <t>Afwoyo swa gi konyan</t>
+  </si>
+  <si>
+    <t>Medo nyayo kitabo me maber swa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Achandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chango chango, obedo jachwo to nywomo dhako pere. </t>
+  </si>
+  <si>
+    <t>To dhako no nywolo nyathi achiel ma nyako, rumachien mere to dhako no to tho.</t>
+  </si>
+  <si>
+    <t>Chuny jachwo no oramo go swa, to won chako pidho nyathi no</t>
+  </si>
+  <si>
+    <t>Munyo kukwako kendo dwaro dhako man.</t>
+  </si>
+  <si>
+    <t>Munyo hongo okadho de nyaka to kelo dhako man.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedo pa dhako no kenyo onywolo nyithindho aryo kende, aka jye ma nyir. </t>
+  </si>
+  <si>
+    <t>Nyathi me ilwongo ni Achandi.</t>
+  </si>
+  <si>
+    <t>Achandi ochandere swa kendo min go me odak go amumiyo kis tich moro jye go ama timo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kere no wacho ri ji ma bedo i piny pere ni, "Kandelo ama amito kis janywol wobini kagi nyithindho pere ma nyir ma jotundo nywomirok. </t>
+  </si>
+  <si>
+    <t>Munyo jonywol jowinjo ameno kis janywol oyiko nyathi pere pa mugole gi gikipiny manyien aora indelo no kutundo.</t>
+  </si>
+  <si>
+    <t>Wodan yayero nyako achiel kwoŋ jo wonywomi.</t>
+  </si>
+  <si>
+    <t>I piny no onwaŋo nitye kere, aka wodi pa kere no dwaro nyako anywoma.</t>
+  </si>
+  <si>
+    <t>Dhako no obedo jaliwugo swa ri nyathi ma go onwaŋo, kir munyo jopere me jodongo fwodi kis gimoro jye nyathi pa nyieke mutho me ama timo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inyalo nwaŋo kitabo me bedo World Wide Web</t>
+  </si>
+  <si>
+    <t>jafwonji madwoŋ Miganja P/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afwoyo swa ji jye konyan ndiko kitabo me ma jowok Siwa, Miganjo kod Ligingi.  </t>
+  </si>
+  <si>
+    <t>Obwoki swa to penjo ni, "ŋa ma lwoŋan?"</t>
+  </si>
+  <si>
+    <t>Munyo ndelo no otundo Achandi openjo bamere gi min go ni, "Abende alakidho i mbaga pa kere no?"</t>
+  </si>
+  <si>
+    <t>Piyo ameno to jodonjo i motoka to jokadho.</t>
+  </si>
+  <si>
+    <t>Munyo joweyo Achandi goneno bathi jo kendo ogomba bende kidho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Achandi ochungo to wacho ni, "Alwo!  Bedi chango mama kutho, dinyo abende akidho pa kere."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ani Yukonin won machango onywolin biye i ot lwoki ka." </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alayikin aka ibende ilakidho i mbaga ma pa kere, to achikin ama kikidho idonji adonja i miel tichako miel.</t>
+  </si>
+  <si>
+    <t>Ikidhi i chaki timo tich perin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kiwinjo ni dwarin kubini gi ngato ma ndiri no opodho rin t'idimo chien, ibini i ot lwoki ka. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Adieri dhako cha olwoko nyare, to kelo ruk gi gikipiny ma beyo kendo mapilin swa. </t>
+  </si>
+  <si>
+    <t>Tekin Achandi odonjo i miel ma fwodi kuwire diryo wodi pa kere opodho i chinge chon nyutho ni meno nyako ma wodi pa kere kidho nywomo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fwodi jokuwire hongo moro olaŋ ma sawa awuchiel to ywak. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oweyo kukwanyo oringo aringa kir pecho to lunyo gimoro jye to weyo kenyo, to ochako tich pere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To nyako poyo wach ma nende min owacho rigo ringo swa munyo ringo to ngato achiel ma tiende to podho.</t>
+  </si>
+  <si>
+    <t>Munyo nyako okadho ojuko miel gi wacho ni, "Gimoro jye oruma."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kacha wodi pa kere chunye oramo go swa.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wipima kis tiendi nyako ma wino nwaŋi pecho no ma tiende oromi ngato me</t>
+  </si>
+  <si>
+    <t>Meno ago wikeli ran go ka.</t>
+  </si>
+  <si>
+    <t>Olwoŋo josirikale gi penjo jo ni, "Wineno ngato meŋ  Kidhi win i kis pecho."</t>
+  </si>
+  <si>
+    <t>Josirikale jotimo ameno, kareno yuthugi Achandi ni bor boriye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo jotundo pecho pa Achandi gi ni, olwo? nyir aryo ma min jonitye kipima tiendi jo, to kuromo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana min jo ni, "Go no ndiri no kokidho." </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ni pima tiende, to ngato romo tiendi Achandi ma ongoye kada kilenga lenga. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To surumbeti ywak malo swa to gik kidho omo motoka pa wodi pa kere ma omo gine nyako me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo Achandi owok pilin ma kir bamere gi min jorwenyo gine. </t>
+  </si>
+  <si>
+    <t>Min jo cha jochandere munyo nyir pere ongoye gima jonyali ri migosi ma oido ketho jo i iye, munyo Achandi chandere.</t>
+  </si>
+  <si>
+    <t>Munyo Achandi onywomere gi wodi pa kere, olimo dwoŋ gi siemi ma kis gimoro ikelo akela rigo.</t>
+  </si>
+  <si>
+    <t>Achandi oweyo gimoro jye to min odoko wok nyaka to lonyo nyako swa inger ma ndiri no okidhiye i miel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ŋa maladoŋ pecho ka lwowo diegi, tedo yweyo kamoro jye gi tich moro jye timo?  </t>
+  </si>
+  <si>
+    <t>Iladoŋ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hongo no won Achandi to winjo lwoŋo malwoŋo go i ot ma lwoki pajo ni, "Achandi, Achandi."</t>
+  </si>
+  <si>
+    <t>Munyo Achandi okidho min owacho rigo ni, "Nyathi paran, an won aŋata ayukonin machango anywolin. "</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To kada onwaŋo i mielo gi ŋa, kiwinjo ola?i ma sawa awuchiel ywaki budhi ŋato iringi ibini ka ilunyi kis gimoro min gine iweyi ka.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ilanwaŋan ka.</t>
+  </si>
+  <si>
+    <t>Achandi okidho pa kere to nwaŋo mielo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wodi pa kere obedo kakaŋasa nyir ma mielo mene ma onywomi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Josirikale jolwoŋo nyako no gimen kipima tiende. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To jopenjo ni, "Ongoye nyako man?"  </t>
+  </si>
+  <si>
+    <t>Min jo okwero gimen ni ongoye, to jowacho ni, "To nyako no?"</t>
+  </si>
+  <si>
+    <t>Min gokwero gi malo swa kawacho ni, "Bende ikidho yukune? "</t>
+  </si>
+  <si>
+    <t>Gima were kano ri jachandi kitopi</t>
+  </si>
+  <si>
+    <t>Chandirok nywolo siemi</t>
+  </si>
+  <si>
+    <t>Migosi meno adhola ma kichangi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyithindho ma jodongo chingi chiba jo, kanende min jootho kosa oeye tiweyo jo i chingi bajo.  </t>
+  </si>
+  <si>
+    <t>3/4 Jochandere swa, 1/4 jowinjoye maber ato kula kosa kite kiromi.</t>
+  </si>
+  <si>
+    <t>Jakeli kigana me ndiko</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munyo jotundo osangala gi jo swa orweyi jo, gweno oneki medho okeli.</t>
+  </si>
+  <si>
+    <t>Munyo chiemo ochiek to ikelo, to jokidho logo woko.</t>
+  </si>
+  <si>
+    <t>Wacho ameno kareno chiegin chowo chiemo ochowo gweno nyawote kubilo kir medho nyawote omadho mathi swa.</t>
+  </si>
+  <si>
+    <t>Munyo jochowo wendo jodoki!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To munyo oneni jo gi bor bor jo ringo jolojo gi wer gi kigalagasa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka paka gweno asaleny alamadho woko remo gweno no jye."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otedi piyo swa, chiemo ochiek to ikelo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo okeli jowoki logo woko.  </t>
+  </si>
+  <si>
+    <t>Munyo jotieko logo jodwoko dhuwer.</t>
+  </si>
+  <si>
+    <t>Munyo ndelo kuru to tundo, jomako dhoyo kidho yupa or ŋech.</t>
+  </si>
+  <si>
+    <t>Munyo jodwoko chako chiemo ŋech owacho ri Thwol ni, "Ee, ilachiemo munyo inindo aninda, ameno bedi maber. "</t>
+  </si>
+  <si>
+    <t>Oran onwaŋin ki ichiemo munyo inindo aninda ameno bedi maber.</t>
+  </si>
+  <si>
+    <t>Okethi jo i ot mokwe swa, omaki min gweno ma nwaŋo nitye i thach nywoli, kelo nyutho jo ni, "Me fufa me win, oran."</t>
+  </si>
+  <si>
+    <t>To ŋech gwaro gweno chon kawacho ni, "Aŋata kidho thumo ri woro madit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chingin m' ikidho chiemo gine ama idoki imako gine lowo? </t>
+  </si>
+  <si>
+    <t>Thwol openjo ŋech ni, "Meno apaka ilachiemo?  "</t>
+  </si>
+  <si>
+    <t>Giki ilogi.</t>
+  </si>
+  <si>
+    <t>Kendo munyo odwoko logo mararyo, onwaŋo Thwol ochowo woko gweno jye gi chiemo orumo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ameno ŋech ogik gi remo ma gweno ma omadho munyo thumo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joliesa manok to josewila jopecho no. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ameno jokumedere bedo mere rupir kis dhano riek.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ameno aweyo munyo jobedo ma jokitiyere kir gi konon onyo jokwor kapa mere ro girachama.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo ŋech chunye ramo rogweno malenyi mago kochamo. </t>
+  </si>
+  <si>
+    <t>ŋech kukwero to jorwayo.</t>
+  </si>
+  <si>
+    <t>Chango chango, Thwol gi ŋech jobedo mere swa</t>
+  </si>
+  <si>
+    <t>Ndelo achiel ŋech to wacho ri Thwol ni, "Amito i kwaŋaye yupa oran."</t>
+  </si>
+  <si>
+    <t>Munyo jotundo i royo Thwol to wacho ri ŋech ni, "Iŋeyo udi maloka no? "</t>
+  </si>
+  <si>
+    <t>Meno pa ochan warwayiye wamothi jo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Thwol I ŋech</t>
+  </si>
+  <si>
+    <t>Ikimiti ni wotimi rin.</t>
+  </si>
+  <si>
+    <t>Meno gima itimo ri nyawotin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To otengo penjo gweno ni, "Itiŋo aŋo?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo gweno otiŋo riŋo madit swa</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo otengo gi gweno to joromo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Otengo gi Gwendi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Adongi ran kari olwa pa nera!</t>
+  </si>
+  <si>
+    <t>Aweyo ran jouro gino tadwoko ran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jonwaŋo ni wendo odok, chiemo owaŋ ma kichamere jonindo aninda kech ka jouro gi ma otimere!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To donjo i lule to lokere ogwaŋ mager, to jomieli jye joringo dok pecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo diel oneno ni piny oyutho to weyo weri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka piny onyo oyutho to go bende kadho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jo jye jonimieli wendo odoŋ pecho, kende munyo wendo oneno ni ji ongoye pecho</t>
+  </si>
+  <si>
+    <t>Kareno yach me gi nyamin jo gi min jo ju jye jomielo amiela kir gi bajo</t>
+  </si>
+  <si>
+    <t>Mee mee me me kuru mama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ni anywoli aryo mbekuru mama ni agoyi rut mbekuru mama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mbekuro mama, mbekuro mama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo matoke twak bapecho owacho ni, "Nyithindho me, jogalo gi fufa ooro nyare wokidhi woneni jotimo aŋo gi fufa, kole diel obudho jo to ringo, to idho wiriete kawero ama ni, 'Anywolo achiel'"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jokwako gowo gi theno</t>
+  </si>
+  <si>
+    <t>Kareno min pecho gi nyare joredo yupendi ŋolo matoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yach joredo swa gi min diel athuma</t>
+  </si>
+  <si>
+    <t>Olwoŋo yach pere aryo to wacho rijo ni, "Kwanyi win min diel no wikidhi wineki"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pecho oparo swa nyuka jadwoŋ me owacho ni, "Ato onyo ongoye giratima"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo won pecho no oparo gimutimi ma rweyo jadwoŋ me onyo ni gi diel achiel kende</t>
+  </si>
+  <si>
+    <t>Ndelo achiel to wendo madwo? obino pecho no, jagombola gipi obino pecho no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Diel odoko doŋ achiel kende pecho no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To ruman tido kineko mararyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo nyithindhe jodongo to fwodi wendo kobino ineko nyathi diel marapena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nywol pa diel me maraŋwen to diel me nywolo nyithindhe aryo dichiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Diel no onywoli didek tineko nyithindhe jye kis kawendo obino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pecho pere kis ka diel onywoli ka nyathi mere odongo, to wendo bino neko nyathi diel no odoko diel no doŋ achiel kende</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jachwo ni gi diel achiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Diel ma Ineko Nyithindhe</t>
+  </si>
+  <si>
+    <t>Amumiyo kir gi konon otengo jochamo nyithindhi gwendi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo tiendan raman ama, woki konon abino chamo nyithindhin kir gi nyithindhi nyikwayi nyithindhin nyuka piny otundi i gike</t>
+  </si>
+  <si>
+    <t>Oluwo ri gweno munyo lamo kir gi nge swa ni, "Gweno, iwondan, itoŋo kir gi tiendan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka kunwaŋo kada riŋo ouro gweno swa ri wondo go gi toŋo kir tiende!</t>
+  </si>
+  <si>
+    <t>Onwaŋo gweno munyo wotho gi tiende aryo jye, ouro kendo omako nge swa gi gweno kareno tiende ramo go swa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To kadho, oriwo piny kuneno kuma ji jochokere i iye ma jonyewo riŋo, kis ka moro jye kosa lule kosa kamoro jye kuneno gimoro, ogik chien penjo gweno ni, "Gikune won kole akineno?"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Otengo oayi gi arama ma tiende jye kir gi awanyama chamo ringo</t>
+  </si>
+  <si>
+    <t>Gweno otoŋo ri otengo tiende munyo otiek chimo ri otengo yukorago</t>
+  </si>
+  <si>
+    <t>Ana otengo ni, "Toŋi ran aparan"</t>
+  </si>
+  <si>
+    <t>Kareno gweno ochungo gi tiende achiel man okano i yer</t>
+  </si>
+  <si>
+    <t>Ana gweno ni, "Itana rayisi swa itoŋo nyaka tiendin achiel timiyo jo ti miyin riŋo kuminito i iye jye</t>
+  </si>
+  <si>
+    <t>Otengo omedo penjo ni, "Itana nedi kosa aŋo?"</t>
+  </si>
+  <si>
+    <t>Ana gweno ni, "Yupiny yulule koro ibayima"</t>
+  </si>
+  <si>
+    <t>Ana gweno ni, "O, awoki nyewo</t>
+  </si>
+  <si>
+    <t>Otengo openjo go ni, "Inwa?o kune riŋo me jye?"</t>
+  </si>
+  <si>
+    <t>Ana gweno ni, "Me jye riŋo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kareno otieko miyo liech ŋwen cha ma dikin jolatero yupa or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jodoki munyo ochulu otundo i royo pere ma rwayo, orendere ni rwayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ochulu jowotho gi liech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo kuŋeyo ni ochulu ni gi ŋwen man mukano</t>
+  </si>
+  <si>
+    <t>Ochulu oyeyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Liech owacho ri ochulu ni, "Jame, miyan ŋwen perin me, dikin ikwaŋan gine wateri yupa oran"</t>
+  </si>
+  <si>
+    <t>Ochulu ojowo meno keno madwoŋ swa to ŋwen chok</t>
+  </si>
+  <si>
+    <t>Liech to wacho rigo ni, "Jame, ŋwen perin dunyi maber swa"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kareno nende jowo no kano akana i dudi bor</t>
+  </si>
+  <si>
+    <t>Munyo okidho jowo keno marabich, ka ni poyi ni liech okonjere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To ochulu jowo keno madongo swa aŋwen, ma liech fwodi kada gimoro kuwok ni ŋwen</t>
+  </si>
+  <si>
+    <t>Munyo otieko umo, ŋwen oduny mange swa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To ŋwen pa ochulu tukere duny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To ochulu oyombere omo gi umo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo ochulu otieko nyaro to kunyo bur, ato ŋwen oido chiegin tukirok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Liech bende goyo ma nende olaro gi ochulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo otieko goyo to chako nyaro woko lum moro jye ma nitye kacha</t>
+  </si>
+  <si>
+    <t>Ochulu oweyo rigo to medere kir i ŋeti lul moro ochako dwaro to adieri to nwaŋo ŋwen ma lak alaka</t>
+  </si>
+  <si>
+    <t>"Ee!" liech okwero malo swa ka wacho ni, "Be, meno ŋwen paran, kenyo akuma oido ajowiye ŋwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Owacho ni, "Anwaŋo waŋ ŋwen paran</t>
+  </si>
+  <si>
+    <t>Jokadho woth i dudi rango ŋwen paka ochulu ama waŋe tek, otelo neno waŋ gima chalo ŋwen</t>
+  </si>
+  <si>
+    <t>Obedo ndelo achiel, liech owacho ri ochulu ni, "Nyakewinan owe, wakidhi warangiye ŋwen sisi wagoyi"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kareno ochulu lwoŋo liech ni 'Nera'</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo ochulu gi liech</t>
+  </si>
+  <si>
+    <t>Ochulu gi Liech Jonwaŋo Ŋwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pecho pere kis ka diel onywoli ka nyathi mere odongo, to wendo bino neko nyathi diel no odoko diel no do? achiel kende.  Diel no onywoli didek tineko nyithindhe jye kis kawendo obino.  Nywol pa diel me mara?wen to diel me nywolo nyithindhe aryo dichiel.  Munyo nyithindhe jodongo to fwodi wendo kobino ineko nyathi diel marapena.  To ruman tido kineko mararyo.  Diel odoko do? achiel kende pecho no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chango chango, obedo jachwo ni gi diel achiel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo ndelo otundo jochokere</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo nyir ma iyadech to jochikere kidho kedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Nyir ma Jokidho Kedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kir gi konon jobedo jokwor gi ochulu swa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munyo liech odoŋ gi wich kwot swa tero gima pa meno yupa or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ochulu orure okadho chon, to liech amuchungo ni lwoŋo ochulu, ochulu okadho chon</t>
+  </si>
+  <si>
+    <t>Joringo yuŋeyi wendo ma jowok kwaŋo jo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ŋweche won ama ogoyo jo gi bor, "Iyawo mere apeee!"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jodwoko kwaŋo jo ni jokidho toko ŋwen ni ma nende joboko</t>
+  </si>
+  <si>
+    <t>To jume jusewila wegi pecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka amuoyi, meno oboki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Min pecho owacho ni, "ŋwen paran me kutho alaboko aboka kutho"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Osangala gi jo swa, orweyi jo oneki gweno onyewi medho</t>
+  </si>
+  <si>
+    <t>Jowotho nyuka jotundo pa or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To nywongo, to buuuu, buuu mathoth swa!  To tweyo paka nende otweyi to ringo to mako ner mere liech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To kunyo bur, to yiko maber swa boke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Orwayo gi ŋwen kendo munyo ner mere kadho, nyaka to bedo piny to chamo ŋwen jye te</t>
+  </si>
+  <si>
+    <t>Munyo jowothoye kendo hongo moro to odoko gesa iye</t>
+  </si>
+  <si>
+    <t>Munyo ochulu orwayo obedo piny ochamo ŋwen, to doko tweyo paka nende otweyi to ringo to mako liech</t>
+  </si>
+  <si>
+    <t>Ana ochulu ni, "Be, alaketho gika kiwotho alamakin"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ana liech, "Keli atiŋi migugu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Paka iye kayo go munyo mito gak i dudi</t>
+  </si>
+  <si>
+    <t>Ochulu jowotho hongo machiek to gesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ameno liech bende to miyo ochulu tiŋo ŋwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ochulu owacho ri liech ni, "Nera weyi, aŋata atiŋi ŋwen ini i dwoŋ, aŋata anyathi" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jokadho kareno liech amutiŋo ŋwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bende apaka ochulu otimo</t>
+  </si>
+  <si>
+    <t>Paka jochikere mondo amonda ma kidho yupa or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To gik chieni omo ŋwen pere keno aŋwen ma okano i dudi cha</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +1583,317 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -42,15 +1901,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,36 +2391,2851 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:A447"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="77.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A210"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="82.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Kisoma Dhopadhola.xlsx
+++ b/Kisoma Dhopadhola.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Book2" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="772">
   <si>
     <t>Kitabo Mararyo</t>
   </si>
@@ -1569,6 +1569,768 @@
   </si>
   <si>
     <t xml:space="preserve">  To gik chieni omo ŋwen pere keno aŋwen ma okano i dudi cha</t>
+  </si>
+  <si>
+    <t>Munyo ochulu bende chunye oramo go, to bende chako woth ma kidho limo jatuwo kere</t>
+  </si>
+  <si>
+    <t>Kuchore to mako to chamo go woko kir chwe to chako chwe</t>
+  </si>
+  <si>
+    <t>Onyo kis ogwaŋ kidho neno jatuwo ka owotho kende, kere wacho rigo ni, "Chore gika gime raman swa ma kir ithan kiwinji maber"</t>
+  </si>
+  <si>
+    <t>Munyo kis ogwaŋ chunye ramo go</t>
+  </si>
+  <si>
+    <t>Wach ma tuwo pa kere me to lak kis kamoro</t>
+  </si>
+  <si>
+    <t>Munyo simbwor oti aka paka gochamo ogwange wadi onyo go kinyal ?wech, kinyal nwaŋo girachama, to gonindo piny to chako wacho paka gotuwo swa</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo kere pa ogwange simbwor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Tuwo pa Simbwor</t>
+  </si>
+  <si>
+    <t>Joyiko nyako no to jodok munyo jouro gino</t>
+  </si>
+  <si>
+    <t>To jochako ywak to jouro swa gi ma otimere munyo jonindo</t>
+  </si>
+  <si>
+    <t>Ni jokidho neno to joneno wich nyako no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jome jochiewi de rumachien munyo jowinjo remo ama thon i dak to jopenjere ni, "Aŋo ma thon no?"  </t>
+  </si>
+  <si>
+    <t>To wich mere ketho i dak pi</t>
+  </si>
+  <si>
+    <t>Nyuka odonjo to thumo nyako no</t>
+  </si>
+  <si>
+    <t>Nyako no ni wolwoŋ, ni wokoki jo no jokiwinji</t>
+  </si>
+  <si>
+    <t>Bende apaka otimi, ogwaŋ okelo nindo madwoŋ swa ri wadi nyako no, to donjo i ot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Awachiri wade paran jo jye jowonindi i ot kama ano nindi i iye ni labino oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To nyako no ywak swa, ka wacho ni, "ŋata ndiri no okedan, ndiri no ochikan ni, i ndelo ma oneni i iye kedi paran</t>
+  </si>
+  <si>
+    <t>Munyo jotieko chiemo to i mako nyako no to i neno kedi pere</t>
+  </si>
+  <si>
+    <t>To nyathi no to neno kedi, to ringo gi ŋwech ka koko ri min ni, "Mama, kedi pa giche nga ber, kendo kichini ma kiwachere kendo ouro swa swa"</t>
+  </si>
+  <si>
+    <t>To munyo por toŋo boke ma malo to nanga ma kore to podho</t>
+  </si>
+  <si>
+    <t>Munyo ringo nyathi mathi be oluwo go"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To min orogo ni, "Ringi aringa ithumi ran boke kwon waŋi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo itedo min guro kwon</t>
+  </si>
+  <si>
+    <t>Munyo kimiti nyutho jo kedi pere</t>
+  </si>
+  <si>
+    <t>Okwero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo otundo pecho openji ni, "Ikedere?"  </t>
+  </si>
+  <si>
+    <t>Nyako oyeyo</t>
+  </si>
+  <si>
+    <t>Ochiko nyako no ni, "Doki, to awacho rin ni kitundo pecho, ongoye nyutho dhano moro jye kedi perin me"</t>
+  </si>
+  <si>
+    <t>Kama okedo go to ketho gagi pensi, ameno ameno to iyi nyako kichin ma kiwachere</t>
+  </si>
+  <si>
+    <t>Nyako obedo piny to okedo go maber swa</t>
+  </si>
+  <si>
+    <t>Kere twodo</t>
+  </si>
+  <si>
+    <t>Ana ogwaŋ ni "Bedi piny, akedin jonicha atieko kedo jo judok"</t>
+  </si>
+  <si>
+    <t>Nyako odwoko go ni, "Aluwo jowotan ma jobino yukome kedi"</t>
+  </si>
+  <si>
+    <t>Munyo otundo pa ogwaŋ, ogwaŋ osangala gi nyako no swa, to penjo go ni, "Aŋo nyako?"</t>
+  </si>
+  <si>
+    <t>Munyo nyako no otieko rego, omako dhoyo to luwo wadi cha i dhoyo pa ogwaŋ ayino</t>
+  </si>
+  <si>
+    <t>Munyo ogwaŋ no oneno boke no, obolo boke no i dhoyo pere</t>
+  </si>
+  <si>
+    <t>Kenyo onwaŋo nitye ogwaŋ ma chamo ji</t>
+  </si>
+  <si>
+    <t>To jowacho rigo dhoyo ma jokidho luwo, to jowacho rigo ni, "Kuma inonwaŋi dhoyo nitye aryo, min onwaŋi wabolo i iye boke, meno ama iluwi"</t>
+  </si>
+  <si>
+    <t>Jonwaŋo go, munyo nyaka chielo kali, aka ripo rego, jokunyalo kuro go</t>
+  </si>
+  <si>
+    <t>To jokidho bothi nyawotigin achiel munwaŋo ongoye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Weyi agik akidhi aomi churo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rumachien dhako ma oti achiel munyo owok to odoko wacho ni, "O!  Wiyan owili gi churo paran i iy' ogwa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Adieri ji jowok swa i iye ogwaŋ</t>
+  </si>
+  <si>
+    <t>Jotimo ameno</t>
+  </si>
+  <si>
+    <t>Munyo olach kere bende onwa?o luwo to wacho ama ni, "Kafwodi akitho timi win, ama ŋadi win lwetan mathi me ji ma chango achamo jo, jowowok, aka atho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kani jokidho neno piny obokere pa mach ogwaŋ otundo mager swa min jo opondo yuŋeyi yach nyaka ni wokayi Opiyo, Odongo to chwowi ni wowire ri Odongo, Opiyo to chwowi wire meno dikweth</t>
+  </si>
+  <si>
+    <t>Opiyo gi Odongo Buliri nyuka chango anywoli jo Buliri, fwodi jokuneniye Buliri, biye joneniniye Buliri owero ameno dikweth</t>
+  </si>
+  <si>
+    <t>"Buliro buliri buliriye buliri"</t>
+  </si>
+  <si>
+    <t>Min jo ochako wer kalwoŋo Buliri ama:</t>
+  </si>
+  <si>
+    <t>Nyithindho no jowacho ni, "Lwoŋi ri wan"</t>
+  </si>
+  <si>
+    <t>Winonyali?</t>
+  </si>
+  <si>
+    <t>Min jo to wacho ri nyithindho pere munyo lworo swa ni, "A!  Nyithindho paran, ogwaŋ ago ger swa bino tieko wan kendo obokere ma chulo piny"</t>
+  </si>
+  <si>
+    <t>To jowacho ri min jo ni, "Mama lwoŋi ri wan Buliri, to kubino ibedi yuŋeyi wan"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munyo joromo i ndelo achiel odikin swa</t>
+  </si>
+  <si>
+    <t>Nyithindho no jochako thedho tonge mabith swa kendo kweth</t>
+  </si>
+  <si>
+    <t>Jowacho ni, "Kale, weyi watemi"</t>
+  </si>
+  <si>
+    <t>Okweri rijo paka ogwaŋ cha ger swa, "Kir an inywolo win apondo aponda"</t>
+  </si>
+  <si>
+    <t>To owacho rijo ni, "Nitye i lul madongo cha"</t>
+  </si>
+  <si>
+    <t>Nyithindho no jopenjo ni, "Ogwaŋ no nitye kune?"</t>
+  </si>
+  <si>
+    <t>Paka ochamo ji otieko kendo, paka ogwaŋ no rach kendo ger swa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munyo nyithindho no jodongo to oliesa rijo kwoŋ ogwaŋ no ma ilwoŋo ni Buliri</t>
+  </si>
+  <si>
+    <t>Munyo ndelo otundo ma nywol, to nywolo nyithindho aryo rut jo jye yach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dhako no onwaŋo ni gi iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ochamo ji otieko i piny no, to kere oweyo dhako acheil kende</t>
+  </si>
+  <si>
+    <t>Chango chango, i piny moro obedo ogwaŋ ma ilwongo ni Buliri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Buliri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Abothi ran weyi akidhi awachi ri wadan ichowo wan konon, inwaŋo ma riek</t>
+  </si>
+  <si>
+    <t>Onyo jatuwo ni tekere wopori kwoŋ ochulu, to ochulu ringo rigo ka wacho ni, "Oido i chamo mamiŋ konon me</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aka odoko jokidwoki ama</t>
+  </si>
+  <si>
+    <t>Ana ochulu ni, "Akinyali choroki bothini, chunyan kutire maber ri neno bathi tiendi wadan ma jobino bothin kenyo"</t>
+  </si>
+  <si>
+    <t>Jatuwo odwoko go ni, "Iŋa kole iluwo kodan gi bor bor chore gika"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wich marapena to wacho ri Kibate ama, "Kibate ikiri inyonan"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wich no jye oluwo gi Kibate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo fwodi ŋwecho kichar ameno to nwaŋo thwol madwoŋ swa manigi wich mere awuchiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kibate obwok swa to Kibate chako achaka ŋwech i dudi kichar</t>
+  </si>
+  <si>
+    <t>Nyuka jye oluwo gi Kibate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Toŋ mecha mere, ni wotoŋ mecha mere, ana mecha ni, ikiri itoŋan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ana gute ni, "Kibate, ikiri itoŋan"</t>
+  </si>
+  <si>
+    <t>Obolo thach piny mako le ni wotoŋ achiel kwoŋ gute me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo omedere to doko nwaŋo gute adek mulile maber swa</t>
+  </si>
+  <si>
+    <t>Kibate obwok swa, to medere gi ŋwech dwaro gute man</t>
+  </si>
+  <si>
+    <t>Ana gute, "Kibate, ikiri itoŋan weyan"</t>
+  </si>
+  <si>
+    <t>Munyo otundo isa, onwaŋo gute mulile swa, obolo thach piny omako le nyaka ni otoŋ gute</t>
+  </si>
+  <si>
+    <t>Kibate oweyo mere pere chimo omako le gi thach kidho toŋo gute</t>
+  </si>
+  <si>
+    <t>Munyo chiemo ana Kibate, "Chimi achima ran ameno ayombere ayombo atoŋ gute achiel, akeli wakethi kenyo"</t>
+  </si>
+  <si>
+    <t>Aneni malo ka orem gute achiel</t>
+  </si>
+  <si>
+    <t>Mere ouro swa Kibate to wacho rigo ni, "Kibate, igeto nedi ot manyien me ma ikiwacho ran abini, akonyini! "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ameno won to mere bino limo go, Kibate osangala swa to rwako mere pere i ot manyien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kibate osangala swa paka mere bino munyo ochowo geto ot pere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kani Kibate kidho neno to limo balwa pa mere pere kawacho rigo paka bino limo go</t>
+  </si>
+  <si>
+    <t>Yiko kageto kunyo, chano, tweyo, bolo, umo gi rwadho, fuyo chwado piny meno jye orumo</t>
+  </si>
+  <si>
+    <t>Ameno won Kibate ochako geto kendo mapiyo swa</t>
+  </si>
+  <si>
+    <t>Ndelo achiel munyo Kibate otieko kidho limo mere, munyo odwoko obedo piny to paro ama, "Bedi achaki geto ot man manyien kamere paran bino won waŋan, anitye i ot manyien"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mere pere bende bino limo Kibate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo onwaŋo jolimere swa, Kibate kidho limo mere pere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kibate me omako mere gi nyawote</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jal ma ilwoŋo ni Kibate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kibate</t>
+  </si>
+  <si>
+    <t>Aweyo ran josangala to adwoko ran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Meno min nyithindhi gi rut pere jowinjo siem kendo jotero piny paka piny pajo kendo jomuwok i iye ogwaŋ jofwoyo jo swa madit mere jobedo wade pajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kunyalo woki kendo otho koro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To ogwaŋ to tho to ŋolo dhakodwoŋ me i iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munyo odonjo kendo i iye ogwaŋ</t>
+  </si>
+  <si>
+    <t>Kogwaŋ no openjo jo ni, "Wachi ran gima itieko neno, jokiluwi meno to jodoŋ adoŋa kenyo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka i oro jujera omo mach no, jokidwok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kareno yupa kere nitye ogwa manigi mach itunge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To banja loyo Kibate tibolo Kibate i jera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ameno ameno ato wire awira obwol gi kasiki wire awira kir pa kere</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munyo kendo kidhi pa rwoth man, Kibate oloyo banja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jamilalo loyo banjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kokidhi pa rwoth man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ameno Kibate oloyo banja jamilalo ojulira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wich dhiaŋ olokere kasiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Milalo to mako Kibate munyo goyo ndur swa kir pa rwoth tundo pa rwoth marapena riŋo olokere obwol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To obwol ma Kibate otiŋo to lokere riŋo ma chil to kasiki to lokere wich dhiaŋ</t>
+  </si>
+  <si>
+    <t>Munyo fwodi wotho to romo gi jamilalo moro, kere jamilalo no okwali dhiaŋ pere</t>
+  </si>
+  <si>
+    <t>Munyo wacho ni omoki gine mach aoyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To odoko nwaŋo kasiki moro, otiŋo kasiki no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo otundo i dudi koro to nwaŋo obwol otwi ofudho obwol no</t>
+  </si>
+  <si>
+    <t>Kibate oringo, ringo ma kichutho</t>
+  </si>
+  <si>
+    <t>Ti oro go ni, "Kidhi iomi"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nende aneno i dhoyo kacha manago ama yanja swa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nende wi nwaŋan munyo aomo gikipiny, to bedi nende wiwachi ran gima ayaŋo gine</t>
+  </si>
+  <si>
+    <t>An bende, atiyo tich me</t>
+  </si>
+  <si>
+    <t>Odoko penjo jo ni, "Aka bende yanja ri win? "</t>
+  </si>
+  <si>
+    <t>Ana jo ni, "Gi pala"</t>
+  </si>
+  <si>
+    <t>To Kibate penjo jo ni, "Wiy yaŋo g' aŋo?"</t>
+  </si>
+  <si>
+    <t>Kibate otiŋo jatho me kir pecho pajo no tundo, to wachi rigo ni woyaŋi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jobino to jochako lwoŋo ŋata otho me, kani jokidho neno jomotho me jowok jaryo to jouro swa to jowacho ri Kibate ni wotiŋ jatho</t>
+  </si>
+  <si>
+    <t>Wor munyo otundo jogoli jomotho</t>
+  </si>
+  <si>
+    <t>Kani tundo onwaŋo ni kere joyiko dhano, timako Kibate tiketho ibur, tinwaŋo vata otho me, tiketho malo iwi Kibate, tichako yiko jo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To rwayo ni, "Kono jo ma luwo no jomedho, amadhiye gimoro"</t>
+  </si>
+  <si>
+    <t>Munyo Kibate owinjo wach no jye, to nyaka chore kichar to neno kama nitye i iye pendi kano chiko ithe to winjo luwo korago swa</t>
+  </si>
+  <si>
+    <t>Marawuchiel owacho ni, "Kibate fwodi ni chandirok"</t>
+  </si>
+  <si>
+    <t>Marabich owacho ni, "Weyi win Kibate okadhi"</t>
+  </si>
+  <si>
+    <t>Mara?wen owacho ni, "Kibate weyo uro gi muneno to uro win"</t>
+  </si>
+  <si>
+    <t>Maradek owacho ni, "Kibate lauro win"</t>
+  </si>
+  <si>
+    <t>Mararyo owacho ni, "Kibate nyonin to kunenin"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Go won kende gi dhiaŋ pere bende achiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jotundo i piny jonwaŋo jachwo no ma ilwoŋo ni Gimoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ndelo achiel, yach pa Malo jomito bino i piny kiwayaye</t>
+  </si>
+  <si>
+    <t>Gimoro no kareno nitye i piny ka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Obedo bende man ma ilwoŋo ni 'Gimoro'</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jachwo ma ilwoŋo ni 'Malo' gi Yach gi nyir pere i malo no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Malo gi Gimoro</t>
+  </si>
+  <si>
+    <t>Orumo ameno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo Kilagwech otho otop miyin ato piem gi jarieko itho mikwiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo kidho tho Ogwal kiwinji rumachien mere to Ogwal oneno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Otemo lwoŋo Ogwal moth moth</t>
+  </si>
+  <si>
+    <t>Munyo wiye wiro go swa to podho i pi to chako nywongo wi pi</t>
+  </si>
+  <si>
+    <t>Kilagwech odoko ameno dwonde aŋwen, marabich</t>
+  </si>
+  <si>
+    <t>Ogwal odwoko go ni, "ŋa?"</t>
+  </si>
+  <si>
+    <t>Ogwal odwoko go malo swa ni, "ŋa?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo otundo kumogo koro to nyaka wodho dwonde ni pakere wacho ri Ogwal ni "Kururu Ogwal, ayombin, ba!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Firimbi gi kwano orumo Ogwal odonjo i pi to nywongo rigo gi kenyo to Kilagwech ringo pa tho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jodongo ma jokidho neno ŋwech me jotundo</t>
+  </si>
+  <si>
+    <t>Ameno ndelo otundo ma chako ŋwech</t>
+  </si>
+  <si>
+    <t>Ameno kis Ogwal jye ma pi joniaŋ wach me dwoko ni, "ŋa, ŋa"</t>
+  </si>
+  <si>
+    <t>Kende ni, "ŋa?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mafwodi sabit no kurumo kere Ogwal odonjo i pi winjirok gi ogwale wadi ni ?ata owinjo ka Kilagwech wacho ni, "Kururu Ogwal, ayombin ba, odwoki wach achiel achiel"</t>
+  </si>
+  <si>
+    <t>Ameno won kole piem ochakere ma ochikere ndelo ma piem ŋwech wobedi iye ato sabit achiel yunyi me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  An aringo i hongo kendo aringo swa, inyalo yomban nedi?</t>
+  </si>
+  <si>
+    <t>Ana Kilagwech ni, "Ogwal weyi ramo chunyan"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Otundo kir munyo kiliesa olokere piem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Paka Ogwal wotho i pi, to Kilagwech wotho i hongo malo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ikiliesa pajo, kis dhano opakere gi nger ma woth pere</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo Kilagwech gi mere pere, Ogwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kilagwech gi Ogwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adongi ran kari olwa pa nera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Onwaŋo anwaŋa mere pere cha fwodi chimo achima malo wi ot kama gute ongoye i iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kere omiyo go sanduku ma pesa kir gi motoka mukwaŋo go kir pecho pere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo kere oneno go gi mach no, kere osangala swa munyo otito ri kere gima obedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To tungi ogwaŋ ma dimach to tur, to kwanyo to tero ri kere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Banja ma okelo go pa kere to ogwaŋ to nyiero anyiera swa to podho piny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Paka obwol gi kasiki jolokere rigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Paka onwaŋo obwol gi kasiki, otiŋo to romo gi mulalo ma okwal dhiaŋ pere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Omiyi go yaŋo jatho cha, rieko muthumo nyuka oori go omo gi yaŋo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Omiyi go tiŋo mulambo no kir pecho pa jome</t>
+  </si>
+  <si>
+    <t>Munyo oyik go gi dhano no, munyo obin golo ŋato yiki no to jowok jaryo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Paka oringo nyuka otundo kama i yiko i iye dhano oŋeyo ni, 'Kono imedho'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wich no jye kis achiel oluwo gi go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oweyo mere chimo malo gi paka yen oluwo gi go paka obwok to ringo kichar paka onwa?o thwol ma jawich awuchiel</t>
+  </si>
+  <si>
+    <t>Munyo oori go to munyo otundo both ogwaŋ, ogwaŋ openjo go ni wowachiye rigo gima okelo go i jera, to Kibate chako, paka omako mere, paka ogeto ot, paka mere okidho limo go, gi paka mere owacho rigo paka gute oremi, otiŋo le gi thach kidho toŋo gute</t>
+  </si>
+  <si>
+    <t>Bajo munyo ojok to wacho ri nyare ni, "Meno wach perin, akwerin ni kikadho ikiri gik chien onyo kadhi win gi go ongoye rieko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka nyamin wokadhi, Tho kiyey</t>
+  </si>
+  <si>
+    <t>To ni otem i wondo Tho nedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To Tho sangala swa kapenjo ni, "Nyaŋono onwaŋo iweyan?"</t>
+  </si>
+  <si>
+    <t>Kani gik, onwaŋo Tho bende otieko dwoko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gwendi bino tho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyaŋono gi chwore e jokadho, to i royo bor nyaka to Nyaŋono poyo ni, "O!  Wiyan owili gi kal pa gwendi"</t>
+  </si>
+  <si>
+    <t>Ameno won otieko oro Tho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Iwinjo!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ato ibino nwaŋo Tho odwoko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ka wiyin owil gi gimoro, kipoyo ikiri dwok iom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To ioro Tho bor, tichiko Nyaŋono ni, "Kwanyi kis gimoro perin jye, ikadhi"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kareno Tho kieye bothi Nyaŋono</t>
+  </si>
+  <si>
+    <t>To gosewila Nyaŋano gi kis gimoro gwendi, gi kal ma gwendi lachamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ato Tho wiye rach, bino chandin</t>
+  </si>
+  <si>
+    <t>Munyo owacho ri bamere, bamere oyeyo go to wacho ri nyare ni, "Kikadho gi Gimoro, Tho wokiri woŋeyi, kendo ikiri ikidhi gi go"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To kareno nitye nyar Malo ilwoŋo ni Nyaŋono omito swa nywomirok gi Gimoro</t>
+  </si>
+  <si>
+    <t>To imiyo go dhok pere jye dok gine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Our to iwacho ni, "Ape!  Kere me gimoro amora adieri!"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ameno won opoy munyo otundo gi wich yen ma tele</t>
+  </si>
+  <si>
+    <t>Sewi pama sanja</t>
+  </si>
+  <si>
+    <t>Kani kidho mako, ape!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo oromo otweyo wich yen pere madwoŋ swa ma tele, to chungo to paro ni, 'Tele ma kitiŋere me, alayeyere nedi?'    </t>
+  </si>
+  <si>
+    <t>Ni kidho baro, to tele bare maber swa, kendo ma boyo swa</t>
+  </si>
+  <si>
+    <t>Weyi atem</t>
+  </si>
+  <si>
+    <t>Tele bende ibaro nedi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Otundo to wacho ni, "Ha!  An ma gimoro amora me!   </t>
+  </si>
+  <si>
+    <t>Omako le to kadho kir kama di tele</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jye gimoro kokwero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka yen ma go oyo ibaro tele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ni kidhi ibar rigo yen aoya</t>
+  </si>
+  <si>
+    <t>To odoko jowacho ri Gimoro ni, "Baba ooro wan ni le e e"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo kir bur ochule to jo no jouro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo otieko bolo jye nyaka to lwoŋo jo ni ochowo chiemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka bende boke to bolo gichien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ochamo manok to chako kwanyo chiemo i boke bolo i bur</t>
+  </si>
+  <si>
+    <t>Kani bolo waŋe to neno bur maluth swa dhu bothe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anyalo chamo chiemo me jye chowo!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gimoro ologo maber, to bedo piny, to wacho ni, "Ha!  An ma gimoro amora me!"   </t>
+  </si>
+  <si>
+    <t>To ilwoŋo Gimoro chiemo, to iwacho rigo ni, "Eno, wamiyin chiemo no, cham jye"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yawere tineko dhiaŋ titedo chiemo gi riŋo no jye gipi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo ochowo oketh dhok no gichien</t>
+  </si>
+  <si>
+    <t>Ameno ameno nyuka ochowo dhok pere jye</t>
+  </si>
+  <si>
+    <t>Aka odoko oayi to pie ituŋ dhiaŋ man, to Gimoro wacho ni, "Man kendo eno ma nywol"</t>
+  </si>
+  <si>
+    <t>Ama Gimoro owacho ni, "Ei, dhiaŋ paran eno"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Odoko okel dhok ma chiel man, ama nyaka okondo oayi to pie ituŋ dhia? achiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gimoro okwero kawacho ni, "Kwoŋ dhok me jye aparan ongoye i iye"</t>
+  </si>
+  <si>
+    <t>Dhok marapena ma okel okondo koayi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ka doko amedere ameno ma luwo ameno ameno nyuka jorum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Odoko ka no kodere i man, meno amutel nywolo</t>
+  </si>
+  <si>
+    <t>Kareno jotieko chikirok gi okondo ni kinoneni aayi, dhiaŋ ma no pie kwoŋe, meno dhiaŋ Perin</t>
+  </si>
+  <si>
+    <t>Gimoro owacho ni, "Ha!  An ma gimoro amora me! "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jotundo pa Malo, okel dhok kweth de, tiwacho ri Gimoro ni, "Ere, iwon pa chim dhok perin"</t>
+  </si>
+  <si>
+    <t>Ameno jowotho gi Gimoro kir pa jadwoŋ Malo</t>
+  </si>
+  <si>
+    <t>To Joyeyo ni, "Ei"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yach no wegi jogik wacho ri Gimoro paka joŋeyo kama dhiaŋ no nitye iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kareno dhiaŋ no onywol kendo nyithindhe oromo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gimoro ochandere swa kech gi riyo hongo ma lach swa, munyo Gimoro kwiya, ni dhiaŋ pere nitye kune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kareno bajo nigi dhok madit swa i chiel pere</t>
+  </si>
+  <si>
+    <t>Ameno won to joayi kidho kwalo dhiaŋ pa Gimoro to jodwoko gine</t>
+  </si>
+  <si>
+    <t>Ndelo achiel jowacho wegi ni, "Wakidho dwaro dhiaŋ pa Gimoro"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To Malo uro swa bende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tundo pecho joliesaye ri bajo, Malo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jotieko kiliesa ameno to jodok</t>
+  </si>
+  <si>
+    <t>Jo no jouro swa gima jowinjo no</t>
+  </si>
+  <si>
+    <t>Ana go ni, "Dhiaŋ paran me, ama ka olayo, ama lach mere amadho"</t>
+  </si>
+  <si>
+    <t>Tidok penjo go ni, "To imadh' aŋo?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka ka obolo woyo am' achamo</t>
+  </si>
+  <si>
+    <t>Jalo owacho rijo ni, "An nigi dhiaŋ paran me"</t>
+  </si>
+  <si>
+    <t>Jopenjo go ni, "Inika kendin ichamo aŋo?"</t>
   </si>
 </sst>
 </file>
@@ -2053,9 +2815,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2393,8 +3156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:A447"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4179,10 +4942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A210"/>
+  <dimension ref="A2:A468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="A484" sqref="A484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4812,427 +5575,1717 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>459</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>458</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>452</v>
+      <c r="A150" s="1" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="1" t="s">
-        <v>450</v>
+      <c r="A152" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>489</v>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>

--- a/Kisoma Dhopadhola.xlsx
+++ b/Kisoma Dhopadhola.xlsx
@@ -7,15 +7,14 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Book2" sheetId="1" r:id="rId1"/>
-    <sheet name="Clean" sheetId="2" r:id="rId2"/>
+    <sheet name="Clean" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="846">
   <si>
     <t>Kitabo Mararyo</t>
   </si>
@@ -26,939 +25,63 @@
     <t>Kigana me nyutho ama</t>
   </si>
   <si>
-    <t>Jakeli kigana me ndiko:</t>
-  </si>
-  <si>
-    <t>Nyachwo Dorothy</t>
-  </si>
-  <si>
     <t>Thwol osangala swa winjo wach no to oyeyo ni, "Kale, walakidho."</t>
   </si>
   <si>
-    <t>Ndelo achiel to wendo madwo? obino pecho no, jagombola gipi obino pecho no.  Munyo won pecho no oparo gimutimi ma rweyo jadwo? me onyo ni gi diel achiel kende.  Pecho oparo swa nyuka jadwo? me owacho ni, "Ato onyo ongoye giratima."</t>
-  </si>
-  <si>
-    <t>Olwo?o yach pere aryo to wacho rijo ni, "Kwanyi win min diel no wikidhi wineki."  Yach joredo swa gi min diel athuma.</t>
-  </si>
-  <si>
-    <t>Kareno min pecho gi nyare joredo yupendi ?olo matoke.  Jokwako gowo gi theno.  Munyo matoke twak bapecho owacho ni, "Nyithindho me, jogalo gi fufa ooro nyare wokidhi woneni jotimo a?o gi fufa, kole diel obudho jo to ringo, to idho wiriete kawero ama ni, 'Anywolo achiel.  Mbekuro mama, mbekuro mama.  Ni anywoli aryo mbekuru mama ni agoyi rut mbekuru mama.</t>
-  </si>
-  <si>
     <t>Mee mee me me kuru mama,</t>
   </si>
   <si>
-    <t>Mee mee me me kuru mama.'"</t>
-  </si>
-  <si>
-    <t>Kareno yach me gi nyamin jo gi min jo ju jye jomielo amiela kir gi bajo.  Jo jye jonimieli wendo odo? pecho, kende munyo wendo oneno ni ji ongoye pecho.  Aka piny onyo oyutho to go bende kadho.  Munyo diel oneno ni piny oyutho to weyo weri.  To donjo i lule to lokere ogwa? mager, to jomieli jye joringo dok pecho.  Jonwa?o ni wendo odok, chiemo owa? ma kichamere jonindo aninda kech ka jouro gi ma otimere!</t>
-  </si>
-  <si>
-    <t>Aweyo ran jouro gino tadwoko ran.  Adongi ran kari olwa pa nera!</t>
-  </si>
-  <si>
-    <t>iv.	Otengo gi Gwendi</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo otengo gi gweno to joromo.  Munyo gweno oti?o ri?o madit swa.  To otengo penjo gweno ni, "Iti?o a?o?"</t>
-  </si>
-  <si>
-    <t>Ana gweno ni, "Me jye ri?o."</t>
-  </si>
-  <si>
-    <t>Otengo openjo go ni, "Inwa?o kune ri?o me jye?"</t>
-  </si>
-  <si>
-    <t>Ana gweno ni, "O, awoki nyewo."</t>
-  </si>
-  <si>
     <t>Ana otengo ni, "Yukune?"</t>
   </si>
   <si>
-    <t>Ana gweno ni, "Yupiny yulule koro ibayima."</t>
-  </si>
-  <si>
-    <t>Otengo omedo penjo ni, "Itana nedi kosa a?o?"</t>
-  </si>
-  <si>
-    <t>Ana gweno ni, "Itana rayisi swa ito?o nyaka tiendin achiel timiyo jo ti miyin ri?o kuminito i iye jye."  Kareno gweno ochungo gi tiende achiel man okano i yer.</t>
-  </si>
-  <si>
-    <t>Ana otengo ni, "To?i ran aparan."</t>
-  </si>
-  <si>
-    <t>Gweno oto?o ri otengo tiende munyo otiek chimo ri otengo yukorago.  Otengo oayi gi arama ma tiende jye kir gi awanyama chamo ringo.  To kadho, oriwo piny kuneno kuma ji jochokere i iye ma jonyewo ri?o, kis ka moro jye kosa lule kosa kamoro jye kuneno gimoro, ogik chien penjo gweno ni, "Gikune won kole akineno?"  Onwa?o gweno munyo wotho gi tiende aryo jye, ouro kendo omako nge swa gi gweno kareno tiende ramo go swa.  Aka kunwa?o kada ri?o ouro gweno swa ri wondo go gi to?o kir tiende!</t>
-  </si>
-  <si>
-    <t>Oluwo ri gweno munyo lamo kir gi nge swa ni, "Gweno, iwondan, ito?o kir gi tiendan.  Munyo tiendan raman ama, woki konon abino chamo nyithindhin kir gi nyithindhi nyikwayi nyithindhin nyuka piny otundi i gike."</t>
-  </si>
-  <si>
-    <t>Amumiyo kir gi konon otengo jochamo nyithindhi gwendi.</t>
-  </si>
-  <si>
-    <t>v.	Ochulu gi Liech Jonwa?o ?wen</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo ochulu gi liech.  Kareno ochulu lwo?o liech ni 'Nera.'</t>
-  </si>
-  <si>
-    <t>Obedo ndelo achiel, liech owacho ri ochulu ni, "Nyakewinan owe, wakidhi warangiye ?wen sisi wagoyi."  Jokadho woth i dudi rango ?wen paka ochulu ama wa?e tek, otelo neno wa? gima chalo ?wen.  Owacho ni, "Anwa?o wa? ?wen paran."</t>
-  </si>
-  <si>
-    <t>"Ee!" liech okwero malo swa ka wacho ni, "Be, meno ?wen paran, kenyo akuma oido ajowiye ?wen."</t>
-  </si>
-  <si>
-    <t>Ochulu oweyo rigo to medere kir i ?eti lul moro ochako dwaro to adieri to nwa?o ?wen ma lak alaka.  Munyo otieko goyo to chako nyaro woko lum moro jye ma nitye kacha.  Liech bende goyo ma nende olaro gi ochulu.  Munyo ochulu otieko nyaro to kunyo bur, ato ?wen oido chiegin tukirok.  To ochulu oyombere omo gi umo.  To ?wen pa ochulu tukere duny.</t>
-  </si>
-  <si>
-    <t>Munyo otieko umo, ?wen oduny mange swa.  To ochulu jowo keno madongo swa a?wen, ma liech fwodi kada gimoro kuwok ni ?wen.</t>
-  </si>
-  <si>
-    <t>Munyo okidho jowo keno marabich, ka ni poyi ni liech okonjere.  Kareno nende jowo no kano akana i dudi bor.</t>
-  </si>
-  <si>
-    <t>Liech to wacho rigo ni, "Jame, ?wen perin dunyi maber swa."  Ochulu ojowo meno keno madwo? swa to ?wen chok.  Liech owacho ri ochulu ni, "Jame, miyan ?wen perin me, dikin ikwa?an gine wateri yupa oran."</t>
-  </si>
-  <si>
-    <t>Ochulu oyeyo.  Munyo ku?eyo ni ochulu ni gi ?wen man mukano.  Ochulu jowotho gi liech.  Munyo jodoki munyo ochulu otundo i royo pere ma rwayo, orendere ni rwayo.  Kareno otieko miyo liech ?wen cha ma dikin jolatero yupa or.  To gik chieni omo ?wen pere keno a?wen ma okano i dudi cha.</t>
-  </si>
-  <si>
-    <t>Paka jochikere mondo amonda ma kidho yupa or.  Bende apaka ochulu otimo.  Munyo jokadho kareno liech amuti?o ?wen.  Ochulu owacho ri liech ni, "Nera weyi, a?ata ati?i ?wen ini i dwo?, a?ata anyathi."  Ameno liech bende to miyo ochulu ti?o ?wen.</t>
-  </si>
-  <si>
-    <t>Ochulu jowotho hongo machiek to gesa.  Paka iye kayo go munyo mito gak i dudi.  Ana liech, "Keli ati?i migugu."</t>
-  </si>
-  <si>
-    <t>Ana ochulu ni, "Be, alaketho gika kiwotho alamakin."  Munyo ochulu orwayo obedo piny ochamo ?wen, to doko tweyo paka nende otweyi to ringo to mako liech.</t>
-  </si>
-  <si>
-    <t>Munyo jowothoye kendo hongo moro to odoko gesa iye.  Orwayo gi ?wen kendo munyo ner mere kadho, nyaka to bedo piny to chamo ?wen jye te.  To kunyo bur, to yiko maber swa boke.  To nywongo, to buuuu, buuu mathoth swa!  To tweyo paka nende otweyi to ringo to mako ner mere liech.</t>
-  </si>
-  <si>
-    <t>Jowotho nyuka jotundo pa or.  Osangala gi jo swa, orweyi jo oneki gweno onyewi medho.  Min pecho owacho ni, "?wen paran me kutho alaboko aboka kutho.  Aka amuoyi, meno oboki."  To jume jusewila wegi pecho.  Munyo jodwoko kwa?o jo ni jokidho toko ?wen ni ma nende joboko.</t>
-  </si>
-  <si>
-    <t>?weche won ama ogoyo jo gi bor, "Iyawo mere apeee!"  Joringo yu?eyi wendo ma jowok kwa?o jo.  Ochulu orure okadho chon, to liech amuchungo ni lwo?o ochulu, ochulu okadho chon. Munyo liech odo? gi wich kwot swa tero gima pa meno yupa or.  Kir gi konon jobedo jokwor gi ochulu swa.</t>
-  </si>
-  <si>
-    <t>vi.	Nyir ma Jokidho Kedi</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo nyir ma iyadech to jochikere kidho kedi.  Munyo ndelo otundo jochokere.   To jokidho bothi nyawotigin achiel munwa?o ongoye.  Jonwa?o go, munyo nyaka chielo kali, aka ripo rego, jokunyalo kuro go.</t>
-  </si>
-  <si>
-    <t>To jowacho rigo dhoyo ma jokidho luwo, to jowacho rigo ni, "Kuma inonwa?i dhoyo nitye aryo, min onwa?i wabolo i iye boke, meno ama iluwi."  Kenyo onwa?o nitye ogwa? ma chamo ji.  Munyo ogwa? no oneno boke no, obolo boke no i dhoyo pere.</t>
-  </si>
-  <si>
-    <t>Munyo nyako no otieko rego, omako dhoyo to luwo wadi cha i dhoyo pa ogwa? ayino.  Munyo otundo pa ogwa?, ogwa? osangala gi nyako no swa, to penjo go ni, "A?o nyako?"</t>
-  </si>
-  <si>
-    <t>Nyako odwoko go ni, "Aluwo jowotan ma jobino yukome kedi."</t>
-  </si>
-  <si>
-    <t>Ana ogwa? ni "Bedi piny, akedin jonicha atieko kedo jo judok."  Kere twodo.</t>
-  </si>
-  <si>
-    <t>Nyako obedo piny to okedo go maber swa.  Kama okedo go to ketho gagi pensi, ameno ameno to iyi nyako kichin ma kiwachere.  Ochiko nyako no ni, "Doki, to awacho rin ni kitundo pecho, ongoye nyutho dhano moro jye kedi perin me.  Iwinjo?"</t>
-  </si>
-  <si>
-    <t>Nyako oyeyo.  Munyo otundo pecho openji ni, "Ikedere?"  Okwero.</t>
-  </si>
-  <si>
-    <t>Munyo kimiti nyutho jo kedi pere.  Munyo itedo min guro kwon.  To min orogo ni, "Ringi aringa ithumi ran boke kwon wa?i."  Munyo ringo nyathi mathi be oluwo go.  To munyo por to?o boke ma malo to nanga ma kore to podho.</t>
-  </si>
-  <si>
-    <t>To nyathi no to neno kedi, to ringo gi ?wech ka koko ri min ni, "Mama, kedi pa giche nga ber, kendo kichini ma kiwachere kendo ouro swa swa."</t>
-  </si>
-  <si>
-    <t>Munyo jotieko chiemo to i mako nyako no to i neno kedi pere.  To nyako no ywak swa, ka wacho ni, "?ata ndiri no okedan, ndiri no ochikan ni, i ndelo ma oneni i iye kedi paran.  Awachiri wade paran jo jye jowonindi i ot kama ano nindi i iye ni labino oman."  Bende apaka otimi, ogwa? okelo nindo madwo? swa ri wadi nyako no, to donjo i ot.  Nyako no ni wolwo?, ni wokoki jo no jokiwinji.  Nyuka odonjo to thumo nyako no.  To wich mere ketho i dak pi.</t>
-  </si>
-  <si>
-    <t>Jome jochiewi de rumachien munyo jowinjo remo ama thon i dak to jopenjere ni, "A?o ma thon no?"  Ni jokidho neno to joneno wich nyako no.  To jochako ywak to jouro swa gi ma otimere munyo jonindo.  Joyiko nyako no to jodok munyo jouro gino.</t>
-  </si>
-  <si>
-    <t>vii.	Tuwo pa Simbwor</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo kere pa ogwange simbwor.  Munyo simbwor oti aka paka gochamo ogwange wadi onyo go kinyal ?wech, kinyal nwa?o girachama, to gonindo piny to chako wacho paka gotuwo swa.  Wach ma tuwo pa kere me to lak kis kamoro.</t>
-  </si>
-  <si>
-    <t>Munyo kis ogwa? chunye ramo go.  Onyo kis ogwa? kidho neno jatuwo ka owotho kende, kere wacho rigo ni, "Chore gika gime raman swa ma kir ithan kiwinji maber."</t>
-  </si>
-  <si>
-    <t>Kuchore to mako to chamo go woko kir chwe to chako chwe.  Munyo ochulu bende chunye oramo go, to bende chako woth ma kidho limo jatuwo kere.</t>
-  </si>
-  <si>
     <t>Munyo otundo bothi jatuwo, ochulu openjo go ni, "Maramin Jadwo??"</t>
   </si>
   <si>
-    <t>Jatuwo odwoko go ni, "I?a kole iluwo kodan gi bor bor chore gika."</t>
-  </si>
-  <si>
-    <t>Ana ochulu ni, "Akinyali choroki bothini, chunyan kutire maber ri neno bathi tiendi wadan ma jobino bothin kenyo. Aka odoko jokidwoki ama."</t>
-  </si>
-  <si>
-    <t>Onyo jatuwo ni tekere wopori kwo? ochulu, to ochulu ringo rigo ka wacho ni, "Oido i chamo mami? konon me.  Abothi ran weyi akidhi awachi ri wadan ichowo wan konon, inwa?o ma riek."</t>
-  </si>
-  <si>
-    <t>viii.	Buliri</t>
-  </si>
-  <si>
-    <t>Chango chango, i piny moro obedo ogwa? ma ilwongo ni Buliri.  Ochamo ji otieko i piny no, to kere oweyo dhako acheil kende.  Dhako no onwa?o ni gi iye.</t>
-  </si>
-  <si>
-    <t>Munyo ndelo otundo ma nywol, to nywolo nyithindho aryo rut jo jye yach.  Munyo nyithindho no jodongo to oliesa rijo kwo? ogwa? no ma ilwo?o ni Buliri.  Paka ochamo ji otieko kendo, paka ogwa? no rach kendo ger swa.</t>
-  </si>
-  <si>
-    <t>Nyithindho no jopenjo ni, "Ogwa? no nitye kune?"</t>
-  </si>
-  <si>
-    <t>To owacho rijo ni, "Nitye i lul madongo cha."</t>
-  </si>
-  <si>
     <t>To jowacho ni, "Wakinyali neko?"</t>
   </si>
   <si>
-    <t>Okweri rijo paka ogwa? cha ger swa, "Kir an inywolo win apondo aponda."</t>
-  </si>
-  <si>
-    <t>Jowacho ni, "Kale, weyi watemi."</t>
-  </si>
-  <si>
-    <t>Nyithindho no jochako thedho tonge mabith swa kendo kweth.  Munyo joromo i ndelo achiel odikin swa.  To jowacho ri min jo ni, "Mama lwo?i ri wan Buliri, to kubino ibedi yu?eyi wan."</t>
-  </si>
-  <si>
-    <t>Min jo to wacho ri nyithindho pere munyo lworo swa ni, "A!  Nyithindho paran, ogwa? ago ger swa bino tieko wan kendo obokere ma chulo piny.  Winonyali?"</t>
-  </si>
-  <si>
-    <t>Nyithindho no jowacho ni, "Lwo?i ri wan."  Min jo ochako wer kalwo?o Buliri ama:</t>
-  </si>
-  <si>
-    <t>"Buliro buliri buliriye buliri,</t>
-  </si>
-  <si>
-    <t>Buliro buliri buliriye buliri,</t>
-  </si>
-  <si>
-    <t>Buliro buliri buliriye buliri."</t>
-  </si>
-  <si>
-    <t>Opiyo gi Odongo Buliri nyuka chango anywoli jo Buliri, fwodi jokuneniye Buliri, biye joneniniye Buliri owero ameno dikweth.  Kani jokidho neno piny obokere pa mach ogwa? otundo mager swa min jo opondo yu?eyi yach nyaka ni wokayi Opiyo, Odongo to chwowi ni wowire ri Odongo, Opiyo to chwowi wire meno dikweth.</t>
-  </si>
-  <si>
-    <t>Munyo olach kere bende onwa?o luwo to wacho ama ni, "Kafwodi akitho timi win, ama ?adi win lwetan mathi me ji ma chango achamo jo, jowowok, aka atho."</t>
-  </si>
-  <si>
-    <t>Jotimo ameno.  Adieri ji jowok swa i iye ogwa?.  Rumachien dhako ma oti achiel munyo owok to odoko wacho ni, "O!  Wiyan owili gi churo paran i iy' ogwa?.  Weyi agik akidhi aomi churo."  Munyo odonjo kendo i iye ogwa?.  To ogwa? to tho to ?olo dhakodwo? me i iye.  Kunyalo woki kendo otho koro.  Meno min nyithindhi gi rut pere jowinjo siem kendo jotero piny paka piny pajo kendo jomuwok i iye ogwa? jofwoyo jo swa madit mere jobedo wade pajo.</t>
-  </si>
-  <si>
-    <t>Aweyo ran josangala to adwoko ran.</t>
-  </si>
-  <si>
-    <t>ix.	Kibate</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo jal ma ilwo?o ni Kibate.  Kibate me omako mere gi nyawote.  Munyo onwa?o jolimere swa, Kibate kidho limo mere pere.  Mere pere bende bino limo Kibate.</t>
-  </si>
-  <si>
-    <t>Ndelo achiel munyo Kibate otieko kidho limo mere, munyo odwoko obedo piny to paro ama, "Bedi achaki geto ot man manyien kamere paran bino won wa?an, anitye i ot manyien."  Ameno won Kibate ochako geto kendo mapiyo swa.  Yiko kageto kunyo, chano, tweyo, bolo, umo gi rwadho, fuyo chwado piny meno jye orumo.  Kani Kibate kidho neno to limo balwa pa mere pere kawacho rigo paka bino limo go.  Kibate osangala swa paka mere bino munyo ochowo geto ot pere.  Ameno won to mere bino limo go, Kibate osangala swa to rwako mere pere i ot manyien.</t>
-  </si>
-  <si>
-    <t>Mere ouro swa Kibate to wacho rigo ni, "Kibate, igeto nedi ot manyien me ma ikiwacho ran abini, akonyini!  Aneni malo ka orem gute achiel."</t>
-  </si>
-  <si>
-    <t>Munyo chiemo ana Kibate, "Chimi achima ran ameno ayombere ayombo ato? gute achiel, akeli wakethi kenyo."</t>
-  </si>
-  <si>
-    <t>Kibate oweyo mere pere chimo omako le gi thach kidho to?o gute.  Munyo otundo isa, onwa?o gute mulile swa, obolo thach piny omako le nyaka ni oto? gute.  Ana gute, "Kibate, ikiri ito?an weyan."  Kibate obwok swa, to medere gi ?wech dwaro gute man.  Munyo omedere to doko nwa?o gute adek mulile maber swa.</t>
-  </si>
-  <si>
-    <t>Obolo thach piny mako le ni woto? achiel kwo? gute me.  Ana gute ni, "Kibate, ikiri ito?an.  To? mecha mere, ni woto? mecha mere, ana mecha ni, ikiri ito?an."  Nyuka jye oluwo gi Kibate.  Kibate obwok swa to Kibate chako achaka ?wech i dudi kichar.  Munyo fwodi ?wecho kichar ameno to nwa?o thwol madwo? swa manigi wich mere awuchiel.  Wich no jye oluwo gi Kibate.  Wich marapena to wacho ri Kibate ama, "Kibate ikiri inyonan."</t>
-  </si>
-  <si>
-    <t>Mararyo owacho ni, "Kibate nyonin to kunenin."</t>
-  </si>
-  <si>
-    <t>Maradek owacho ni, "Kibate lauro win."</t>
-  </si>
-  <si>
-    <t>Mara?wen owacho ni, "Kibate weyo uro gi muneno to uro win."</t>
-  </si>
-  <si>
-    <t>Marabich owacho ni, "Weyi win Kibate okadhi."</t>
-  </si>
-  <si>
-    <t>Marawuchiel owacho ni, "Kibate fwodi ni chandirok."</t>
-  </si>
-  <si>
-    <t>Munyo Kibate owinjo wach no jye, to nyaka chore kichar to neno kama nitye i iye pendi kano chiko ithe to winjo luwo korago swa.  To rwayo ni, "Kono jo ma luwo no jomedho, amadhiye gimoro."</t>
-  </si>
-  <si>
-    <t>Kani tundo onwa?o ni kere joyiko dhano, timako Kibate tiketho ibur, tinwa?o ?ata otho me, tiketho malo iwi Kibate, tichako yiko jo.</t>
-  </si>
-  <si>
-    <t>Wor munyo otundo jogoli jomotho.  Munyo jobino to jochako lwo?o ?ata otho me, kani jokidho neno jomotho me jowok jaryo to jouro swa to jowacho ri Kibate ni woti? jatho.</t>
-  </si>
-  <si>
-    <t>Kibate oti?o jatho me kir pecho pajo no tundo, to wachi rigo ni woya?i.</t>
-  </si>
-  <si>
-    <t>To Kibate penjo jo ni, "Wiy ya?o g' a?o?"</t>
-  </si>
-  <si>
-    <t>Ana jo ni, "Gi pala."</t>
-  </si>
-  <si>
-    <t>Odoko penjo jo ni, "Aka bende yanja ri win?  An bende, atiyo tich me.  Nende wi nwa?an munyo aomo gikipiny, to bedi nende wiwachi ran gima aya?o gine.  Nende aneno i dhoyo kacha manago ama yanja swa."  Ti oro go ni, "Kidhi iomi."</t>
-  </si>
-  <si>
-    <t>Kibate oringo, ringo ma kichutho.  Munyo otundo i dudi koro to nwa?o obwol otwi ofudho obwol no.  To odoko nwa?o kasiki moro, oti?o kasiki no.</t>
-  </si>
-  <si>
-    <t>Munyo wacho ni omoki gine mach aoyo.</t>
-  </si>
-  <si>
-    <t>Munyo fwodi wotho to romo gi jamilalo moro, kere jamilalo no okwali dhia? pere.  To obwol ma Kibate oti?o to lokere ri?o ma chil to kasiki to lokere wich dhia?.  Milalo to mako Kibate munyo goyo ndur swa kir pa rwoth tundo pa rwoth marapena ri?o olokere obwol.  Wich dhia? olokere kasiki.  Ameno Kibate oloyo banja jamilalo ojulira.  Kokidhi pa rwoth man.  Jamilalo loyo banjo. Munyo kendo kidhi pa rwoth man, Kibate oloyo banja.  Ameno ameno ato wire awira obwol gi kasiki wire awira kir pa kere.  To banja loyo Kibate tibolo Kibate i jera.  Kareno yupa kere nitye ogwa? manigi mach itunge.  Aka i oro jujera omo mach no, jokidwok.</t>
-  </si>
-  <si>
-    <t>Kogwa? no openjo jo ni, "Wachi ran gima itieko neno, jokiluwi meno to jodo? ado?a kenyo."</t>
-  </si>
-  <si>
-    <t>Munyo oori go to munyo otundo both ogwa?, ogwa? openjo go ni wowachiye rigo gima okelo go i jera, to Kibate chako, paka omako mere, paka ogeto ot, paka mere okidho limo go, gi paka mere owacho rigo paka gute oremi, oti?o le gi thach kidho to?o gute.  Oweyo mere chimo malo gi paka yen oluwo gi go paka obwok to ringo kichar paka onwa?o thwol ma jawich awuchiel.  Wich no jye kis achiel oluwo gi go.  Paka oringo nyuka otundo kama i yiko i iye dhano o?eyo ni, 'Kono imedho.'  Munyo oyik go gi dhano no, munyo obin golo ?ato yiki no to jowok jaryo.  Omiyi go ti?o mulambo no kir pecho pa jome.  Omiyi go ya?o jatho cha, rieko muthumo nyuka oori go omo gi ya?o.  Paka onwa?o obwol gi kasiki, oti?o to romo gi mulalo ma okwal dhia? pere.  Paka obwol gi kasiki jolokere rigo.  Banja ma okelo go pa kere to ogwa? to nyiero anyiera swa to podho piny.  To tungi ogwa? ma dimach to tur, to kwanyo to tero ri kere.  Munyo kere oneno go gi mach no, kere osangala swa munyo otito ri kere gima obedo.  Kere omiyo go sanduku ma pesa kir gi motoka mukwa?o go kir pecho pere.  Onwa?o anwa?a mere pere cha fwodi chimo achima malo wi ot kama gute ongoye i iye.</t>
-  </si>
-  <si>
-    <t>Aweyo ran josangala to adwoko ran. Adongi ran kari olwa pa nera."</t>
-  </si>
-  <si>
-    <t>x.	Kilagwech gi Ogwal</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo Kilagwech gi mere pere, Ogwal.  Ikiliesa pajo, kis dhano opakere gi nger ma woth pere.  Paka Ogwal wotho i pi, to Kilagwech wotho i hongo malo.  Otundo kir munyo kiliesa olokere piem.</t>
-  </si>
-  <si>
-    <t>Ana Ogwal ni, "An, Anyalo ringo gi pi to ikinyali yomban."</t>
-  </si>
-  <si>
-    <t>Ana Kilagwech ni, "Ogwal weyi ramo chunyan.  An aringo i hongo kendo aringo swa, inyalo yomban nedi?"</t>
-  </si>
-  <si>
-    <t>Ameno won kole piem ochakere ma ochikere ndelo ma piem ?wech wobedi iye ato sabit achiel yunyi me.  Mafwodi sabit no kurumo kere Ogwal odonjo i pi winjirok gi ogwale wadi ni ?ata owinjo ka Kilagwech wacho ni, "Kururu Ogwal, ayombin ba, odwoki wach achiel achiel."  Kende ni, "?a?"</t>
-  </si>
-  <si>
-    <t>Ameno kis Ogwal jye ma pi jonia? wach me dwoko ni, "?a, ?a."</t>
-  </si>
-  <si>
-    <t>Ameno ndelo otundo ma chako ?wech.  Jodongo ma jokidho neno ?wech me jotundo.  Firimbi gi kwano orumo Ogwal odonjo i pi to nywongo rigo gi kenyo to Kilagwech ringo pa tho.  Munyo otundo kumogo koro to nyaka wodho dwonde ni pakere wacho ri Ogwal ni "Kururu Ogwal, ayombin, ba!"</t>
-  </si>
-  <si>
-    <t>Ogwal odwoko go malo swa ni, "?a?"</t>
-  </si>
-  <si>
     <t>Odoko Kilagwech oringo swa to doko koko malo swa ni, "Ogwal ayombin, ba!"</t>
   </si>
   <si>
-    <t>Ogwal odwoko go ni, "?a?"</t>
-  </si>
-  <si>
-    <t>Kilagwech odoko ameno dwonde a?wen, marabich.</t>
-  </si>
-  <si>
-    <t>Munyo wiye wiro go swa to podho i pi to chako nywongo wi pi.  Otemo lwo?o Ogwal moth moth.  Munyo kidho tho Ogwal kiwinji rumachien mere to Ogwal oneno.  Munyo Kilagwech otho otop miyin ato piem gi jarieko itho mikwiya.</t>
-  </si>
-  <si>
-    <t>Orumo ameno.</t>
-  </si>
-  <si>
-    <t>xi.	Malo gi Gimoro</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo jachwo ma ilwo?o ni 'Malo' gi Yach gi nyir pere i malo no.  Obedo bende man ma ilwo?o ni 'Gimoro.'  Gimoro no kareno nitye i piny ka.  Ndelo achiel, yach pa Malo jomito bino i piny kiwayaye.  Munyo jotundo i piny jonwa?o jachwo no ma ilwo?o ni Gimoro.  Go won kende gi dhia? pere bende achiel.</t>
-  </si>
-  <si>
-    <t>Jopenjo go ni, "Inika kendin ichamo a?o?"</t>
-  </si>
-  <si>
-    <t>Jalo owacho rijo ni, "An nigi dhia? paran me.  Aka ka obolo woyo am' achamo."</t>
-  </si>
-  <si>
-    <t>Tidok penjo go ni, "To imadh' a?o?"</t>
-  </si>
-  <si>
-    <t>Ana go ni, "Dhia? paran me, ama ka olayo, ama lach mere amadho."</t>
-  </si>
-  <si>
-    <t>Jo no jouro swa gima jowinjo no.  Munyo jotieko kiliesa ameno to jodok.  Tundo pecho joliesaye ri bajo, Malo.  To Malo uro swa bende.</t>
-  </si>
-  <si>
-    <t>Ndelo achiel jowacho wegi ni, "Wakidho dwaro dhia? pa Gimoro."  Ameno won to joayi kidho kwalo dhia? pa Gimoro to jodwoko gine.  Kareno bajo nigi dhok madit swa i chiel pere.  Gimoro ochandere swa kech gi riyo hongo ma lach swa, munyo Gimoro kwiya, ni dhia? pere nitye kune.  Kareno dhia? no onywol kendo nyithindhe oromo.  Yach no wegi jogik wacho ri Gimoro paka jo?eyo kama dhia? no nitye iye.</t>
-  </si>
-  <si>
     <t>Jalo osangala swa to penjo jo ni, "Winyalo teran, akidhi aomi?"</t>
   </si>
   <si>
-    <t>To Joyeyo ni, "Ei."</t>
-  </si>
-  <si>
-    <t>Ameno jowotho gi Gimoro kir pa jadwo? Malo.  Munyo jotundo pa Malo, okel dhok kweth de, tiwacho ri Gimoro ni, "Ere, iwon pa chim dhok perin."</t>
-  </si>
-  <si>
-    <t>Gimoro owacho ni, "Ha!  An ma gimoro amora me!  Kareno jotieko chikirok gi okondo ni kinoneni aayi, dhia? ma no pie kwo?e, meno dhia? perin.  Odoko ka no kodere i man, meno amutel nywolo.  Ka doko amedere ameno ma luwo ameno ameno nyuka jorum.</t>
-  </si>
-  <si>
-    <t>Dhok marapena ma okel okondo koayi.  Gimoro okwero kawacho ni, "Kwo? dhok me jye aparan ongoye i iye."  Odoko okel dhok ma chiel man, ama nyaka okondo oayi to pie itu? dhia? achiel.</t>
-  </si>
-  <si>
-    <t>Ama Gimoro owacho ni, "Ei, dhia? paran eno."</t>
-  </si>
-  <si>
-    <t>Aka odoko oayi to pie itu? dhia? man, to Gimoro wacho ni, "Man kendo eno ma nywol."  Ameno ameno nyuka ochowo dhok pere jye.  Munyo ochowo oketh dhok no gichien.  Yawere tineko dhia? titedo chiemo gi ri?o no jye gipi.</t>
-  </si>
-  <si>
-    <t>To ilwo?o Gimoro chiemo, to iwacho rigo ni, "Eno, wamiyin chiemo no, cham jye."</t>
-  </si>
-  <si>
-    <t>Gimoro ologo maber, to bedo piny, to wacho ni, "Ha!  An ma gimoro amora me!  Anyalo chamo chiemo me jye chowo!"  Kani bolo wa?e to neno bur maluth swa dhu bothe.  Ochamo manok to chako kwanyo chiemo i boke bolo i bur.  Aka bende boke to bolo gichien.  Munyo otieko bolo jye nyaka to lwo?o jo ni ochowo chiemo.  Munyo kir bur ochule to jo no jouro.</t>
-  </si>
-  <si>
-    <t>To odoko jowacho ri Gimoro ni, "Baba ooro wan ni le e e.  Ni kidhi ibar rigo yen aoya.  Aka yen ma go oyo ibaro tele."  Jye gimoro kokwero.</t>
-  </si>
-  <si>
-    <t>Omako le to kadho kir kama di tele.  Otundo to wacho ni, "Ha!  An ma gimoro amora me!  Tele bende ibaro nedi?!  Weyi atem."  Ni kidho baro, to tele bare maber swa, kendo ma boyo swa.</t>
-  </si>
-  <si>
-    <t>Munyo oromo otweyo wich yen pere madwo? swa ma tele, to chungo to paro ni, 'Tele ma kiti?ere me, alayeyere nedi?'  Kani kidho mako, ape!  Sewi pama sanja.  Ameno won opoy munyo otundo gi wich yen ma tele.  Our to iwacho ni, "Ape!  Kere me gimoro amora adieri!"  To imiyo go dhok pere jye dok gine.  To kareno nitye nyar Malo ilwo?o ni Nya?ono omito swa nywomirok gi Gimoro.</t>
-  </si>
-  <si>
-    <t>Munyo owacho ri bamere, bamere oyeyo go to wacho ri nyare ni, "Kikadho gi Gimoro, Tho wokiri wo?eyi, kendo ikiri ikidhi gi go.  Ato Tho wiye rach, bino chandin."</t>
-  </si>
-  <si>
-    <t>To gosewila Nya?ano gi kis gimoro gwendi, gi kal ma gwendi lachamo.  Kareno Tho kieye bothi Nya?ono.  To ioro Tho bor, tichiko Nya?ono ni, "Kwanyi kis gimoro perin jye, ikadhi.  Ka wiyin owil gi gimoro, kipoyo ikiri dwok iom.  Ato ibino nwa?o Tho odwoko.  Iwinjo!"</t>
-  </si>
-  <si>
-    <t>Ameno won otieko oro Tho.  Nya?ono gi chwore e jokadho, to i royo bor nyaka to Nya?ono poyo ni, "O!  Wiyan owili gi kal pa gwendi.  Gwendi bino tho."</t>
-  </si>
-  <si>
-    <t>Kani gik, onwa?o Tho bende otieko dwoko.  To Tho sangala swa kapenjo ni, "Nya?ono onwa?o iweyan?"</t>
-  </si>
-  <si>
-    <t>To ni otem i wondo Tho nedi.  Aka nyamin wokadhi, Tho kiyey.</t>
-  </si>
-  <si>
-    <t>Bajo munyo ojok to wacho ri nyare ni, "Meno wach perin, akwerin ni kikadho ikiri gik chien onyo kadhi win gi go ongoye rieko."</t>
-  </si>
-  <si>
-    <t>Ameno Nya?ono jokadho gi omin go, Tho.  Munyo jotundo i piny kis ka nyamin onywol to kech neko go.  Go neko nyathi pa nyamin meno nyakewi mere, ni chiemo pere.  Munyo asa neko nyithindho pa Nya?ono, to Nya?ono kidho to ywakere ri bamere paka Tho ochowo kwo?e nyithindho wotimi nedi.  Bamere ooro yach temo dwo?o Tho.  Tho othiero jo ameno jochako riemo ariema gi men to jokunyalo mako go, to jojok to jowacho ni, "Nya?ono, iwon chango imito dwoko gi Tho.  Eno othiero wan do? gine."  Tho odo? to chako neko nyithindho pa Nya?ono, kir pama me.  Rodo? pa Tho piny me, atho munyo pama sika wan piny ka.</t>
-  </si>
-  <si>
-    <t>1. Wanyithindho pa Nya?ono gi Gimoro.</t>
-  </si>
-  <si>
-    <t>2. Wanyikwayi Malo, Were.</t>
-  </si>
-  <si>
-    <t>3. Wanyikewi Tho.</t>
-  </si>
-  <si>
-    <t>xii.	Ochulu gi Liech gi Dhia?</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo Ochulu gi Liech munyo jonigi pesa pajo.  Kis ?ata achiel omito kidho nyewo dhia? pere yu katale.  Ndelo ma katale munyo otundo, jowotho kidho nyewo dhok ato kis ?ata achiel won onyewo dhia? pere.  Ochulu onyewo ma roya.  To Liech onyewo ma thwon.</t>
-  </si>
-  <si>
-    <t>Munyo jotundo pecho, Liech kaliesa liesa pa gomba dhia? pa Ochulu nyuka jotundo kir wacho ni onyo dhoki me jowok wayi weso.  To joyeyere ameno.  Jokwayo ameno iweso oro aryo, Munyo jochako maradek kareno dhia? pa Ochulu odhuro, jomedere ameno kwath munyo weso pa Ochulu orumo, to liech chako, ndelo achiel to Ochulu mito kidho kiliesa ye gi liech yukuma go kwayo i iye dhok.</t>
-  </si>
-  <si>
-    <t>Munyo otundo kere bende andelo ma dhia? pa Ochulu onywoli i iye.  Liech munyo oneno Ochulu bino, to nwa?o thol to tweyo gine nyathi dhia? to tweyo i tiendi thwon pere ka sangala swa.  To koko ri Ochulu gi bor ni, "Jame ochulu anigi silwany madwo? swa, dhia? paran onywoli, yombere ineni."</t>
-  </si>
-  <si>
-    <t>Ochulu kutho oyengo ayenga wiye munyo kunyalo dwoko gimoro kadachiel.  Kende odok to gik i royo munyo paro gi rawacha ri liech.  To Wire to gik both Liech.  Munyo chiegin tundo both Liech to chako ywak gi nge swa ka wacho ni, "Jame, baba otho."</t>
-  </si>
-  <si>
-    <t>Aka otho pama won ma aweyo otieki kir rieyo, kir gi diyo wa?e.  Aka onwa?o baba otho mumoro wa?e!  Liech obwok swa to moth to penjo Ochulu ni, "A?o muneko jadwo??"</t>
-  </si>
-  <si>
-    <t>Ochulu to wacho rigo malo swa ni, "Baba otho gi nywoli!  Baba onwa?o nywoli to nyathi kuwok to tho!"</t>
-  </si>
-  <si>
-    <t>Liech to koko malo swa ni, "Jachwo bende nywoli."</t>
-  </si>
-  <si>
-    <t>To ochulu bende wacho malo ni, "To dhia? ma jachwo bende nywoli!"</t>
-  </si>
-  <si>
-    <t>To Liech chako nyiero gi uro rieko pa Ochulu gi go dwoko ni jachwo bende nywoli gi Ochulu bende dwoko ni, "To dhia? ma jachwo bende nywoli?"  Ameno Liech ogonyo woko thol ma otweyo i tiendi dhuon pere to dwoko ri Ochulu. Ro orieko pere oloyo Liech kir gi konon nyathi dhia? odongi paka a pa Ochulu ma roya pa Ochulu won ama onywolo.</t>
-  </si>
-  <si>
     <t>Jome rieko ma kwo kiber wiyi Liech okwot swa rogo won dwoko chien ni, "Jachwo bende nywoli!"</t>
   </si>
   <si>
-    <t>xiii.	Nyithindho ma Min Jo Eye</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo jachwo ma dhako pere oeye to weyo rigo nyithindho a?wen.  To rumachien to kelo dhako maido mere pere ma omiyo kir min nyithindho me oeye to kareno dhako me paka obino kenyo go kifur.  Chiemo munwa?o nyeke cha ofuro ama jochamo rumachien munyo oneno chiemo no rumo to chako kigesa paka nyithindho me jo asa chiemo aka gokiye?.</t>
-  </si>
-  <si>
-    <t>To chwore thumo rigo rieko ama ni, 'Paka onyo chiemo nok, imiyo jo nyaka moro manok aka iweyo madit ka adwoko munyo jonindo to wachamo.'</t>
-  </si>
-  <si>
-    <t>Dhako no osangala gi wach no swa to chako buyo nyithindho me chiemo, to nyithindho me bende Were miyo jo silwany ma chiemo banyithindho me kuro ka nyithindho me nindo nyaka dwoko to gudo thigo moth aka min ot bende chiko achika ithe yawo thigo moth.  Won ot donjo bedo piny ichwayo rigo chiemo.</t>
-  </si>
-  <si>
-    <t>Munyo joneno adieri, joneno nyithindho jonindo, jopoyo ka nyithindho a?wen jye jobedo piny ka jowacho ama</t>
-  </si>
-  <si>
-    <t>Marachiel owacho ni, "Baba eno imiyin."</t>
-  </si>
-  <si>
     <t>Mararyo owacho ni, "Iwacho rigo to kinen?"</t>
   </si>
   <si>
-    <t>Maradek owacho ni, "?ata neno kiwachi rigo?"</t>
-  </si>
-  <si>
-    <t>Mara?wen owacho ni, "Onyo lwo? ni kenyo to ikichami?"</t>
-  </si>
-  <si>
-    <t>Ameno kis nyathi motieko luwo chako achaka chiemo kendo chiemo nyuka ye?.  Ameno ni jothum rieko nedi nyithindho joloyo jo gi rieko nyuka joweyo nyithindho me chiemo achiema gi jo nyuka joye?.</t>
-  </si>
-  <si>
-    <t>Rumachien mere munyo dhako me oneno ni onyo kiye? nyachon to chako achaka dhawi gi chwore to chwore riemo.  Ameno nyithindho jodongo maber swa.  Pecho kir konon jonitye maber swa.</t>
-  </si>
-  <si>
-    <t>xiv.	Rombo kodi Gwok</t>
-  </si>
-  <si>
-    <t>Chango chango, rombo kodi gwok jomako mere.</t>
-  </si>
-  <si>
-    <t>To bedo ndelo achiel to rombo wacho ri gwok ni, "Ibini, iwendi reye." To gwok bende yeyo.  Gwok oayi yawere mere to kidho wendo ri rombo.</t>
-  </si>
-  <si>
-    <t>Munyo gwok otundo pecho pa rombo to rombo sangala gine swa, to miyo go gi bedo to motho go.  Munyo otieko motho go, to kidho to ?olo matoke, to gowo to chako tedo.</t>
-  </si>
-  <si>
-    <t>Munyo matoke chegin chek, to rombo ayi to kidho i riete ?wen, to goyo wich mere i riete ?wen kanyo wacho ni, "Katumi, katumi."  To ?wen chako dunyi to po?o rigo sapik.</t>
-  </si>
-  <si>
-    <t>To rombo dok pecho to nwa?o matoke ochiek to tedo ?wen to miyo wendo pere chiemo.</t>
-  </si>
-  <si>
-    <t>Munyo gwok otieko chiemo to wacho ri rombo ni, "Ibini, ibende iwendi reye."  To ndelo moro to rombo bende to ayi to kidho wendo ri gwok.  Gwok osangala swa to miyo rombo kom to motho go.</t>
-  </si>
-  <si>
-    <t>Gwok to kidho piyo piyo to ?olo matoke to gowo to chako tedo.  Munyo matoke chegin chiek, to ayi to kidho i riete ?wen, to chako goyo wich mere i riete ?wen ka wacho ni, "Katumi, katumi."  Munyo ogoyo maradek wich mere to bare to podho to tho.</t>
-  </si>
-  <si>
-    <t>To pecho kome to rombo temo kuro gwok to kineni, to temo kuro ro kineni, toayi to chako woth, to tundo i riete ?wen to nwa?o gwok nende otho de chon.</t>
-  </si>
-  <si>
-    <t>To rombo wacho ri gwok ni, "Amere paran nende ikitedi ran kada doko?  Aweyo ran iti?o gwok ikidho yiko tadoki ran."</t>
-  </si>
-  <si>
-    <t>Nyadoi Immaculate Owino</t>
-  </si>
-  <si>
-    <t>xv.	Jachiko Awendo</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo jal moro ma jachiko awendin.  Jalo obedo gi mon pere awuchiel.</t>
-  </si>
-  <si>
-    <t>To bedo ndelo achiel to jalo kidho chiko to mako awendo pere achiel.  Munyo odwoko pecho to kano awendo pere, to yawere mere to doko mondo kidho chiko awendin, to ndelo no to doko mako awendo pere achiel.</t>
-  </si>
-  <si>
-    <t>To munyo odwoko pecho to nwa?o awendo ma nyoro go omako ongoye kama go okano iye, openjo mon pere to kisi dhano to kwero ni akineno.</t>
-  </si>
-  <si>
-    <t>Jalo odoko okano awendo no to yawere mere to doko kidho chiko ma ndelo maradek. Ndelo no odoko omako awendo achiel, to munyo odwoko pecho odoko onwa?o awendo ma nyoro go okano cha odoko ongoye.</t>
-  </si>
-  <si>
-    <t>Jame odhier to chako penjo mon pere awuchiel me, to kis dhano no kwero ni kuneno awendo.</t>
-  </si>
-  <si>
-    <t>Jame to nge mako go swa, to konyo buri ma luth swa, to lwo?o mon pere jye, to jobino dhu bur, to fwonjo jo wer me.</t>
-  </si>
-  <si>
     <t>Awendo pa chworan  -  Kewere</t>
   </si>
   <si>
-    <t>?ato chami go  -  Kewere</t>
-  </si>
-  <si>
     <t>Amo tho ka  -  Kewere</t>
   </si>
   <si>
-    <t>Kewere, kewere ke  -  Kewere.</t>
-  </si>
-  <si>
-    <t>Kis dhako owero ameno to kalo buri, to munyo otundo weso pa dhako marawuchiel to chako wer to munyo kitho kalo bur to dhako no podho i bur.  To gime nyutho jal me ni kere dhako me amoido kwalo awendin pere.</t>
-  </si>
-  <si>
-    <t>To sawa no won to yiko ayika dhako no iburi no.</t>
-  </si>
-  <si>
-    <t>Aweyo ran iyiko dhako no to adoki ran.</t>
-  </si>
-  <si>
-    <t>xvi.	Nyir ma Jokidho Dimo Yen</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo nyir a?wen ma jokidho dimo yen isa.  Munyo jotieko dimo yen pajo to jotweyo.  Munyo jokidho yeyirok to yach a?wen jobino bothi jo ni jomito nyir.  Kenyo nyako achiel to lokere gwok to odo? nyir adek.</t>
-  </si>
-  <si>
-    <t>Kis jayach oyero nyako pere to jayach achiel do?.  Jayach me owacho ni, "Weyi akwanyi rani gwoki me okidhi okuri rani pecho."  Yach adek jodok gi nyir pecho pajo.  Jayach achiel bende odok gi gwok.</t>
-  </si>
-  <si>
-    <t>Yawere mere to jayach ma oti?o gwok jokadho fur gi min gi bamere, to joweyo gwok kuro pecho.  Gwok munyo oneno ji ongoye, to bolo woko pien to lokere dhano.  Yawo dero, to kwanyo kal, to goyo, to chielo to chako rego.  Munyo wero ni:</t>
-  </si>
-  <si>
-    <t>"Ilwo?an see kere to adhano</t>
-  </si>
-  <si>
-    <t>Ilwo?an gwok kere to adhano</t>
-  </si>
-  <si>
     <t>Ibolora kwon, kwon machol</t>
   </si>
   <si>
     <t>I ga gi luthi, luthi machol</t>
   </si>
   <si>
-    <t>Ilwo?an see kere to adhano</t>
-  </si>
-  <si>
-    <t>I ga gi luthi, luthi machol"</t>
-  </si>
-  <si>
-    <t>Munyo otieko rego to tedo kwon kodi magira, to chamo apere to weyo ri juma jokidho fur.  Jame munyo jodwoko, jonwa?o chiemo to jochamo, kis ndelo ameno ameno.</t>
-  </si>
-  <si>
-    <t>Ndelo achiel to jome, jowacho ni, "Wapondi, waneni ?ata asa tedo riwan."  To ji aryo, jodonj pecho to jopondo.  Nyako me to bolo woko pien to timo paka kis ndelo gotimo.  Munyo gotieko rego, tedo, chiemo, to go kidho lwok, opoyo munyo jayach pere wacho ni, "Nyako kis ndelo iwondo wan ni i gwok kere to in dhano.</t>
-  </si>
-  <si>
-    <t>Nyako me obwoki swa to lokere dhano ki chutho, ko doko lokere gwok to do? ado?a paka dhako.</t>
-  </si>
-  <si>
-    <t>Aweyo ran chamo mbaga madwo? tek tek akaloran olwa pa nera.</t>
-  </si>
-  <si>
-    <t>Nyawere Magdalen</t>
-  </si>
-  <si>
-    <t>xvii.	Jal ma Otero Nyithindho Pere ?weto Ayuyu</t>
-  </si>
-  <si>
-    <t>Chango chango, munyo kech opodho i piny.  To bedo jachwo manigi nyithindho pere aryo, gi dhako pere.  To kareno dhako no kumito nyithindho me be, rupir go kam' onywolo nyithindho no.</t>
-  </si>
-  <si>
-    <t>Ndelo achiel to jowacho ri chwore ni, "Kech kidho neko wan e e.  Gimitim boli woko nyithindho perin aryo me.  Teri jo kamoro bor i dudi.  I lule kama jokinyali dwoko i iye.  Jowotho koro."</t>
-  </si>
-  <si>
-    <t>Jal me owinjo kendo osima wach no rupir nyithindho jokimiyi jowoye?.  Ndelo achiel to bajo wacho ri nyithindho pere ni, "Kwanyi win adita akwa? win wikidhi wi?weti win ayuyu."  Apaka nyithindho no jotimo.</t>
-  </si>
-  <si>
-    <t>To jochako woth gi bajo, tundo i dudi ni nyithindho me jowowachi ri bajo ni, "Baba, kole ayuyu e e."</t>
-  </si>
-  <si>
-    <t>Bajo kwero akwera ni, "Be, yumalo koro amomore, owe win aowa."  Jowotho nyuka jotundo bor swa, kareno joluwo gi dudi, gima go mito won arwenyo nyithindho me royo kadwoko.</t>
-  </si>
-  <si>
-    <t>Rumachien mere to nyaka chimo ri nyithindho no ni, "?weti win kenyo.  ?weti win madit swa.  An e e, anika ato?o kedi, kafufa oromo wino wach ran to wadoki." To nyithindho no jochako ?weto adieri jo?weto madit swa jo?eyo ni bajo nitye kere odok chon swa.</t>
-  </si>
-  <si>
-    <t>Munyo otundo pecho, owacho ri dhako pere ni, "Sangala aliera gim' atieko bolo woko jo, odoko konen jo."</t>
-  </si>
-  <si>
-    <t>Munyo nyithindho no jotieko ?weto a?weta to jochako lwo?o bajo.  Ni jowolwo? kere bajo odok chon, to bende jochako rango dhoyo ama dwoko.  Nyaka bajo li? luwo munyo go tito ri dhako pere, to bende jokonjere jodwoko.  To munyo dhako no oneno nyithindho no to nyaka to julo gi nge swa.</t>
-  </si>
-  <si>
-    <t>Ameno ooro nyithindho no wegi te?o fufa gi tedo nyuka chiek.  Munyo fufa ochiek to jochamo, jochamo pecho gi pi nyuka rumo.  Odikin mere to doko bajo wacho rijo ni, "Owe win odoko akwa? win ?weto kendo.  Nyoro onwa?o fwodi adwoko kedi aka aomi win."</t>
-  </si>
-  <si>
-    <t>Kareno meno wondo jo.  Ameno okalo gi jo lule makalo apar to nyaka odoko wacho ri nyithindho me ni, "Ato?o kedi woni ka, katero pecho aledwoko omo win, wiwinjo?"</t>
-  </si>
-  <si>
-    <t>Munyo fufa orumo, nyithindho ni jo wokor bajo nyuka piny kidho yutho ni jotemo woth kere jomedere yumalo ayino, ameno to piny yutho.  Joneno ?angi tele moro kuma yido ogwa?e jonindo i iye, to jodonjo i iye, to jonindo.</t>
-  </si>
-  <si>
-    <t>Munyo piny oyawere ma nyako mere kareno winjo kech swa.  To ma jayach wacho ri ma nyako ni, "Bedi abeda kenyo abino."  Munyo jayach no wotho gi bor bor, neni gima chalo pa boke pendi.  Ochore nyuka neno ni pendi adieri, kani kidho neno ni matoke achiel ochiek.  Okidho to jako gi pi, to tero ri nyamin, to jochako chamo.</t>
-  </si>
-  <si>
-    <t>Munyo jotieko chamo, omito swa gik dwaro ni won pendi no ?a.  Ameno munyo ogik wotho munyo liwere, munyo kwiya ni 'adech no nitye ?a kosa a?o?'  Nyuka kani kidho neno ni to neno ot moro achiel, kineni won ot no, to thumo rieko idho ot no moth swa to donjo i lum to umere gi lum ma mito neno ni won ot no chale nedi.  Rumachien mere de, to nyaka neno won ot dwoko de ma ool, owok doyo pendi.  Nyaka to bedo piny to chako wacho ni, "Kwiya atedi ri?o a?o?  Ma dhia?, ma rombo, ma diel, ma gwok?"</t>
-  </si>
-  <si>
-    <t>To won to dwoko ni, "Aweyi, atedi ma rombo ama kwako chiek odoko amamit.  Asa oli."</t>
-  </si>
-  <si>
-    <t>Munyo otieko theno fufa to nyaka odoko chako paro gi kwano nyingi matoke ni, "Kwiya atedi nyarwanda, kwiya kiguti, kwiya nyaminnwa, kwiya teretesa."</t>
-  </si>
-  <si>
-    <t>To won odoko dwoko ni, "Aweyi atedi nyarwanda."  Ama yom yom ama kirwu chiek.  Okwako tedo nyarwanda odiyo, munyo oti?o woko matoke le chako toko.  To ?ata ni wilum, to chako gi wer malo i lum gi wer mamit swa ni, "Wer awera ameno ayombere aomi chieno paran, wamieli."  Kere nyaka ni woomi lake ma chamo gine go, yokama go furiye.  Munyo owok gi ?wech, to jayach bende to loro wi ot piyo swa to olo woko matoke jye gi ri?o jye ma kir kado to ?wecho gine both nyamin.  Kani jaomi chieno pere dwoko onwa?o jawer oli?.</t>
-  </si>
-  <si>
-    <t>Ana go, "Winyo wer wacham matoke gi ri?o." Winyo:</t>
-  </si>
-  <si>
-    <t>Pinyi si si si.</t>
-  </si>
-  <si>
-    <t>To wire to wacho ni, "Kada ibedi akitok matoke paran gi ri?o t'achamo."</t>
-  </si>
-  <si>
     <t>Kani kidho neno sapik, matoke, ongoye girachama moro jye, ongoye!  To paro swa to wacho ni, "Kwiya kendo atedi?"</t>
   </si>
   <si>
-    <t>Ana go won ni, "A!  Weyi amadhi churo paran anindi."  To kadho nindo ma kuchiemo .</t>
-  </si>
-  <si>
-    <t>Gima otimere ameno di ?wen, marabich jawer ni kidho idho malo wi ot ni kidho neno onwa?o jadwo? kosa dhakodwo? me odole fwodi wikanindo oworo.  To gik both nyamin tundo dikin odoko to gik neno kendo ni oayi.  Onwa?o awa?a fwodi jakanindo ameno.  Munyo ndelo okadho adek, kani kidho gik kendo onwa?o ni lwa?ino sunga.  Ameno kere gi no otho, to gwedho gi luth moro mabor to podho piny munyo ?we.  Ameno okwanyo to kidho bolo woko.  Munyo otieko bolo woko to chako bino neno bath tiendi, ni i poyo onwa?o jo nitye jaryo kosa kalo kenyo.  Munyo onwa?o ni ongoye kendo man to chako yweyo ot.  To go gi nyamin to jotuk i ot p'Ogwa? me, tundo jolunjo gikipiny p'Ogwa? me, adieri nyithindho cha jo?a?.</t>
-  </si>
-  <si>
-    <t>Munyo piny ogik maber munyo ji man jye jochako woth rupir yido jolworo Ogwa? cha.  To jal moro to tundo kama nyithindho me jonitye to munyo dok to kidho wacho ri banyithindho me paka nyithindho me jo?a?.  Kareno yuthu gi nyithindho me fwodi jokech swa.  Munyo banyithindho me owinjo, okwako mako kavera kidho ni nyithindho jowosakaye rijo.  Munyo nyithindho me joneno bajo, josangala adieri to jotedo chiemo madit swa gi ri?o bende madit swa ma ochamo de otweyo.  To munyo go dok, nyithindho me jodonjo dero ma nitye i iye chieth oyeyo jojowo po? kavera to jokwoyo.  Munyo jowacho ri bajo ni, kir matoke gi ri?o moweyo jye joketho i iye kenyo.  Jalo osangala kendo owotho gi ma yindo swa.</t>
-  </si>
-  <si>
-    <t>Munyo otundo pecho to tito ri dhako pere, paka nyithindho cha jo?a? gi gikipiny modwoko gine to wacho ni wok wany moro modwoko gine gine mochiek wocham.  Ni kidho neno gima ni kutya, kere manago chieth oyeyo ngil.</t>
-  </si>
-  <si>
-    <t>To dhaw gi dhako pere no swa, to goyo go, to riemo go, to gik bedo yupa nyithindho pere.  Kir pama winjo siem swa ma nyithindho joketho go i iye rupir jo?eyo maber ni, min jo ama ndir cha odak jo.</t>
-  </si>
-  <si>
-    <t>To okelo rieko momiyo bajo odak jo gi thwono jo chiemo.  Mon manok swa ma jomito nyithindho pa mon nyek jo ma jotho kosa jo eye.</t>
-  </si>
-  <si>
-    <t>xviii.	Kere Okidho Limo Jojera</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo kere ma piny no okidho limo jomutweyi jo i jera no.  Munyo otundo to i jolo go gi dwo? maber swa.  Owacho paka mitoye kiliesa gi jojera, jomutweyi jo.  To won yero jomutweyi jo kwo? wadi jo.  To yero ja?wen.</t>
-  </si>
-  <si>
-    <t>Owino, Oloka, Ochola, gi Owori to chako penjo kis ?ata achiel achiel.  Olwo?o Owino to penjo go ni, "Nyathi paran Owino banja a?o mitimo ?eyi wokelin i jera ka?"</t>
-  </si>
-  <si>
-    <t>Ana Owino, "Jadwo?, baba rwoth mayuthu wan onwa?o go kimitan apoyo ran kago makan to tweyan."</t>
-  </si>
-  <si>
     <t>Kere to odoko penjo, "Ngato tweyi mararyo ni to ini Oloka rango otweyin?"</t>
   </si>
   <si>
-    <t>To Oloka dwoko ni, "Jadwo? kere, onwa?o nitye jager paran mukwalo gikipiny to rwoth ma yuthu wan to ere ni a?ata akwalo t'imakan t'ikelan i jera ka t'ithumo ran ni banja oloyan tikelan ka."</t>
-  </si>
-  <si>
-    <t>Kere oyengo wiye ka wacho ni, "Jame, otweyi jo ma jongoye gi banja ma jotimo ouro swa."</t>
-  </si>
-  <si>
-    <t>Ameno medo kiliesa gi jo man odoko omedo penjo Ochola kawacho ama, "To in, Ochola, a?a mukelin i jera ka?"</t>
-  </si>
-  <si>
-    <t>Ochola to dwoko piyo swa ni, "Jadwo? kere iyadech mawan to gikipiny chako rwenyo rwenyo onwa?o an kenyo.  Kani aneno rwoth ma iyadech mawan otundo gi jasirikale ka jowacho ran ni 'Ochola wamakini watero tweyin.'  In ?ata kwalo wan tikelan ka titweyan."</t>
-  </si>
-  <si>
-    <t>Munyo Ochola ochowo wach pere to penjo ?ati man.</t>
-  </si>
-  <si>
-    <t>"Ei," Owori munyo kere openjo Owori.  Owori oguro chonge maber swa to luwo gi bwonirok kawacho ama, "Jadwo? kere gima kelan ka yuchien mere wagore gi nyawotan.  Aka a?ata atelo goyo nyawotan no kareno anigi nge swa ato?o kir wiye lero, to munyo waosa to banja loyan agima otweyan i iye ka."</t>
-  </si>
-  <si>
-    <t>To jadwo? onyo pama nge rumo, "Kendo akudok agiki goroki gi nyawotan, kendo indiri cha atimo marach swa goyo nyawotan."</t>
-  </si>
-  <si>
-    <t>Kere osangala swa gi wach pa jayach me roluwo giradieri loyo wadi!  To kere to wacho ri jadwo? ma jera gonyo, "Owor, i jera wodok ro go luwo giradieri ri kere."  Owori owok i jera munyo sangala swa oweyo wadi ro go luwo munyo jobanere.  Wadi jowacho ni, "O, bendi wan, bende waluwi giradieri!"</t>
-  </si>
-  <si>
-    <t>xix.	Jaradhola</t>
-  </si>
-  <si>
-    <t>Chango obedo jal ma ilwo?o ni Obondo, ma obedo gimon pere aryo.  Dhako marapena ilwo?o ni Agemila, aka mararyo ilwo?o ni Nyachuro.  Hongo otundo to Obondo bolo woko Agemila kir gi nyathi pere ma nyako ma ilwo?o ni Apil, to maro swa Nyachuro kodi nyathi pere ma nyako ma ilwo?o ni Nyagol.  Hongo achiel, adhola madwo? swa omako Obondo i tiende.  Otemi tero go pa jomiliel mopokere opokere, to jye adhola konyalo chango.  To dhano moro wacho rigo ni jathieth moro oido nitye ma nyalo botho go.  Munyo oteri go, jathieth me owacho rigo ni pi ma wakawaka kende ama nyalo botho tiendi go.  To oido wakawaka nitye bor swa gi pecho pa jame.</t>
-  </si>
-  <si>
-    <t>Munyo odok pecho to lwo?o Nyagol kodi min, to wacho rijo wach ma owok both jathieth.  Apil rupir onwa?o omaro bamere swa oredo piyo to pondo i buti ot munyo mito winjo gimo timere yowoth ma bamere owok iye.  Obondo oluwo kachiko nyare mere Nyagol paka kapiny oyawere, go ripo mondo swa i wakawaka ma go bino twomo iye pi ma bino botho tiendi go.  Ochiko nyathi me paka k'onyo go kidho kosa dwoko wok i wakawaka me.  Marapena kiripi ?iyo chen.  Mararyo kiripi luwirok kichar i royo, kada motho dhano.  Maradek kiripi luwo kumi gima dongo dongo jye ma go onen i wa? yo, kosa i wa? pi.  Mara?wen k'otundo i jwom to twomo pi, ripo woth wok i jwom kir pecho ma doko koneno chen.  To medo ni wokir wowoth g'Apil rupir, kade nende okel pi pere go kibino oro.  Kada ameno, Apil munyo otieko winjo gime jye, o?wecho swa kidho wacho ri min go paka go bende bino woth gi nyamin kidho i wakawaka.  Min owacho rigo ni wotemi kanyo go ?eyo ni ka bamere o?ey, bino kwero go kidho.</t>
-  </si>
-  <si>
-    <t>Yaweremere Apil okwale gi nyamin kidho i wakawaka gi asanda pere.  Munyo nyithindho me jotieko woth mabor swa, jonwa?o i thengi royo dhakodwo? m'oti swa kanyo furo kod fur kwer.  Nyagol munyo oneno gime to koko swa kanyo nyutho nyawote gima timere.  Apil kodewo to wotho awotha.  Kenyo a kama otiya me olwo?o jo, to luwo gi jo munyo chiko jo kum gima jokiripi timo i royo kanyo jokidho i wakawaka, ma bende ochale achala gi gima Obondo onwa?o otieko wacho.</t>
-  </si>
-  <si>
-    <t>I woth pajo, jotundo yowa?e kama jowinjo ji ma luwo i thengi royo pajo ma nitye i kalima kasa i yikirok moro.  Joma luwere , joma galagasa, joma goyo bunde, joma kudho gwara, gi gikipiny man ameno.  Gima jye onwa?o jowinjo awinja to jokinen.  Munyo jomedere, joneno sandin ma mwenge ma wegi joringo aringa kendi gin gi thengi royo kenyo.  Munyo jomedo woth, doko joneno dhano ma chango otho chon ma oido nitye kir nanga ma yik, ka por apora giwiye i thengi royo kenyo.  Munyo fwodi jomedere, joneno dhako moro ma oido wotho i thengi royo kenyo munyo ?wen agoro duny i wiye.  Nyithindho me joneno gikipiny madongo swa ma kelo dhier, to kada nende ameno Apil okuro chikirok ma owinjo kum bamere kod kum dhako otiya cha.  Go konyalo neno chen, koluwo gimoro jye, ma kada nyamin otemo swa lwo?o go, geyo go gi nyutho go gikipiny ma oido timere.  Okuro kula pere chuka de otundo i jwom to twomo pi i sanda pere to chako woth dok, ma koluwo doko koneno chen.  Nyagol konyalo kuro gime jye.  Oneno chen, ogwelo nyamin, okoko kaluwo kum kis gima go oneno jye, ma kada bedi ni go bende otundo i wakawaka to twomo pi.</t>
-  </si>
-  <si>
-    <t>Munyo nyithindho me jotundo pecho, Obondo okoko gibor kanyo ryemo Apil gi pi pere, to sangala swa gi pi pa Nyagol.  Tekin chako lwoko adhola pere gi pi pa Nyagol, to nyaka tiende ?adere madwo? swa.  Paka go omedo lwoko adhola gi pi me, apaka adhola bede omedo yawirok gi ramogo ma giraura.</t>
-  </si>
-  <si>
-    <t>Ndelo achiel tiwacho rigo ni kono miti ?ata oomo pi i wakawaka konyalo kuro chik ma dhoyo.  I winjo wach me, Obondo okwayo pi pa Apil, ma onwa?o go bende okano akana de wok ndelo ma bamere ryem gine go.  Munyo jadwo? me olwoko adhola pere gi pi pa nyare me, wor no won ama onindo i iye swa.  Rumachien ma ndelo adek, onwa?o munyo go nyalo kir woth, ma oido go kinyal kada ayi malo, nindo kosa chemo.  Jame olwo?o Apil to penjo go gimo timere jye i ndelo ma joomo pi i wakawaka.  Apil owacho rigo kis gima obedo jye.  Jadwo? me osangala swa gi tim pa nyath pere me.  Rumachien ma ndelo abiryo kende, onwa?o jame tiende otieko chango kichutho aka gwecho swa gi kisangala.  Tekin Obondo tieko both, to lwo?o merin, wade gi joger jye bino kisangala kanya achiel gine i kalima madwo? ma go ochano.  Jame oneko thwon madwo? swa maleny, to tedo kalima madwo?.  I kalima me go owacho ri ji paka onwa?o otieko bolo woko dhako pere madwo? me kir gi nyath pere.  To wacho paka i ndelo no, ogik maro dhako pere no kir gi nyath pere Apil, rokula maber ma go ofwonjo nyath pere, tundo kama onyalo botho rigo adhola ma onwa?o nyalo neko go.</t>
-  </si>
-  <si>
     <t>Kigana me fwonjo wan gime:</t>
   </si>
   <si>
-    <t>* Marapena, dongo gi kula motire ma nyalo kelo ri wan silwany.</t>
-  </si>
-  <si>
-    <t>* Marayo, bedo gi chuny wan maber ri jodongo gi jowot wan man jye, kada nende bedi ni jotimo ri wan marach.  Apil kodi min go jomedo ameda maro jodwo? me, kada bedi ni oido obolo woko jo.</t>
-  </si>
-  <si>
-    <t>* Maradek, waripo bedo jamakuro chikirok gi kula ma ripo.</t>
-  </si>
-  <si>
-    <t>* Mara?wen, waripo bedo gi mar ri kis dhano jye ma pecho mawan, ma ongoye nyutho dakirok ri joman.</t>
-  </si>
-  <si>
-    <t>* Marabich, waripo ?eyo ni kiber chayo kosa dak dhano moro jye, rupir nyalo bedo ri wan gi kony i kwo mawan.</t>
-  </si>
-  <si>
-    <t>Aweyo jome munyo fwodi josangala i kalima pajo me, to ayombere bino wacho ri win gima dwo? me.</t>
-  </si>
-  <si>
-    <t>Owor-Obel Joyce</t>
-  </si>
-  <si>
-    <t>xx.	Jal ma Onywomo Mon Adek</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo jal manigi mon pere adek.  To kwo? mon no, jobedo, joluwirok kichar kosa jotwodo.  Ndelo achiel to joyiko mwenge, munyo matoke ochiek to jopoko matoke, munyo jodhi?o matoke to ichako yweko pi ma konjo i matoke.  Kwo? mon adek me nitye achiel ma kiluw ma obadha.</t>
-  </si>
-  <si>
-    <t>Munyo mon no jochako kulo kis dhako gi dak pere.  Mon aryo ama jotelo kulo i jwom kareno nitye winyo ma wero.</t>
-  </si>
-  <si>
-    <t>Dhako ma otelo kidho i jwom munyo otieko twomo pi to yere munyo dok to winyo chako wer ni, "Nya pa rwoth me, chwili, konyan akonya chwili.  Wach ri joma pecho chwili ni winyo ni jwom kacha chwili winyo ma oruko tiko chwili winyo ma oruko gagi chwili, cho chicho dak ni pa."</t>
-  </si>
-  <si>
-    <t>To dak to podho to tho to dok pecho munyo ongoye gi dak to ioro dhako mararyo.  Munyo dhako no oti?o dak kidho i jwom to odoko nwa?o winyo no i jwom.  Munyo otieko twomo pi to yere to winyo no odoko chako wer.  Munyo otundo ni dak ni pa to dak wok iwiy dheno to podho piny.</t>
-  </si>
-  <si>
-    <t>Munyo wiro wa?e ni ?iyo chien koma di winyo.  Munyo odok pecho to owacho ri chwore ni, "Dak otho r'oweri pa winyo."  Chwore oriemo go to idok ioro dhako ma obadha kulo, meno adhako maradek.</t>
-  </si>
-  <si>
-    <t>Munyo obadha omako dok pere kidho i jwom to twomo pi, to yere dak, to chako woth.  Munyo wotho to winyo chako wer.  Owero ameno dikweth, munyo dhako ma obadha me wotho nyuka tundo pecho.  Otundo munyo ni gi pi, kendo munyo dak ber.</t>
-  </si>
-  <si>
-    <t>Jal ma won pecho ofwoyo swa dhako pere ma obadha me to won paro kosa chayo swa mon pere aryo me ma joneko degi pajo.  Munyo oparo ni mon me jotimo marach ri winyo me.  Onyo ama jame odo? rigo gi dhako pere achiel kende ma obadha me.  To riemo mon ma joluwo ma joneko degi pere me.</t>
-  </si>
-  <si>
-    <t>Aweyo ran jal cha sangala gi dhako pere ma obadha me loyo mon ma joluwere kichar chalo ma wegi jokwinyo winyo.</t>
-  </si>
-  <si>
-    <t>xxi.	Tiyo</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo jachwo ma ilwo?o ni 'Tiyo.'  Kareno jachwo me nigi min ma tuwo.  Tuwo nigi adhola marach swa i tiende.  Tiyo me ama timo rigo kis gimoro kulo, rego, tedo, ?weto, timo kis tich ri min.</t>
-  </si>
-  <si>
-    <t>To kareno Tiyo me omito miel ma kiwinji ni ilamielo kune.  Aka kokidho, kakidho no kutho tedo ri min mado rigo tiende kendo kano go malo wi?ango.  Kuma ogwa? kinyali neno go rupir kareno tiendi min ?we ka gimoro jye lwo?o go woli? ali?a kendo Tiyo me nigi gwokere kweth swa ma wotho gine kakidho i miel.</t>
-  </si>
-  <si>
-    <t>Ndelo achiel to Tiyo kidho i miel.  Otieko timo ri min kis gimoro jye paka tedo, mado rigo tiende gi chiko go ni, "Mama e e, akidho i miel ikiri iye."</t>
-  </si>
-  <si>
-    <t>Ka gimoro luwo woko to go kadho kir gi gwokere pere jye.  Miel ober swa.</t>
-  </si>
-  <si>
-    <t>Pecho ka ondiek obino to chako turo bel woko kosa turo gikipiny woko.  To min tiyo won ere i ot to penjo ni, "?a?"</t>
-  </si>
-  <si>
-    <t>Ana ogwa? woko ka ni, "Ani mere pa Tiyo woni."  To openjo dhako no ni, "Okethani ka wi?a?o?"</t>
-  </si>
-  <si>
-    <t>Ogwa? to donjo to penjo dhako no ni, "Tiyo okulo o?weto, odimo yeni, otedo rini chiemo?"</t>
-  </si>
-  <si>
-    <t>Jye no dhako no kokwer to munyo openjo go ni, "Omado rini tiendini."</t>
-  </si>
-  <si>
-    <t>Okwero ni, "Be, kumado."  To nyaka ondiek tedo kwon ma odhiek odhiek to chako mado gine tiendi min tiyo mado chamo mado chamo.  To kareno mado ma nyawo ri owor.</t>
-  </si>
-  <si>
-    <t>To dhako me winjo litho swa amumiyo woori winyo akuru ni, "Akuru lwo?i rani.  Tiyo kuma okidho i iye mieli ondiek nekani ano miyini maido."</t>
-  </si>
-  <si>
-    <t>Akurur to ayi to kidho kir imieli to chako wer.  Munyo opie kawero ama:</t>
-  </si>
-  <si>
-    <t>"Tiyo ye tiyo ye tiyo</t>
-  </si>
-  <si>
     <t>Tiyo ye tiyo ye tiyo</t>
   </si>
   <si>
-    <t>Kada igalo mieli gwara no"</t>
-  </si>
-  <si>
-    <t>Ondiek ochamo tiendi yukon ni otieko odoko ona?o odoko olwindo Tiyo.</t>
-  </si>
-  <si>
-    <t>Munyo Tiyo owinjo to wacho ri jogoy gikipiny ma miel ni, "Li?i win."  Munyo owinjo maber to pako gwokere pere piyo piyo swa, kir pecho to nwa?o ni tiendi min chwer marach swa.  Gwokere jomako ondiek jolaro alara to jochamo.  Tiyo chunye oramo neno gima ogwa? otimo ri min.  Okwako swa miyo akuru ma yido ro akuru lwo?o go di min otho.</t>
-  </si>
-  <si>
-    <t>Aweyo fwodi Tiyo chandere gi min kir gi konon fwodi tiendi min kochango.</t>
-  </si>
-  <si>
     <t>Irango?</t>
   </si>
   <si>
-    <t>xxii.	Japidi ma Kwach</t>
-  </si>
-  <si>
-    <t>Chango chango, obedo kwach to nywolo nyithindho aryo.</t>
-  </si>
-  <si>
-    <t>To chako rango japidi, ma okwony go gi kuro nyithindho, paka go gi ma chamo dwaro adwara.</t>
-  </si>
-  <si>
-    <t>To nwa?o japidi obedo gwok.  Omiyo gwok chik munyo wacho ri gwok ama, "Gwoki, a?eyo maber swa paka iasa wor ri choko kendo i mito swa, to awacho rin ama, kile mwodo choko imwodo munyo i pielo nyithindho ikiri mwodi munyo iti?o nyithindho itiendin.  Iwinjo?"</t>
-  </si>
-  <si>
-    <t>Ana gwok ni, "Awinjo."</t>
-  </si>
-  <si>
-    <t>Ameno won gwok ochako pidi.  Aka kwach bende onyo nitye tich pere ma dwaro girachama.</t>
-  </si>
-  <si>
-    <t>Ndelo achiel munyo kwach okidho dwar to gwok chako mwodo choko munyo othingo nyathi achiel tiende, kareno nyathi man nindo opielo, to choko por to goyo nyathi ma oti?o me malith to nyathi tho.  To oti?o nyathi mutho me to bende kidho pielo.</t>
-  </si>
-  <si>
-    <t>Ameno kwach to dwoko dwar munyo ool swa, to wacho ri gwok ni, "Keli nyithindho jowodhoth.  To okidho to kelo nyathi ma kwo mere kawacho ni micha mere fwodi nindo swa.  Munyo nyathi me otieko dhoth swa, onyo nindo kir.</t>
-  </si>
-  <si>
     <t>Ana kwach ni, "Keli micha mere bende wodhoth kichutho,"</t>
   </si>
   <si>
-    <t>Ana gwok ni, "Keli meno akidhi apieli kakelo micha."</t>
-  </si>
-  <si>
-    <t>Munyo tero ma owok dhoth me to yuko yuko swa to odoko kelo meno won.  Munyo kwach oneno to kwach wacho ni, "A! Kole me amuwoki dhoth."</t>
-  </si>
-  <si>
-    <t>To gwok piemo swa kawacho ni, "Be, meno m'unwa?o nindo."</t>
-  </si>
-  <si>
-    <t>Munyo kwach oayi kidho neno nyithindho kama jonindo i iye.  To gwok ayi gi ?wech adieri kir yusa i lule.  Munyo kwach oneno ni kole nyathi achiel otho, owok i ot.  Munyo kir wa?e jye ochule to chako ri?o kichar kichar munyo kinen kada gwok.  Oringo ameno munyo kunyalo neno gwok.  To dwoko to chako yiko timi ma yiko nyathi ma otho.</t>
-  </si>
-  <si>
-    <t>Munyo otieko yiko nyathi pere no, to nyaka yiko mbaga madwo? swa ma ilwo?o ni lumbe, to lwo?o kis ogwange moro jye to kelo jogoy gi miel ma nger gi nger.  Munyo gwok owinjo gima timere jye, chunye oramo go swa.  To munyo gwok oromo gi rombo madwo? swa ma wode.  To chako winjirok gi wodi rombo ni wokani go iyiwe.</t>
-  </si>
-  <si>
-    <t>To bende wodi rombo me kukwero to medo chiko go ni, "Kada gima ywak no omedere ywak mamit nedi?  Ikiri iayi i miel kendo, ikiri imedhi.  Iwinjo?"</t>
-  </si>
-  <si>
-    <t>Ana gwok ni, "Awinjo."  To rombo kano go iyiwe.</t>
-  </si>
-  <si>
-    <t>Rombo otundo gi woro ma medho omer omeriye to i ero goyo gima ywak no kichar ameno ogwange jomer i miel kichar no rombo bende oayi to chako miel.  Munyo por aka wito iyiwe malo ka wero ni,</t>
-  </si>
-  <si>
-    <t>"Makatengi tengi makatengi tengi dule newini yiwan eni</t>
-  </si>
-  <si>
-    <t>Makatengi tengi makatengi tengi dule newini yiwan eni."</t>
-  </si>
-  <si>
-    <t>Kani ineno gwok obudhere iyiwe rombo to kwach gi ni jolaro alara gwok to jochamo kir gi rombo jye.</t>
-  </si>
-  <si>
-    <t>Aweyo ran ogwange joye? kendo josangala to an, adwoko ran.</t>
-  </si>
-  <si>
-    <t>- 4 -</t>
-  </si>
-  <si>
     <t>Chiliendi Owino Anthony</t>
   </si>
   <si>
@@ -1478,12 +601,6 @@
     <t>Ochulu gi Liech Jonwaŋo Ŋwen</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pecho pere kis ka diel onywoli ka nyathi mere odongo, to wendo bino neko nyathi diel no odoko diel no do? achiel kende.  Diel no onywoli didek tineko nyithindhe jye kis kawendo obino.  Nywol pa diel me mara?wen to diel me nywolo nyithindhe aryo dichiel.  Munyo nyithindhe jodongo to fwodi wendo kobino ineko nyathi diel marapena.  To ruman tido kineko mararyo.  Diel odoko do? achiel kende pecho no.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chango chango, obedo jachwo ni gi diel achiel. </t>
-  </si>
-  <si>
     <t xml:space="preserve">  Munyo ndelo otundo jochokere</t>
   </si>
   <si>
@@ -2331,6 +1448,1110 @@
   </si>
   <si>
     <t>Jopenjo go ni, "Inika kendin ichamo aŋo?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pecho kir konon jonitye maber swa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ameno nyithindho jodongo maber swa</t>
+  </si>
+  <si>
+    <t>Rumachien mere munyo dhako me oneno ni onyo kiyeŋ nyachon to chako achaka dhawi gi chwore to chwore riemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ameno ni jothum rieko nedi nyithindho joloyo jo gi rieko nyuka joweyo nyithindho me chiemo achiema gi jo nyuka joye?</t>
+  </si>
+  <si>
+    <t>Ameno kis nyathi motieko luwo chako achaka chiemo kendo chiemo nyuka yeŋ</t>
+  </si>
+  <si>
+    <t>Maraŋwen owacho ni, "Onyo lwoŋ ni kenyo to ikichami?"</t>
+  </si>
+  <si>
+    <t>Maradek owacho ni, "ŋata neno kiwachi rigo?"</t>
+  </si>
+  <si>
+    <t>Marachiel owacho ni, "Baba eno imiyin"</t>
+  </si>
+  <si>
+    <t>Munyo joneno adieri, joneno nyithindho jonindo, jopoyo ka nyithindho aŋwen jye jobedo piny ka jowacho ama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Won ot donjo bedo piny ichwayo rigo chiemo</t>
+  </si>
+  <si>
+    <t>Dhako no osangala gi wach no swa to chako buyo nyithindho me chiemo, to nyithindho me bende Were miyo jo silwany ma chiemo banyithindho me kuro ka nyithindho me nindo nyaka dwoko to gudo thigo moth aka min ot bende chiko achika ithe yawo thigo moth</t>
+  </si>
+  <si>
+    <t>To chwore thumo rigo rieko ama ni, 'Paka onyo chiemo nok, imiyo jo nyaka moro manok aka iweyo madit ka adwoko munyo jonindo to wachamo'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Chiemo munwaŋo nyeke cha ofuro ama jochamo rumachien munyo oneno chiemo no rumo to chako kigesa paka nyithindho me jo asa chiemo aka gokiye?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To rumachien to kelo dhako maido mere pere ma omiyo kir min nyithindho me oeye to kareno dhako me paka obino kenyo go kifur</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jachwo ma dhako pere oeye to weyo rigo nyithindho aŋwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Nyithindho ma Min Jo Eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ro orieko pere oloyo Liech kir gi konon nyathi dhiaŋ odongi paka a pa Ochulu ma roya pa Ochulu won ama onywolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ameno Liech ogonyo woko thol ma otweyo i tiendi dhuon pere to dwoko ri Ochulu</t>
+  </si>
+  <si>
+    <t>To Liech chako nyiero gi uro rieko pa Ochulu gi go dwoko ni jachwo bende nywoli gi Ochulu bende dwoko ni, "To dhiaŋ ma jachwo bende nywoli?"</t>
+  </si>
+  <si>
+    <t>To ochulu bende wacho malo ni, "To dhiaŋ ma jachwo bende nywoli!"</t>
+  </si>
+  <si>
+    <t>Liech to koko malo swa ni, "Jachwo bende nywoli"</t>
+  </si>
+  <si>
+    <t>Ochulu to wacho rigo malo swa ni, "Baba otho gi nywoli!  Baba onwaŋo nywoli to nyathi kuwok to tho!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka onwaŋo baba otho mumoro waŋe!  Liech obwok swa to moth to penjo Ochulu ni, "Aŋo muneko jadwo??"</t>
+  </si>
+  <si>
+    <t>Aka otho pama won ma aweyo otieki kir rieyo, kir gi diyo wa?e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo chiegin tundo both Liech to chako ywak gi nge swa ka wacho ni, "Jame, baba otho"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To Wire to gik both Liech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kende odok to gik i royo munyo paro gi rawacha ri liech</t>
+  </si>
+  <si>
+    <t>Ochulu kutho oyengo ayenga wiye munyo kunyalo dwoko gimoro kadachiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To koko ri Ochulu gi bor ni, "Jame ochulu anigi silwany madwoŋ swa, dhiaŋ paran onywoli, yombere ineni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Liech munyo oneno Ochulu bino, to nwaŋo thol to tweyo gine nyathi dhiaŋ to tweyo i tiendi thwon pere ka sangala swa</t>
+  </si>
+  <si>
+    <t>Munyo otundo kere bende andelo ma dhiaŋ pa Ochulu onywoli i iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jokwayo ameno iweso oro aryo, Munyo jochako maradek kareno dhiaŋ pa Ochulu odhuro, jomedere ameno kwath munyo weso pa Ochulu orumo, to liech chako, ndelo achiel to Ochulu mito kidho kiliesa ye gi liech yukuma go kwayo i iye dhok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To joyeyere ameno</t>
+  </si>
+  <si>
+    <t>Munyo jotundo pecho, Liech kaliesa liesa pa gomba dhiaŋ pa Ochulu nyuka jotundo kir wacho ni onyo dhoki me jowok wayi weso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To Liech onyewo ma thwon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ochulu onyewo ma roya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ndelo ma katale munyo otundo, jowotho kidho nyewo dhok ato kis ŋata achiel won onyewo dhiaŋ pere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kis ŋata achiel omito kidho nyewo dhiaŋ pere yu katale</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo Ochulu gi Liech munyo jonigi pesa pajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ochulu gi Liech gi Dhiŋ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wanyikewi Tho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wanyikwayi Malo, Were</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wanyithindho pa Nyaŋono gi Gimoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rodoŋ pa Tho piny me, atho munyo pama sika wan piny ka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tho odoŋ to chako neko nyithindho pa Nyaŋono, kir pama me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Eno othiero wan doŋ gine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tho othiero jo ameno jochako riemo ariema gi men to jokunyalo mako go, to jojok to jowacho ni, "Nyaŋono, iwon chango imito dwoko gi Tho"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bamere ooro yach temo dwoŋo Tho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo asa neko nyithindho pa Nyaŋono, to Nya?ono kidho to ywakere ri bamere paka Tho ochowo kwoŋe nyithindho wotimi nedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Go neko nyathi pa nyamin meno nyakewi mere, ni chiemo pere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jotundo i piny kis ka nyamin onywol to kech neko go</t>
+  </si>
+  <si>
+    <t>Ameno Nyaŋono jokadho gi omin go, Tho</t>
+  </si>
+  <si>
+    <t>Munyo jotieko chamo, omito swa gik dwaro ni won pendi no ŋa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Okidho to jako gi pi, to tero ri nyamin, to jochako chamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ochore nyuka neno ni pendi adieri, kani kidho neno ni matoke achiel ochiek</t>
+  </si>
+  <si>
+    <t>Munyo jayach no wotho gi bor bor, neni gima chalo pa boke pendi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To ma jayach wacho ri ma nyako ni, "Bedi abeda kenyo abino"</t>
+  </si>
+  <si>
+    <t>Munyo piny oyawere ma nyako mere kareno winjo kech swa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Joneno ŋangi tele moro kuma yido ogwaŋe jonindo i iye, to jodonjo i iye, to jonindo</t>
+  </si>
+  <si>
+    <t>Munyo fufa orumo, nyithindho ni jo wokor bajo nyuka piny kidho yutho ni jotemo woth kere jomedere yumalo ayino, ameno to piny yutho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ameno okalo gi jo lule makalo apar to nyaka odoko wacho ri nyithindho me ni, "Atoŋo kedi woni ka, katero pecho aledwoko omo win, wiwinjo?"</t>
+  </si>
+  <si>
+    <t>Kareno meno wondo jo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyoro onwaŋo fwodi adwoko kedi aka aomi win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Odikin mere to doko bajo wacho rijo ni, "Owe win odoko akwaŋ win Vweto kendo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo fufa ochiek to jochamo, jochamo pecho gi pi nyuka rumo</t>
+  </si>
+  <si>
+    <t>Ameno ooro nyithindho no wegi teŋo fufa gi tedo nyuka chiek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To munyo dhako no oneno nyithindho no to nyaka to julo gi nge swa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyaka bajo li? luwo munyo go tito ri dhako pere, to bende jokonjere jodwoko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ni jowolwoV kere bajo odok chon, to bende jochako rango dhoyo ama dwoko</t>
+  </si>
+  <si>
+    <t>Munyo nyithindho no jotieko ŋweto aŋweta to jochako lwoŋo bajo</t>
+  </si>
+  <si>
+    <t>Munyo otundo pecho, owacho ri dhako pere ni, "Sangala aliera gim' atieko bolo woko jo, odoko konen jo"</t>
+  </si>
+  <si>
+    <t>To nyithindho no jochako ŋweto adieri joŋweto madit swa joŋeyo ni bajo nitye kere odok chon swa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  An e e, anika atoŋo kedi, kafufa oromo wino wach ran to wadoki</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ŋweti win madit swa</t>
+  </si>
+  <si>
+    <t>Rumachien mere to nyaka chimo ri nyithindho no ni, "ŋweti win kenyo"</t>
+  </si>
+  <si>
+    <t>Jowotho nyuka jotundo bor swa, kareno joluwo gi dudi, gima go mito won arwenyo nyithindho me royo kadwoko</t>
+  </si>
+  <si>
+    <t>Bajo kwero akwera ni, "Be, yumalo koro amomore, owe win aowa"</t>
+  </si>
+  <si>
+    <t>To jochako woth gi bajo, tundo i dudi ni nyithindho me jowowachi ri bajo ni, "Baba, kole ayuyu e e"</t>
+  </si>
+  <si>
+    <t>Apaka nyithindho no jotimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ndelo achiel to bajo wacho ri nyithindho pere ni, "Kwanyi win adita akwaŋ win wikidhi wiŋweti win ayuyu"</t>
+  </si>
+  <si>
+    <t>Jal me owinjo kendo osima wach no rupir nyithindho jokimiyi jowoye?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jowotho koro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I lule kama jokinyali dwoko i iye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Teri jo kamoro bor i dudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gimitim boli woko nyithindho perin aryo me</t>
+  </si>
+  <si>
+    <t>Ndelo achiel to jowacho ri chwore ni, "Kech kidho neko wan e e"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To kareno dhako no kumito nyithindho me be, rupir go kam' onywolo nyithindho no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To bedo jachwo manigi nyithindho pere aryo, gi dhako pere</t>
+  </si>
+  <si>
+    <t>Chango chango, munyo kech opodho i piny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jal ma Otero Nyithindho Per ŋweto Ayuyu</t>
+  </si>
+  <si>
+    <t>Aweyo ran chamo mbaga madwoŋ tek tek akaloran olwa pa nera</t>
+  </si>
+  <si>
+    <t>Nyako me obwoki swa to lokere dhano ki chutho, ko doko lokere gwok to doŋ adoŋa paka dhako</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo gotieko rego, tedo, chiemo, to go kidho lwok, opoyo munyo jayach pere wacho ni, "Nyako kis ndelo iwondo wan ni i gwok kere to in dhano"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyako me to bolo woko pien to timo paka kis ndelo gotimo</t>
+  </si>
+  <si>
+    <t>To ji aryo, jodonj pecho to jopondo</t>
+  </si>
+  <si>
+    <t>Ndelo achiel to jome, jowacho ni, "Wapondi, waneni ŋata asa tedo riwan"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jame munyo jodwoko, jonwaŋo chiemo to jochamo, kis ndelo ameno ameno</t>
+  </si>
+  <si>
+    <t>Munyo otieko rego to tedo kwon kodi magira, to chamo apere to weyo ri juma jokidho fur</t>
+  </si>
+  <si>
+    <t>Ilwoŋan gwok kere to adhano</t>
+  </si>
+  <si>
+    <t>Ilwoŋan see kere to adhano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo wero ni:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yawo dero, to kwanyo kal, to goyo, to chielo to chako rego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gwok munyo oneno ji ongoye, to bolo woko pien to lokere dhano</t>
+  </si>
+  <si>
+    <t>Yawere mere to jayach ma otiŋo gwok jokadho fur gi min gi bamere, to joweyo gwok kuro pecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jayach achiel bende odok gi gwok</t>
+  </si>
+  <si>
+    <t>Yach adek jodok gi nyir pecho pajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jayach me owacho ni, "Weyi akwanyi rani gwoki me okidhi okuri rani pecho"</t>
+  </si>
+  <si>
+    <t>Kis jayach oyero nyako pere to jayach achiel doŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kenyo nyako achiel to lokere gwok to odoŋ nyir adek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jokidho yeyirok to yach aŋwen jobino bothi jo ni jomito nyir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jotieko dimo yen pajo to jotweyo</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo nyir aŋwen ma jokidho dimo yen isa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Nyir ma Jokidho Dimo Yen</t>
+  </si>
+  <si>
+    <t>Aweyo ran iyiko dhako no to adoki ran</t>
+  </si>
+  <si>
+    <t>To sawa no won to yiko ayika dhako no iburi no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To gime nyutho jal me ni kere dhako me amoido kwalo awendin pere</t>
+  </si>
+  <si>
+    <t>Kis dhako owero ameno to kalo buri, to munyo otundo weso pa dhako marawuchiel to chako wer to munyo kitho kalo bur to dhako no podho i bur</t>
+  </si>
+  <si>
+    <t>Kewere, kewere ke  -  Kewere</t>
+  </si>
+  <si>
+    <t>ŋato chami go  -  Kewere</t>
+  </si>
+  <si>
+    <t>Jame to nge mako go swa, to konyo buri ma luth swa, to lwoŋo mon pere jye, to jobino dhu bur, to fwonjo jo wer me</t>
+  </si>
+  <si>
+    <t>Jame odhier to chako penjo mon pere awuchiel me, to kis dhano no kwero ni kuneno awendo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ndelo no odoko omako awendo achiel, to munyo odwoko pecho odoko onwaŋo awendo ma nyoro go okano cha odoko ongoye</t>
+  </si>
+  <si>
+    <t>Jalo odoko okano awendo no to yawere mere to doko kidho chiko ma ndelo maradek</t>
+  </si>
+  <si>
+    <t>To munyo odwoko pecho to nwaŋo awendo ma nyoro go omako ongoye kama go okano iye, openjo mon pere to kisi dhano to kwero ni akineno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo odwoko pecho to kano awendo pere, to yawere mere to doko mondo kidho chiko awendin, to ndelo no to doko mako awendo pere achiel</t>
+  </si>
+  <si>
+    <t>To bedo ndelo achiel to jalo kidho chiko to mako awendo pere achiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jalo obedo gi mon pere awuchiel</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jal moro ma jachiko awendin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jachiko Awendo</t>
+  </si>
+  <si>
+    <t>Aweyo ran itiŋo gwok ikidho yiko tadoki ran</t>
+  </si>
+  <si>
+    <t>To rombo wacho ri gwok ni, "Amere paran nende ikitedi ran kada doko? "</t>
+  </si>
+  <si>
+    <t>To pecho kome to rombo temo kuro gwok to kineni, to temo kuro ro kineni, toayi to chako woth, to tundo i riete ŋwen to nwaŋo gwok nende otho de chon</t>
+  </si>
+  <si>
+    <t>Munyo ogoyo maradek wich mere to bare to podho to tho</t>
+  </si>
+  <si>
+    <t>Munyo matoke chegin chiek, to ayi to kidho i riete ŋwen, to chako goyo wich mere i riete ŋwen ka wacho ni, "Katumi, katumi"</t>
+  </si>
+  <si>
+    <t>Gwok to kidho piyo piyo to ŋolo matoke to gowo to chako tedo</t>
+  </si>
+  <si>
+    <t>Gwok osangala swa to miyo rombo kom to motho go</t>
+  </si>
+  <si>
+    <t>To ndelo moro to rombo bende to ayi to kidho wendo ri gwok</t>
+  </si>
+  <si>
+    <t>Munyo gwok otieko chiemo to wacho ri rombo ni, "Ibini, ibende iwendi reye"</t>
+  </si>
+  <si>
+    <t>To rombo dok pecho to nwaŋo matoke ochiek to tedo ŋwen to miyo wendo pere chiemo</t>
+  </si>
+  <si>
+    <t>To ŋwen chako dunyi to poŋo rigo sapik</t>
+  </si>
+  <si>
+    <t>Munyo matoke chegin chek, to rombo ayi to kidho i riete ŋwen, to goyo wich mere i riete ŋwen kanyo wacho ni, "Katumi, katumi"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo otieko motho go, to kidho to ŋolo matoke, to gowo to chako tedo</t>
+  </si>
+  <si>
+    <t>Munyo gwok otundo pecho pa rombo to rombo sangala gine swa, to miyo go gi bedo to motho go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gwok oayi yawere mere to kidho wendo ri rombo</t>
+  </si>
+  <si>
+    <t>To gwok bende yeyo</t>
+  </si>
+  <si>
+    <t>To bedo ndelo achiel to rombo wacho ri gwok ni, "Ibini, iwendi reye"</t>
+  </si>
+  <si>
+    <t>Chango chango, rombo kodi gwok jomako mere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Rombo kodi Gwok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To wacho paka i ndelo no, ogik maro dhako pere no kir gi nyath pere Apil, rokula maber ma go ofwonjo nyath pere, tundo kama onyalo botho rigo adhola ma onwaŋo nyalo neko go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I kalima me go owacho ri ji paka onwaŋo otieko bolo woko dhako pere madwoŋ me kir gi nyath pere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jame oneko thwon madwoŋ swa maleny, to tedo kalima madwoŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tekin Obondo tieko both, to lwoŋo merin, wade gi joger jye bino kisangala kanya achiel gine i kalima madwoŋ ma go ochano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rumachien ma ndelo abiryo kende, onwaŋo jame tiende otieko chango kichutho aka gwecho swa gi kisangala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jadwoŋ me osangala swa gi tim pa nyath pere me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Apil owacho rigo kis gima obedo jye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jame olwoŋo Apil to penjo go gimo timere jye i ndelo ma joomo pi i wakawaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rumachien ma ndelo adek, onwaŋo munyo go nyalo kir woth, ma oido go kinyal kada ayi malo, nindo kosa chemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jadwoŋ me olwoko adhola pere gi pi pa nyare me, wor no won ama onindo i iye swa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I winjo wach me, Obondo okwayo pi pa Apil, ma onwaŋo go bende okano akana de wok ndelo ma bamere ryem gine go</t>
+  </si>
+  <si>
+    <t>Ndelo achiel tiwacho rigo ni kono miti ŋata oomo pi i wakawaka konyalo kuro chik ma dhoyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Paka go omedo lwoko adhola gi pi me, apaka adhola bede omedo yawirok gi ramogo ma giraura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tekin chako lwoko adhola pere gi pi pa Nyagol, to nyaka tiende ŋadere madwoŋ swa</t>
+  </si>
+  <si>
+    <t>Munyo nyithindho me jotundo pecho, Obondo okoko gibor kanyo ryemo Apil gi pi pere, to sangala swa gi pi pa Nyagol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oneno chen, ogwelo nyamin, okoko kaluwo kum kis gima go oneno jye, ma kada bedi ni go bende otundo i wakawaka to twomo pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyagol konyalo kuro gime jye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Okuro kula pere chuka de otundo i jwom to twomo pi i sanda pere to chako woth dok, ma koluwo doko koneno chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Go konyalo neno chen, koluwo gimoro jye, ma kada nyamin otemo swa lwoŋo go, geyo go gi nyutho go gikipiny ma oido timere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyithindho me joneno gikipiny madongo swa ma kelo dhier, to kada nende ameno Apil okuro chikirok ma owinjo kum bamere kod kum dhako otiya cha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo fwodi jomedere, joneno dhako moro ma oido wotho i thengi royo kenyo munyo ŋwen agoro duny i wiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jomedo woth, doko joneno dhano ma chango otho chon ma oido nitye kir nanga ma yik, ka por apora giwiye i thengi royo kenyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jomedere, joneno sandin ma mwenge ma wegi joringo aringa kendi gin gi thengi royo kenyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gima jye onwaŋo jowinjo awinja to jokinen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Joma luwere , joma galagasa, joma goyo bunde, joma kudho gwara, gi gikipiny man ameno</t>
+  </si>
+  <si>
+    <t>I woth pajo, jotundo yowaŋe kama jowinjo ji ma luwo i thengi royo pajo ma nitye i kalima kasa i yikirok moro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kenyo a kama otiya me olwoŋo jo, to luwo gi jo munyo chiko jo kum gima jokiripi timo i royo kanyo jokidho i wakawaka, ma bende ochale achala gi gima Obondo onwaŋo otieko wacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Apil kodewo to wotho awotha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyagol munyo oneno gime to koko swa kanyo nyutho nyawote gima timere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo nyithindho me jotieko woth mabor swa, jonwaŋo i thengi royo dhakodwoŋ m'oti swa kanyo furo kod fur kwer</t>
+  </si>
+  <si>
+    <t>Yaweremere Apil okwale gi nyamin kidho i wakawaka gi asanda pere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Min owacho rigo ni wotemi kanyo go ŋeyo ni ka bamere oŋey, bino kwero go kidho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kada ameno, Apil munyo otieko winjo gime jye, oŋwecho swa kidho wacho ri min go paka go bende bino woth gi nyamin kidho i wakawaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To medo ni wokir wowoth g'Apil rupir, kade nende okel pi pere go kibino oro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Maraŋwen k'otundo i jwom to twomo pi, ripo woth wok i jwom kir pecho ma doko koneno chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Maradek kiripi luwo kumi gima dongo dongo jye ma go onen i waŋ yo, kosa i waŋ pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mararyo kiripi luwirok kichar i royo, kada motho dhano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Marapena kiripi ŋiyo chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ochiko nyathi me paka k'onyo go kidho kosa dwoko wok i wakawaka me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Obondo oluwo kachiko nyare mere Nyagol paka kapiny oyawere, go ripo mondo swa i wakawaka ma go bino twomo iye pi ma bino botho tiendi go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Apil rupir onwaŋo omaro bamere swa oredo piyo to pondo i buti ot munyo mito winjo gimo timere yowoth ma bamere owok iye</t>
+  </si>
+  <si>
+    <t>Munyo odok pecho to lwoŋo Nyagol kodi min, to wacho rijo wach ma owok both jathieth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To oido wakawaka nitye bor swa gi pecho pa jame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo oteri go, jathieth me owacho rigo ni pi ma wakawaka kende ama nyalo botho tiendi go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To dhano moro wacho rigo ni jathieth moro oido nitye ma nyalo botho go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Otemi tero go pa jomiliel mopokere opokere, to jye adhola konyalo chango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hongo achiel, adhola madwoŋ swa omako Obondo i tiende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hongo otundo to Obondo bolo woko Agemila kir gi nyathi pere ma nyako ma ilwoŋo ni Apil, to maro swa Nyachuro kodi nyathi pere ma nyako ma ilwoŋo ni Nyagol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dhako marapena ilwoŋo ni Agemila, aka mararyo ilwoŋo ni Nyachuro</t>
+  </si>
+  <si>
+    <t>Chango obedo jal ma ilwoŋo ni Obondo, ma obedo gimon pere aryo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jaradhola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wadi jowacho ni, "O, bendi wan, bende waluwi giradieri!"</t>
+  </si>
+  <si>
+    <t>Owori owok i jera munyo sangala swa oweyo wadi ro go luwo munyo jobanere</t>
+  </si>
+  <si>
+    <t>Kere osangala swa gi wach pa jayach me roluwo giradieri loyo wadi!  To kere to wacho ri jadwoŋ ma jera gonyo, "Owor, i jera wodok ro go luwo giradieri ri kere"</t>
+  </si>
+  <si>
+    <t>To jadwoŋ onyo pama nge rumo, "Kendo akudok agiki goroki gi nyawotan, kendo indiri cha atimo marach swa goyo nyawotan"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka aŋata atelo goyo nyawotan no kareno anigi nge swa atoŋo kir wiye lero, to munyo waosa to banja loyan agima otweyan i iye ka</t>
+  </si>
+  <si>
+    <t>Owori oguro chonge maber swa to luwo gi bwonirok kawacho ama, "Jadwoŋ kere gima kelan ka yuchien mere wagore gi nyawotan"</t>
+  </si>
+  <si>
+    <t>"Ei," Owori munyo kere openjo Owori"</t>
+  </si>
+  <si>
+    <t>Munyo Ochola ochowo wach pere to penjo ŋati man</t>
+  </si>
+  <si>
+    <t>In ŋata kwalo wan tikelan ka titweyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kani aneno rwoth ma iyadech mawan otundo gi jasirikale ka jowacho ran ni 'Ochola wamakini watero tweyin'</t>
+  </si>
+  <si>
+    <t>Ochola to dwoko piyo swa ni, "Jadwoŋ kere iyadech mawan to gikipiny chako rwenyo rwenyo onwaŋo an kenyo</t>
+  </si>
+  <si>
+    <t>Ameno medo kiliesa gi jo man odoko omedo penjo Ochola kawacho ama, "To in, Ochola, aŋa mukelin i jera ka?"</t>
+  </si>
+  <si>
+    <t>Kere oyengo wiye ka wacho ni, "Jame, otweyi jo ma jongoye gi banja ma jotimo ouro swa</t>
+  </si>
+  <si>
+    <t>To Oloka dwoko ni, "Jadwoŋ kere, onwaŋo nitye jager paran mukwalo gikipiny to rwoth ma yuthu wan to ere ni aŋata akwalo t'imakan t'ikelan i jera ka t'ithumo ran ni banja oloyan tikelan ka</t>
+  </si>
+  <si>
+    <t>Ana Owino, "Jadwoŋ, baba rwoth mayuthu wan onwaŋo go kimitan apoyo ran kago makan to tweyan"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Olwoŋo Owino to penjo go ni, "Nyathi paran Owino banja aŋo mitimo ŋeyi wokelin i jera ka?"</t>
+  </si>
+  <si>
+    <t>Owino, Oloka, Ochola, gi Owori to chako penjo kis ŋata achiel achiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To yero jaŋwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To won yero jomutweyi jo kwoŋ wadi jo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Owacho paka mitoye kiliesa gi jojera, jomutweyi jo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo otundo to i jolo go gi dwoŋ maber swa</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo kere ma piny no okidho limo jomutweyi jo i jera no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kere Okidho Limo Jojera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mon manok swa ma jomito nyithindho pa mon nyek jo ma jotho kosa jo eye</t>
+  </si>
+  <si>
+    <t>To okelo rieko momiyo bajo odak jo gi thwono jo chiemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kir pama winjo siem swa ma nyithindho joketho go i iye rupir joŋeyo maber ni, min jo ama ndir cha odak jo</t>
+  </si>
+  <si>
+    <t>To dhaw gi dhako pere no swa, to goyo go, to riemo go, to gik bedo yupa nyithindho pere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ni kidho neno gima ni kutya, kere manago chieth oyeyo ngil</t>
+  </si>
+  <si>
+    <t>Munyo otundo pecho to tito ri dhako pere, paka nyithindho cha joŋaŋ gi gikipiny modwoko gine to wacho ni wok wany moro modwoko gine gine mochiek wocham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jalo osangala kendo owotho gi ma yindo swa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jowacho ri bajo ni, kir matoke gi riŋo moweyo jye joketho i iye kenyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To munyo go dok, nyithindho me jodonjo dero ma nitye i iye chieth oyeyo jojowo poŋ kavera to jokwoyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo nyithindho me joneno bajo, josangala adieri to jotedo chiemo madit swa gi riŋo bende madit swa ma ochamo de otweyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo banyithindho me owinjo, okwako mako kavera kidho ni nyithindho jowosakaye rijo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kareno yuthu gi nyithindho me fwodi jokech swa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To jal moro to tundo kama nyithindho me jonitye to munyo dok to kidho wacho ri banyithindho me paka nyithindho me joŋa?</t>
+  </si>
+  <si>
+    <t>Munyo piny ogik maber munyo ji man jye jochako woth rupir yido jolworo Ogwaŋ cha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To go gi nyamin to jotuk i ot p'Ogwaŋ me, tundo jolunjo gikipiny p'Ogwaŋ me, adieri nyithindho cha joŋa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo onwaŋo ni ongoye kendo man to chako yweyo ot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo otieko bolo woko to chako bino neno bath tiendi, ni i poyo onwaŋo jo nitye jaryo kosa kalo kenyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ameno okwanyo to kidho bolo woko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ameno kere gi no otho, to gwedho gi luth moro mabor to podho piny munyo ŋwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo ndelo okadho adek, kani kidho gik kendo onwaŋo ni lwaŋino sunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Onwavo awaŋa fwodi jakanindo ameno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To gik both nyamin tundo dikin odoko to gik neno kendo ni oayi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kosa dhakodwoŋ me odole fwodi wikanindo oworo</t>
+  </si>
+  <si>
+    <t>Gima otimere ameno di ŋwen, marabich jawer ni kidho idho malo wi ot ni kidho neno onwaŋo jadwoŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kadho nindo ma kuchiemo </t>
+  </si>
+  <si>
+    <t>Ana go won ni, "A!  Weyi amadhi churo paran anindi"</t>
+  </si>
+  <si>
+    <t>To wire to wacho ni, "Kada ibedi akitok matoke paran gi riŋo t'achamo"</t>
+  </si>
+  <si>
+    <t>Winyo pinyi si si si</t>
+  </si>
+  <si>
+    <t>Ana go, "Winyo wer wacham matoke gi riŋo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kani jaomi chieno pere dwoko onwaŋo jawer oliŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo owok gi ŋwech, to jayach bende to loro wi ot piyo swa to olo woko matoke jye gi riŋo jye ma kir kado to ŋwecho gine both nyamin</t>
+  </si>
+  <si>
+    <t>Kere nyaka ni woomi lake ma chamo gine go, yokama go furiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To ŋata ni wilum, to chako gi wer malo i lum gi wer mamit swa ni, "Wer awera ameno ayombere aomi chieno paran, wamieli"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Okwako tedo nyarwanda odiyo, munyo otiŋo woko matoke le chako toko</t>
+  </si>
+  <si>
+    <t>Ama yom yom ama kirwu chiek</t>
+  </si>
+  <si>
+    <t>To won odoko dwoko ni, "Aweyi atedi nyarwanda"</t>
+  </si>
+  <si>
+    <t>Munyo otieko theno fufa to nyaka odoko chako paro gi kwano nyingi matoke ni, "Kwiya atedi nyarwanda, kwiya kiguti, kwiya nyaminnwa, kwiya teretesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Asa oli</t>
+  </si>
+  <si>
+    <t>To won to dwoko ni, "Aweyi, atedi ma rombo ama kwako chiek odoko amamit"</t>
+  </si>
+  <si>
+    <t>Ma dhiaŋ, ma rombo, ma diel, ma gwok?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nyaka to bedo piny to chako wacho ni, "Kwiya atedi riŋo aŋo? "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rumachien mere de, to nyaka neno won ot dwoko de ma ool, owok doyo pendi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nyuka kani kidho neno ni to neno ot moro achiel, kineni won ot no, to thumo rieko idho ot no moth swa to donjo i lum to umere gi lum ma mito neno ni won ot no chale nedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ameno munyo ogik wotho munyo liwere, munyo kwiya ni 'adech no nitye ŋa kosa aŋo?' </t>
+  </si>
+  <si>
+    <t>Aweyo ran ogwange joyeŋ kendo josangala to an, adwoko ran</t>
+  </si>
+  <si>
+    <t>Kani ineno gwok obudhere iyiwe rombo to kwach gi ni jolaro alara gwok to jochamo kir gi rombo jye</t>
+  </si>
+  <si>
+    <t>Makatengi tengi makatengi tengi dule newini yiwan eni</t>
+  </si>
+  <si>
+    <t>Munyo por aka wito iyiwe malo ka wero ni,</t>
+  </si>
+  <si>
+    <t>Rombo otundo gi woro ma medho omer omeriye to i ero goyo gima ywak no kichar ameno ogwange jomer i miel kichar no rombo bende oayi to chako miel</t>
+  </si>
+  <si>
+    <t>To rombo kano go iyiwe</t>
+  </si>
+  <si>
+    <t>Ana gwok ni, "Awinjo"</t>
+  </si>
+  <si>
+    <t>Ikiri iayi i miel kendo, ikiri imedhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To bende wodi rombo me kukwero to medo chiko go ni, "Kada gima ywak no omedere ywak mamit nedi?"  </t>
+  </si>
+  <si>
+    <t>To chako winjirok gi wodi rombo ni wokani go iyiwe</t>
+  </si>
+  <si>
+    <t>To munyo gwok oromo gi rombo madwoŋ swa ma wode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo gwok owinjo gima timere jye, chunye oramo go swa</t>
+  </si>
+  <si>
+    <t>Munyo otieko yiko nyathi pere no, to nyaka yiko mbaga madwoŋ swa ma ilwoŋo ni lumbe, to lwoŋo kis ogwange moro jye to kelo jogoy gi miel ma nger gi nger</t>
+  </si>
+  <si>
+    <t>To dwoko to chako yiko timi ma yiko nyathi ma otho</t>
+  </si>
+  <si>
+    <t>Oringo ameno munyo kunyalo neno gwok</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munyo kir waŋe jye ochule to chako riŋo kichar kichar munyo kinen kada gwok</t>
+  </si>
+  <si>
+    <t>Munyo kwach oneno ni kole nyathi achiel otho, owok i ot</t>
+  </si>
+  <si>
+    <t>To gwok ayi gi ŋwech adieri kir yusa i lule</t>
+  </si>
+  <si>
+    <t>Munyo kwach oayi kidho neno nyithindho kama jonindo i iye</t>
+  </si>
+  <si>
+    <t>To gwok piemo swa kawacho ni, "Be, meno m'unwaŋo nindo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo kwach oneno to kwach wacho ni, "A! Kole me amuwoki dhoth"</t>
+  </si>
+  <si>
+    <t>Munyo tero ma owok dhoth me to yuko yuko swa to odoko kelo meno won</t>
+  </si>
+  <si>
+    <t>Ana gwok ni, "Keli meno akidhi apieli kakelo micha"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo nyathi me otieko dhoth swa, onyo nindo kir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To okidho to kelo nyathi ma kwo mere kawacho ni micha mere fwodi nindo swa</t>
+  </si>
+  <si>
+    <t>Ameno kwach to dwoko dwar munyo ool swa, to wacho ri gwok ni, "Keli nyithindho jowodhoth"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To otiŋo nyathi mutho me to bende kidho pielo</t>
+  </si>
+  <si>
+    <t>Ndelo achiel munyo kwach okidho dwar to gwok chako mwodo choko munyo othingo nyathi achiel tiende, kareno nyathi man nindo opielo, to choko por to goyo nyathi ma otiŋo me malith to nyathi tho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka kwach bende onyo nitye tich pere ma dwaro girachama</t>
+  </si>
+  <si>
+    <t>Ameno won gwok ochako pidi</t>
+  </si>
+  <si>
+    <t>Ana gwok ni, "Awinjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Omiyo gwok chik munyo wacho ri gwok ama, "Gwoki, aŋeyo maber swa paka iasa wor ri choko kendo i mito swa, to awacho rin ama, kile mwodo choko imwodo munyo i pielo nyithindho ikiri mwodi munyo itiŋo nyithindho itiendin</t>
+  </si>
+  <si>
+    <t>To nwaŋo japidi obedo gwok</t>
+  </si>
+  <si>
+    <t>To chako rango japidi, ma okwony go gi kuro nyithindho, paka go gi ma chamo dwaro adwara</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo kwach to nywolo nyithindho aryo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Japidi ma Kwach</t>
+  </si>
+  <si>
+    <t>Aweyo fwodi Tiyo chandere gi min kir gi konon fwodi tiendi min kochango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Okwako swa miyo akuru ma yido ro akuru lwoŋo go di min otho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tiyo chunye oramo neno gima ogwaŋ otimo ri min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gwokere jomako ondiek jolaro alara to jochamo</t>
+  </si>
+  <si>
+    <t>Munyo owinjo maber to pako gwokere pere piyo piyo swa, kir pecho to nwaŋo ni tiendi min chwer marach swa</t>
+  </si>
+  <si>
+    <t>Munyo Tiyo owinjo to wacho ri jogoy gikipiny ma miel ni, "Liŋi win"</t>
+  </si>
+  <si>
+    <t>Ondiek ochamo tiendi yukon ni otieko odoko onaŋo odoko olwindo Tiyo</t>
+  </si>
+  <si>
+    <t>Kada igalo mieli gwara no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo opie kawero ama:</t>
+  </si>
+  <si>
+    <t>Akurur to ayi to kidho kir imieli to chako wer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tiyo kuma okidho i iye mieli ondiek nekani ano miyini maido</t>
+  </si>
+  <si>
+    <t>To dhako me winjo litho swa amumiyo woori winyo akuru ni, "Akuru lwoŋi rani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To kareno mado ma nyawo ri owor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To nyaka ondiek tedo kwon ma odhiek odhiek to chako mado gine tiendi min tiyo mado chamo mado chamo</t>
+  </si>
+  <si>
+    <t>Okwero ni, "Be, kumado"</t>
+  </si>
+  <si>
+    <t>Jye no dhako no kokwer to munyo openjo go ni, "Omado rini tiendini"</t>
+  </si>
+  <si>
+    <t>Ogwaŋ to donjo to penjo dhako no ni, "Tiyo okulo oŋweto, odimo yeni, otedo rini chiemo?"</t>
+  </si>
+  <si>
+    <t>To openjo dhako no ni, "Okethani ka wiŋaŋo?"</t>
+  </si>
+  <si>
+    <t>Ana ogwaŋ woko ka ni, "Ani mere pa Tiyo woni"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To min tiyo won ere i ot to penjo ni, "ŋa?"</t>
+  </si>
+  <si>
+    <t>Pecho ka ondiek obino to chako turo bel woko kosa turo gikipiny woko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Miel ober swa</t>
+  </si>
+  <si>
+    <t>Ka gimoro luwo woko to go kadho kir gi gwokere pere jye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Otieko timo ri min kis gimoro jye paka tedo, mado rigo tiende gi chiko go ni, "Mama e e, akidho i miel ikiri iye"</t>
+  </si>
+  <si>
+    <t>Ndelo achiel to Tiyo kidho i miel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kuma ogwaŋ kinyali neno go rupir kareno tiendi min ŋwe ka gimoro jye lwovo go woliŋ aliŋa kendo Tiyo me nigi gwokere kweth swa ma wotho gine kakidho i miel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aka kokidho, kakidho no kutho tedo ri min mado rigo tiende kendo kano go malo wiŋango</t>
+  </si>
+  <si>
+    <t>To kareno Tiyo me omito miel ma kiwinji ni ilamielo kune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tiyo me ama timo rigo kis gimoro kulo, rego, tedo, ŋweto, timo kis tich ri min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tuwo nigi adhola marach swa i tiende</t>
+  </si>
+  <si>
+    <t>Kareno jachwo me nigi min ma tuwo</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jachwo ma ilwoŋo ni 'Tiyo'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Tiyo</t>
+  </si>
+  <si>
+    <t>Aweyo ran jal cha sangala gi dhako pere ma obadha me loyo mon ma joluwere kichar chalo ma wegi jokwinyo winyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To riemo mon ma joluwo ma joneko degi pere me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Onyo ama jame odoŋ rigo gi dhako pere achiel kende ma obadha me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo oparo ni mon me jotimo marach ri winyo me</t>
+  </si>
+  <si>
+    <t>Jal ma won pecho ofwoyo swa dhako pere ma obadha me to won paro kosa chayo swa mon pere aryo me ma joneko degi pajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Otundo munyo ni gi pi, kendo munyo dak ber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Owero ameno dikweth, munyo dhako ma obadha me wotho nyuka tundo pecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo wotho to winyo chako wer</t>
+  </si>
+  <si>
+    <t>Munyo obadha omako dok pere kidho i jwom to twomo pi, to yere dak, to chako woth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chwore oriemo go to idok ioro dhako ma obadha kulo, meno adhako maradek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo odok pecho to owacho ri chwore ni, "Dak otho r'oweri pa winyo"</t>
+  </si>
+  <si>
+    <t>Munyo wiro waŋe ni ŋiyo chien koma di winyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo otundo ni dak ni pa to dak wok iwiy dheno to podho piny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo otieko twomo pi to yere to winyo no odoko chako wer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo dhako no otiŋo dak kidho i jwom to odoko nwaŋo winyo no i jwom</t>
+  </si>
+  <si>
+    <t>To dak to podho to tho to dok pecho munyo ongoye gi dak to ioro dhako mararyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wach ri joma pecho chwili ni winyo ni jwom kacha chwili winyo ma oruko tiko chwili winyo ma oruko gagi chwili, cho chicho dak ni pa</t>
+  </si>
+  <si>
+    <t>Dhako ma otelo kidho i jwom munyo otieko twomo pi to yere munyo dok to winyo chako wer ni, "Nya pa rwoth me, chwili, konyan akonya chwili"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mon aryo ama jotelo kulo i jwom kareno nitye winyo ma wero</t>
+  </si>
+  <si>
+    <t>Munyo mon no jochako kulo kis dhako gi dak pere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kwoŋ mon adek me nitye achiel ma kiluw ma obadha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ndelo achiel to joyiko mwenge, munyo matoke ochiek to jopoko matoke, munyo jodhiŋo matoke to ichako yweko pi ma konjo i matoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To kwoŋ mon no, jobedo, joluwirok kichar kosa jotwodo</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jal manigi mon pere adek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jal ma Onywomo Mon Adek</t>
+  </si>
+  <si>
+    <t>Aweyo jome munyo fwodi josangala i kalima pajo me, to ayombere bino wacho ri win gima dwoŋ me</t>
+  </si>
+  <si>
+    <t>Marabich, waripo ŋeyo ni kiber chayo kosa dak dhano moro jye, rupir nyalo bedo ri wan gi kony i kwo mawan</t>
+  </si>
+  <si>
+    <t>Maraŋwen, waripo bedo gi mar ri kis dhano jye ma pecho mawan, ma ongoye nyutho dakirok ri joman</t>
+  </si>
+  <si>
+    <t>Maradek, waripo bedo jamakuro chikirok gi kula ma ripo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Apil kodi min go jomedo ameda maro jodwoŋ me, kada bedi ni oido obolo woko jo</t>
+  </si>
+  <si>
+    <t>Marayo, bedo gi chuny wan maber ri jodongo gi jowot wan man jye, kada nende bedi ni jotimo ri wan marach</t>
+  </si>
+  <si>
+    <t>Marapena, dongo gi kula motire ma nyalo kelo ri wan silwany</t>
+  </si>
+  <si>
+    <t>Adhola</t>
   </si>
 </sst>
 </file>
@@ -2474,7 +2695,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2654,6 +2875,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2815,10 +3042,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3154,1798 +3382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:A447"/>
+  <dimension ref="A1:A846"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="77.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" t="s">
-        <v>313</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A468"/>
-  <sheetViews>
-    <sheetView topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="A484" sqref="A484"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4953,6 +3393,11 @@
     <col min="1" max="1" width="82.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
@@ -4960,52 +3405,52 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>335</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5015,272 +3460,272 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>323</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>326</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>327</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>334</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>328</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>329</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>332</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>331</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>377</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>366</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>340</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>341</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>342</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>368</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>338</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>343</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>369</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>344</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>370</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>345</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>346</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>371</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>347</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>372</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>373</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>348</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>349</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>351</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>350</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>353</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>356</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>354</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>357</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>358</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>375</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>376</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>359</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>374</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>360</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>361</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>365</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>362</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>364</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>363</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -5290,2002 +3735,3892 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>378</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>379</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>380</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>381</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>382</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>383</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>412</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>408</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>393</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>384</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>385</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>394</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>395</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>386</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>387</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>410</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>411</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>407</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>388</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>396</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>397</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>389</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>390</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>391</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>392</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>399</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>398</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>400</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>401</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>402</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>403</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>406</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>404</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>405</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>414</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>413</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>445</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>444</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>443</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>442</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>441</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>440</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>439</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>438</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>437</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>436</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>435</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>434</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>433</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>432</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>431</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>430</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>429</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>428</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>427</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>426</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>425</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>424</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>423</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>422</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>421</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>420</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>419</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>418</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>417</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>416</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>415</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>461</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>460</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>459</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>458</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>457</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>456</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>455</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>454</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>453</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>452</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>451</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>450</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>449</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>448</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>447</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>446</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>486</v>
+        <v>194</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>485</v>
+        <v>193</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>484</v>
+        <v>192</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>483</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>482</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>481</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>480</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>479</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>478</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>477</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>476</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>475</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>474</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>473</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>472</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>471</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>470</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>469</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>468</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>467</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>466</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>465</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>464</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>463</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>462</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>517</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>516</v>
+        <v>222</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>515</v>
+        <v>221</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>514</v>
+        <v>220</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>513</v>
+        <v>219</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>512</v>
+        <v>218</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>511</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>510</v>
+        <v>216</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>509</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>508</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>507</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>506</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>505</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>504</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>503</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>502</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>501</v>
+        <v>207</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>500</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>499</v>
+        <v>205</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>498</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>497</v>
+        <v>203</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>496</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>495</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>494</v>
+        <v>200</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>493</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>492</v>
+        <v>198</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>491</v>
+        <v>197</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>490</v>
+        <v>196</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>489</v>
+        <v>195</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>558</v>
+        <v>264</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>557</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>556</v>
+        <v>262</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>555</v>
+        <v>261</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>554</v>
+        <v>260</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>553</v>
+        <v>259</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>552</v>
+        <v>258</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>551</v>
+        <v>257</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>550</v>
+        <v>256</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>549</v>
+        <v>255</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>548</v>
+        <v>254</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>547</v>
+        <v>253</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>546</v>
+        <v>252</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>545</v>
+        <v>251</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>544</v>
+        <v>250</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>543</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>542</v>
+        <v>248</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>541</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>540</v>
+        <v>246</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>539</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>538</v>
+        <v>244</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>537</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>536</v>
+        <v>242</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>535</v>
+        <v>241</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>534</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>533</v>
+        <v>239</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>532</v>
+        <v>238</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>531</v>
+        <v>237</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>530</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>529</v>
+        <v>235</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>528</v>
+        <v>234</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>527</v>
+        <v>233</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>526</v>
+        <v>232</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>525</v>
+        <v>231</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>524</v>
+        <v>230</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>523</v>
+        <v>229</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>522</v>
+        <v>228</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>521</v>
+        <v>227</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>520</v>
+        <v>226</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>519</v>
+        <v>225</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>518</v>
+        <v>224</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>589</v>
+        <v>295</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>588</v>
+        <v>294</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>587</v>
+        <v>293</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>586</v>
+        <v>292</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>585</v>
+        <v>291</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>584</v>
+        <v>290</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>583</v>
+        <v>289</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>582</v>
+        <v>288</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>581</v>
+        <v>287</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>580</v>
+        <v>286</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>579</v>
+        <v>285</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>578</v>
+        <v>284</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>577</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>576</v>
+        <v>282</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>575</v>
+        <v>281</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>574</v>
+        <v>280</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>573</v>
+        <v>279</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>572</v>
+        <v>278</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>571</v>
+        <v>277</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>570</v>
+        <v>276</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>569</v>
+        <v>275</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>568</v>
+        <v>274</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>567</v>
+        <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>566</v>
+        <v>272</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>565</v>
+        <v>271</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>564</v>
+        <v>270</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>563</v>
+        <v>269</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>562</v>
+        <v>268</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>561</v>
+        <v>267</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>560</v>
+        <v>266</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>559</v>
+        <v>265</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>621</v>
+        <v>327</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>620</v>
+        <v>326</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>619</v>
+        <v>325</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>618</v>
+        <v>324</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>617</v>
+        <v>323</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>616</v>
+        <v>322</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>615</v>
+        <v>321</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>614</v>
+        <v>320</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>613</v>
+        <v>319</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>612</v>
+        <v>318</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>611</v>
+        <v>317</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>610</v>
+        <v>316</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>609</v>
+        <v>315</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>608</v>
+        <v>314</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>607</v>
+        <v>313</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>606</v>
+        <v>312</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>605</v>
+        <v>311</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>604</v>
+        <v>310</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>603</v>
+        <v>309</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>602</v>
+        <v>308</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>601</v>
+        <v>307</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>600</v>
+        <v>306</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>599</v>
+        <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>598</v>
+        <v>304</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>597</v>
+        <v>303</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>596</v>
+        <v>302</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>595</v>
+        <v>301</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>594</v>
+        <v>300</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>593</v>
+        <v>299</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>592</v>
+        <v>298</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>591</v>
+        <v>297</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>590</v>
+        <v>296</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>656</v>
+        <v>362</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>655</v>
+        <v>361</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>654</v>
+        <v>360</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>653</v>
+        <v>359</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>652</v>
+        <v>358</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>651</v>
+        <v>357</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>650</v>
+        <v>356</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>649</v>
+        <v>355</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>648</v>
+        <v>354</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>647</v>
+        <v>353</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>646</v>
+        <v>352</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>645</v>
+        <v>351</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>644</v>
+        <v>350</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>643</v>
+        <v>349</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>642</v>
+        <v>348</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>641</v>
+        <v>347</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>640</v>
+        <v>346</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>639</v>
+        <v>345</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>638</v>
+        <v>344</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>637</v>
+        <v>343</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>636</v>
+        <v>342</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>635</v>
+        <v>341</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>634</v>
+        <v>340</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>633</v>
+        <v>339</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>632</v>
+        <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>631</v>
+        <v>337</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>630</v>
+        <v>336</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>629</v>
+        <v>335</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>628</v>
+        <v>334</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>627</v>
+        <v>333</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>626</v>
+        <v>332</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>625</v>
+        <v>331</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>624</v>
+        <v>330</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>623</v>
+        <v>329</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>622</v>
+        <v>328</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>701</v>
+        <v>407</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>700</v>
+        <v>406</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>699</v>
+        <v>405</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>698</v>
+        <v>404</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="2" t="s">
-        <v>697</v>
+        <v>403</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>696</v>
+        <v>402</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>695</v>
+        <v>401</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>694</v>
+        <v>400</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>693</v>
+        <v>399</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>692</v>
+        <v>398</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>691</v>
+        <v>397</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>690</v>
+        <v>396</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>689</v>
+        <v>395</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>688</v>
+        <v>394</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>617</v>
+        <v>393</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>687</v>
+        <v>392</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>686</v>
+        <v>391</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>685</v>
+        <v>390</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>684</v>
+        <v>389</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>683</v>
+        <v>388</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>682</v>
+        <v>387</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>681</v>
+        <v>386</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>680</v>
+        <v>385</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>679</v>
+        <v>384</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>678</v>
+        <v>383</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>677</v>
+        <v>382</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>676</v>
+        <v>381</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>675</v>
+        <v>380</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>674</v>
+        <v>379</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>673</v>
+        <v>378</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>672</v>
+        <v>377</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>671</v>
+        <v>8</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>112</v>
+        <v>376</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>670</v>
+        <v>375</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>669</v>
+        <v>374</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>668</v>
+        <v>373</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>667</v>
+        <v>372</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>666</v>
+        <v>371</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>665</v>
+        <v>370</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>664</v>
+        <v>369</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>663</v>
+        <v>368</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>662</v>
+        <v>367</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>661</v>
+        <v>366</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>660</v>
+        <v>365</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>659</v>
+        <v>364</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>658</v>
+        <v>363</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>657</v>
+        <v>477</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>771</v>
+        <v>476</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>770</v>
+        <v>475</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>769</v>
+        <v>474</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>768</v>
+        <v>473</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>767</v>
+        <v>472</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>766</v>
+        <v>471</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>765</v>
+        <v>470</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>764</v>
+        <v>469</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>763</v>
+        <v>468</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>762</v>
+        <v>467</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>761</v>
+        <v>466</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>760</v>
+        <v>465</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>759</v>
+        <v>464</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>758</v>
+        <v>463</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>125</v>
+        <v>462</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>756</v>
+        <v>461</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>755</v>
+        <v>460</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>754</v>
+        <v>459</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>753</v>
+        <v>458</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>752</v>
+        <v>457</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>751</v>
+        <v>456</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>750</v>
+        <v>455</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>749</v>
+        <v>454</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>748</v>
+        <v>453</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>747</v>
+        <v>452</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>746</v>
+        <v>451</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>745</v>
+        <v>450</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>744</v>
+        <v>449</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>743</v>
+        <v>448</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>742</v>
+        <v>447</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>741</v>
+        <v>446</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>740</v>
+        <v>445</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>739</v>
+        <v>444</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>738</v>
+        <v>443</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>737</v>
+        <v>442</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>736</v>
+        <v>441</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>735</v>
+        <v>440</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>734</v>
+        <v>439</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>733</v>
+        <v>438</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>732</v>
+        <v>437</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>731</v>
+        <v>436</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>730</v>
+        <v>435</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>729</v>
+        <v>434</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>728</v>
+        <v>433</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>727</v>
+        <v>432</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>726</v>
+        <v>431</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>725</v>
+        <v>430</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>724</v>
+        <v>429</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>723</v>
+        <v>428</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>722</v>
+        <v>427</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>721</v>
+        <v>426</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>720</v>
+        <v>425</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>719</v>
+        <v>424</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>718</v>
+        <v>423</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>717</v>
+        <v>422</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>716</v>
+        <v>421</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>715</v>
+        <v>420</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>714</v>
+        <v>419</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>713</v>
+        <v>418</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>712</v>
+        <v>417</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>711</v>
+        <v>416</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>710</v>
+        <v>415</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>709</v>
+        <v>414</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>708</v>
+        <v>413</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>707</v>
+        <v>412</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>706</v>
+        <v>411</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>705</v>
+        <v>410</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>704</v>
+        <v>409</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>703</v>
+        <v>408</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" t="s">
         <v>702</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/Kisoma Dhopadhola.xlsx
+++ b/Kisoma Dhopadhola.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Clean" sheetId="2" r:id="rId1"/>
+    <sheet name="Book 2" sheetId="2" r:id="rId1"/>
+    <sheet name="Book 1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1124">
   <si>
     <t>Kitabo Mararyo</t>
   </si>
@@ -2552,6 +2553,840 @@
   </si>
   <si>
     <t>Adhola</t>
+  </si>
+  <si>
+    <t>Kitabo Marapena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wafwoyo swa ji jye, somero ma Siwa kod Miganja Praimari. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okoth Mariko omo kitabo me ma fwonjo Dhopadhola ri nyithindho ma praimari.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medo nyayo kitabo me ri fwonji maber swa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bende inyalo nwaŋo kitabo me .</t>
+  </si>
+  <si>
+    <t>Kitabo me nitye gi kigana kod gikipiny ma fwonji ondiko dwe marabiryo tundo dwe marabuŋwen, 2002.</t>
+  </si>
+  <si>
+    <t>Nyikuta ma Dhopadhola</t>
+  </si>
+  <si>
+    <t>Riwo Nyikuta Aryo</t>
+  </si>
+  <si>
+    <t>Riwo Nyikuta Adek/Aŋwen</t>
+  </si>
+  <si>
+    <t>Agecha gi Dwanyo Wach</t>
+  </si>
+  <si>
+    <t>Jakwakirok jakun</t>
+  </si>
+  <si>
+    <t>Makoko jye wok i tonge</t>
+  </si>
+  <si>
+    <t>ŋata kifwonji wotho gi gimoro yuŋeye</t>
+  </si>
+  <si>
+    <t>Awendo ma lwor ama yindira</t>
+  </si>
+  <si>
+    <t>Jagwondo Jarawanya</t>
+  </si>
+  <si>
+    <t>Jafwoch ama ye?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jakisunga kilogi</t>
+  </si>
+  <si>
+    <t>Theke theke awech jodongo</t>
+  </si>
+  <si>
+    <t>Muwolo loyo muŋwenyere</t>
+  </si>
+  <si>
+    <t>Mwolo pa rombo kimon go dwiro</t>
+  </si>
+  <si>
+    <t>Awendo kingoye gachiero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ŋaŋo meno thoyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Achiel achiel a wich (kosa kayego)</t>
+  </si>
+  <si>
+    <t>Kuro kwo oloyo ŋaŋo</t>
+  </si>
+  <si>
+    <t>Awendo timo ni che-</t>
+  </si>
+  <si>
+    <t>Chandere aka i nolim</t>
+  </si>
+  <si>
+    <t>Wot gwendi gore i chuŋ machon</t>
+  </si>
+  <si>
+    <t>Kisalaka kiyengere nono</t>
+  </si>
+  <si>
+    <t>Nyakus dhiaŋ kiwoki i kigo nono</t>
+  </si>
+  <si>
+    <t>Ikiri chai bo ma dikado</t>
+  </si>
+  <si>
+    <t>Jambaka nyewo mbiye</t>
+  </si>
+  <si>
+    <t>Jamikwenda wiye bulero</t>
+  </si>
+  <si>
+    <t>Kama olwokere ama kithwo iye</t>
+  </si>
+  <si>
+    <t>Kichami gi rochi</t>
+  </si>
+  <si>
+    <t>Chandi waŋ adhola</t>
+  </si>
+  <si>
+    <t>Kisi ndelo kibedi sabit</t>
+  </si>
+  <si>
+    <t>Koth goyo min gweno loko mbwo?</t>
+  </si>
+  <si>
+    <t>Furi wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Koth ma odiechieŋ kigoy ŋata achiel</t>
+  </si>
+  <si>
+    <t>Koth ma ogoyin gi pe</t>
+  </si>
+  <si>
+    <t>Kulo gi bemo</t>
+  </si>
+  <si>
+    <t>Gi 	Athieno Getrude kod Nyafwono Connie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dwanyo Lew</t>
+  </si>
+  <si>
+    <t>Yiwi mamba miti, yiwi mamba miti</t>
+  </si>
+  <si>
+    <t>Amudhe dicha chiemo dho ndelo dho loka dho jwom</t>
+  </si>
+  <si>
+    <t>Waka waka wakawaka ni wakawaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madhombedhombe patha patha ni patha patha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kwara kidho kudho gwara Gwaragwara</t>
+  </si>
+  <si>
+    <t>Mwodo mwodo mwodere pa mwodo</t>
+  </si>
+  <si>
+    <t>Ochola chor achero machon ma cheŋino Ochieŋ ochiemiye</t>
+  </si>
+  <si>
+    <t>Ochola ocholo Achola chon</t>
+  </si>
+  <si>
+    <t>Okello oleko lek yo loka koro</t>
+  </si>
+  <si>
+    <t>Adhadha odhier g'adher i dhoyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kwany kwer iwey kwinyo</t>
+  </si>
+  <si>
+    <t>Sikoiko</t>
+  </si>
+  <si>
+    <t>Dhiaŋ ka nindo paro aŋo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anitye gi gikipiny adek, kodhi rabwo, diel, gi ondiek. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atimi nedi aka atiŋ jo jye akal gi jo malawa?  </t>
+  </si>
+  <si>
+    <t>Aka ye paran tiŋo gimoro achiel achiel.</t>
+  </si>
+  <si>
+    <t>Muchungwa ochiek mito afwona.</t>
+  </si>
+  <si>
+    <t>Aŋo ma mwonyo yokin tineno?</t>
+  </si>
+  <si>
+    <t>Opiyo otelo Odongo kimaki.</t>
+  </si>
+  <si>
+    <t>Adhadha langa langa i pendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiye gi muchungwa paran i dier malawa.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka kenyo nitye jajwok.  </t>
+  </si>
+  <si>
+    <t>Atimi nedi aka acham muchungwa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ageto ot paran ma ongoye dhu ot.  </t>
+  </si>
+  <si>
+    <t>Abedo aŋo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyathi paran okidho wendo ma ongoye gi nanga to dwoko gine.  </t>
+  </si>
+  <si>
+    <t>Aŋo mofwonjo wan gi ruko kanzo?</t>
+  </si>
+  <si>
+    <t>Gonyi diel iwey loch.</t>
+  </si>
+  <si>
+    <t>Nya pa rwoth okedere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adhadha otho oweyo kisiwiro.</t>
+  </si>
+  <si>
+    <t>Nyir owaŋo wiy jo.</t>
+  </si>
+  <si>
+    <t>Aŋo mofwonjo wan gi ruko junga?</t>
+  </si>
+  <si>
+    <t>Radwok ma Sikoiko</t>
+  </si>
+  <si>
+    <t>Paro ni kama diel jye nitye gi yer tike aka an a?ata angoye gine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teli tero diel loka, dwoki i omi ondiek bende iteri loka, to idwoko kod diel.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwany kodhi rabwo bende iteri loka.  </t>
+  </si>
+  <si>
+    <t>Nyaka to i gik omo diel.</t>
+  </si>
+  <si>
+    <t>Nyako othik mito poro</t>
+  </si>
+  <si>
+    <t>Dero</t>
+  </si>
+  <si>
+    <t>Tiendi gal</t>
+  </si>
+  <si>
+    <t>Musalawuyo</t>
+  </si>
+  <si>
+    <t>Kwany tele idwiri gine jajwok aka jajwok wofwoni muchungwa to dwirin gine.</t>
+  </si>
+  <si>
+    <t>Tongweno</t>
+  </si>
+  <si>
+    <t>Maido</t>
+  </si>
+  <si>
+    <t>ŋwen</t>
+  </si>
+  <si>
+    <t>Oseyo</t>
+  </si>
+  <si>
+    <t>Nanasi</t>
+  </si>
+  <si>
+    <t>Alemo oweyo royo</t>
+  </si>
+  <si>
+    <t>Toko</t>
+  </si>
+  <si>
+    <t>Obwol</t>
+  </si>
+  <si>
+    <t>Gimumiyo Gwendi Lworo Otengo</t>
+  </si>
+  <si>
+    <t>Chango chango, gweno jomako mere kod katateŋ.</t>
+  </si>
+  <si>
+    <t>Mere pajo obedo matek swa ma kisi gimoro jye jo kwayere.</t>
+  </si>
+  <si>
+    <t>Ndelo achiel gweno oayi to kidho pa otengo to kwayo go piso ma kwoyo nanga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo gweno odwoko gi piso to kwoyo gine nanga. </t>
+  </si>
+  <si>
+    <t>Munyo ochowo kwoyo nanga, to kano piso i ot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Otengo okuro ni gweno odwoki ri go piso pere to gweno kudwoko. </t>
+  </si>
+  <si>
+    <t>Ndelo achiel otengo won otiŋere to kidho pa gweno penjo go piso pere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gweno oayi to kidho kama chango no go okano i iye piso to kunwaŋo.</t>
+  </si>
+  <si>
+    <t>Gweno oparo gima go owachi ri jawodhe to ngoye.</t>
+  </si>
+  <si>
+    <t>Rumacheni gweno owacho ri otengo ni "Piso orwenyo ran kama aketho i iye</t>
+  </si>
+  <si>
+    <t>Weyi doko, alatemo rango, ka anwaŋo alakelo rin.</t>
+  </si>
+  <si>
+    <t>Gweno otemo atema yaro piny ni rango ri otengo piso pere to kwero nwaŋo kiri dikin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woki ndelo no kiri konon mere pa gweno kod otengo tu tho atha. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meno amomiyo ineno gweno yaro piny munyo rango ri otengo piso pere.</t>
+  </si>
+  <si>
+    <t>Aka bende amomiyo otengo chamo nyithindhi gwendi ri piso pere ma gweno orwenyo.</t>
+  </si>
+  <si>
+    <t>Lwaŋino gi Awino</t>
+  </si>
+  <si>
+    <t>Obedo ndelo achiel Awino okidho i sikul, to neno lwaŋino.</t>
+  </si>
+  <si>
+    <t>Lwaŋino oido opie i kor ot ma sikul.</t>
+  </si>
+  <si>
+    <t>To lwaŋino penjo go ni, "Ikidho i kilas perin?"</t>
+  </si>
+  <si>
+    <t>To godwoko, "Eei akidho i kilas."</t>
+  </si>
+  <si>
+    <t>To lwaŋino wacho ni "Kale, abende, akidho i kilas."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lwaŋino omedo luwo ni, "Awino, kidonjo i kilas. "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikiri nenan; ikiri luwi; ikiri nur.  </t>
+  </si>
+  <si>
+    <t>To neni anena kitabo perin."</t>
+  </si>
+  <si>
+    <t>Munyo gosoma kitabo pere i sikul, to goneno lwaŋino i kor ot.</t>
+  </si>
+  <si>
+    <t>To godiyo nyawote ma bedo gine i kom to wacho ri go ni, "Neni lwaŋino no, goluwo."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To dichiel lwaŋino to pie i waŋe, to nyutho jafwonji pere.  </t>
+  </si>
+  <si>
+    <t>Munyo wacho ni, "Lwaŋino ni waŋan, jafwonji konyan, ikwanyi ran!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jafwonji to konjo pi i kikopo to wacho ni, "Yawi waŋin." </t>
+  </si>
+  <si>
+    <t>To lwoko waŋe to lwaŋino wok i waŋe to ayi to kadho.</t>
+  </si>
+  <si>
+    <t>To ayi to pie i dirisa to bedo iwi dirisa to lwoko waŋe gi tiende.</t>
+  </si>
+  <si>
+    <t>Pusi kod Oyeyo</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo Pusi kod Oyeyo to jomakere mere.</t>
+  </si>
+  <si>
+    <t>Pusi kod Oyeyo jonyewo modhiaŋ pajo to joketho i dak to joŋawo kisalaka.</t>
+  </si>
+  <si>
+    <t>Ndelo achiel Pusi oromo kod Oyeyo to penjo go ni "Ojame, iwok yukune?"</t>
+  </si>
+  <si>
+    <t>Oyeyo owacho rigo ni "Awok kibatisa nyathi paran."</t>
+  </si>
+  <si>
+    <t>Pusi openjo go ni "Ibatisa go ni ŋa?"</t>
+  </si>
+  <si>
+    <t>Oyeyo odwoko ni "Abatisa go ni Onaŋo-de-onaŋo-de-oweyo-i-ganga."</t>
+  </si>
+  <si>
+    <t>Ndelo man doko Pusi oromo kod Oyeyo to penjo go ni "Ojame, iwok yukune?"</t>
+  </si>
+  <si>
+    <t>Oyeyo odwoko ni "Awok kibatisa nyathi paran."</t>
+  </si>
+  <si>
+    <t>Pusi openjo ni "Ibatisa go ni ŋa?"</t>
+  </si>
+  <si>
+    <t>Oyeyo odwoko go ni "Abatisa go ni Onaŋo-de-onaŋo-de-oweyo-i-kore."</t>
+  </si>
+  <si>
+    <t>Oyeyo odwoko go ni "Awok kibatisa nyathi paran."</t>
+  </si>
+  <si>
+    <t>Oyeyo odwoko ni "Abatisa go ni Onaŋo de onaŋo de olwindo."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ndelo achiel Pusi owacho ri Oyeyo ni "Wakidhi walimi mo mawan." </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oyeyo oayi to pondo ri Pusi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pusi won to ayi kidho limo mo kama ndelago jokano iye. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munyo Pusi otundo onwaŋo anwaŋa dak nono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo ongoye iye kada nyaka mathin. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pusi odok to kidho rango Oyeyo wacho rigo paka mo ma chango jokano i dak ongoye kada nyaka mathin.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo Oyeyo oneno Pusi obino, Oyeyo oringo to pondo. </t>
+  </si>
+  <si>
+    <t>Pusi owacho ni "Iraŋo Oyeyo onenan to pondo?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nyutho ni go ama onaŋo mo ma wakano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wok ndelo no Pusi kuneno Oyeyo to neko aneka to chamo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oyeyo bende koneno Pusi ringo aringa to pondo munyo lworo Pusi.</t>
+  </si>
+  <si>
+    <t>Kwach gi Gweno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chango chango, gwendi gi ogwaŋe jobedo mere swa tek tek. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gwendi gi ogwaŋe jo jye oido jobedo, jochiemo, jonindo i dudi.</t>
+  </si>
+  <si>
+    <t>To dichiel kwach omito tedo ri nyithindhe chiemo to mach ongoye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kwach poyo dichiel paka joliesa gi wod gweno kwoŋ gima mako mach.  </t>
+  </si>
+  <si>
+    <t>To munyo kwach okidho to nwaŋo wod gweno ongoye tichiko, godwoko othieno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo kwach odoko ogik mararyo, kareno chie? liel swa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To kwach dok, kuro kir othieno munyo piny okwe to doko gik. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maradek to nwaŋo wod gweno munyo nindo.  </t>
+  </si>
+  <si>
+    <t>To temo chiewo go, to wod gweno konyalo chiewi.</t>
+  </si>
+  <si>
+    <t>To kenyo paro bino ri kwach ma kwalo mach.</t>
+  </si>
+  <si>
+    <t>To dimo lum mothwo swa ma nyalo moko piyo piyo.</t>
+  </si>
+  <si>
+    <t>To choko, munyo otieko choko to tiŋo.</t>
+  </si>
+  <si>
+    <t>Okidho kama wod gweno nindo iye.</t>
+  </si>
+  <si>
+    <t>Munyo otundo to ketho lum i wiye wod gweno mach komoko.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mararyo to doko ketho mach doko koliel. </t>
+  </si>
+  <si>
+    <t>Maradek kwach rume to ruda aruda lum i kokoliro wod gweno jye doko mach koliel.</t>
+  </si>
+  <si>
+    <t>To wod gweno chiewi.</t>
+  </si>
+  <si>
+    <t>To neno kwach, obedo chiegin bothi.</t>
+  </si>
+  <si>
+    <t>To wacho ri kwach ni, "Ikiri chore chiegin."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ayawaŋin gi mach ma wiyan.</t>
+  </si>
+  <si>
+    <t>To yengo wiye munyo bwoko kwach paka lawaŋo go.</t>
+  </si>
+  <si>
+    <t>Kwach koringo kosa kodhire gi chien.</t>
+  </si>
+  <si>
+    <t>To kwach wacho ri wod gweno ni, "Gima ni wiyin no, kimach, itwodo."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gi kenyo to kwach lokere ri wod gweno mager. </t>
+  </si>
+  <si>
+    <t>To mito kiri mako wod gweno oneki ri twodo pere.</t>
+  </si>
+  <si>
+    <t>To wod gweno wire gi ŋwech munyo koko ri gwendi wadi jye ni "Kok kok kudee!"(loki Dhopadhola 'Kawagalo kadagala, ilaneko wan!')</t>
+  </si>
+  <si>
+    <t>To joŋwecho gi ŋwech madit swa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wok ndir no gwendi joringo wok i dudi kama oido jobedo iye.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiri gonyo gwendi bedo bothi ji.  </t>
+  </si>
+  <si>
+    <t>Wor jonindo i ot munyo jolworo ogwange.</t>
+  </si>
+  <si>
+    <t>Ochulu gi ŋech</t>
+  </si>
+  <si>
+    <t>Kigana pa Ochulu gi ŋech (gimumiyo ŋech nindo i kero).</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo Ochulu gi ŋech to jomako mere.</t>
+  </si>
+  <si>
+    <t>Ndelo achiel to ŋech wacho ri Ochulu ni okwaŋi go wendo pa ore.</t>
+  </si>
+  <si>
+    <t>Ochulu bende to yeyo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munyo ndelo otundo to joayi kadho wendo.</t>
+  </si>
+  <si>
+    <t>Munyo jonitye i royo Ochulu ochungo to wacho ri mere pere ni, "Paka wakidho pa or wakiri waor nyingi wan ma kisindelo.</t>
+  </si>
+  <si>
+    <t>Wachwok nyingi wan man ma olwoŋi gine wan."</t>
+  </si>
+  <si>
+    <t>ŋech bende kokwero.</t>
+  </si>
+  <si>
+    <t>Ochulu to wacho ri vech oteli yero nyinge.</t>
+  </si>
+  <si>
+    <t>ŋech to yero nyinge ni 'Jadwong' to Ochulu to yero nyinge ni 'Wendo.'</t>
+  </si>
+  <si>
+    <t>Munyo jotundo pa or ŋech, ti fwoyo gi neno jo swa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Munyo jopecho jowacho ni, "Wafwoyo swa gi neno wendo."</t>
+  </si>
+  <si>
+    <t>Ochulu to wacho ri ŋech, "Ofwoyi gi nenan kendan."</t>
+  </si>
+  <si>
+    <t>To won pecho doko wacho ni, "Keli win ri wendo kom."</t>
+  </si>
+  <si>
+    <t>Ochulu to wacho ni, "Meno jye kom paran."</t>
+  </si>
+  <si>
+    <t>Doko ti wacho ni, "Keli win ri wendo koŋo."</t>
+  </si>
+  <si>
+    <t>Ochulu to wacho ni, "Meno jye koŋo paran." to madho woko jye kende.</t>
+  </si>
+  <si>
+    <t>To i kelo chiemo kareno ŋech kech neko go tek tek swa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To jokidho logo woko, munyo jodwoko chiemo chingi ŋech oido koch paka go patho apatha i lowo. </t>
+  </si>
+  <si>
+    <t>Ochulu to wacho ri go ni "Ojame neni chingin paka koch."</t>
+  </si>
+  <si>
+    <t>Ikiri i kwo ti wiyan pa or, kidhi doko ilogi."</t>
+  </si>
+  <si>
+    <t>To ŋech kidho logo kareno mere pere Ochulu chiemo swa piyo piyo.</t>
+  </si>
+  <si>
+    <t>Munyo ŋech odwoko i dhuweri odoko chinge onwaŋo opoŋiye lowo rupir gowotho gi chinge.</t>
+  </si>
+  <si>
+    <t>Odoko Ochulu wacho ri go ni ogik ologi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munyo odwoko onwaŋo Ochulu ochowo chamo woko chiemo jye. </t>
+  </si>
+  <si>
+    <t>Ma Odoŋi jye orwako i mugowa(kikapo) pere.</t>
+  </si>
+  <si>
+    <t>Ochulu to lwoŋo, "Wegi pecho omo sendere."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To josewila jo to jodok ma nyawote kochiemo.</t>
+  </si>
+  <si>
+    <t>Munyo jotundo i royo to ŋech gak i dudi ni iye riemo, to ŋwecho yo wiyi Ochulu to lokere simon.</t>
+  </si>
+  <si>
+    <t>Ochulu munyo otundo kama di simon to gweyo munyo wacho ni, "Me ŋech won ama rendere."</t>
+  </si>
+  <si>
+    <t>To ŋech doko ŋwecho aŋwecha malo kama chipa Ochulu ofuro iye to lokere ombokoro.</t>
+  </si>
+  <si>
+    <t>Munyo Ochulu otundo i ndelo to neno ombokoro, okwako dimo to ketho i mugowa pere ka wacho ni,  "Min Awoi me miŋi swa oweyo ombokoyo pa nyathi payan i ndeyo ka."</t>
+  </si>
+  <si>
+    <t>Munyo otundo pecho owacho ri min Awor konjo woko fufa ma nwaŋo otedo.</t>
+  </si>
+  <si>
+    <t>To oro Awor omo mugowa ma nende odwoko gine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Awor otemo tiŋo mugowa to wacho ni mugowa pek swa.</t>
+  </si>
+  <si>
+    <t>To Ochulu wacho ri dhako pere min Awor kidho omo mugowa.</t>
+  </si>
+  <si>
+    <t>Dhako pere bende konyalo tiŋo mugowa.</t>
+  </si>
+  <si>
+    <t>To gowon kidho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onwaŋo mugowa pek swa, to tiŋo gi meni to wodho i diedipo.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo oyawo mugowa to ŋech woki gi ŋwechi. </t>
+  </si>
+  <si>
+    <t>To Ochulu joriemo swa tek tek to ŋech ŋwecho to yombo jo to donjo i kero.</t>
+  </si>
+  <si>
+    <t>Amomiyo pama ŋech bwoki paro ni Ochulu fwodi riemo go.</t>
+  </si>
+  <si>
+    <t>ŋech ŋwecho to donjo i kero.</t>
+  </si>
+  <si>
+    <t>Merin Adek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chango chango, obedo Wakafundo, Alur, kod Kagujuguju. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jobedo merin matek.</t>
+  </si>
+  <si>
+    <t>Ndelo achiel Wakafundo, Alur kod Kogujuguju joayi to jokidho i katale nyewo dhiaŋ</t>
+  </si>
+  <si>
+    <t>Munyo jotieko nyewo dhiaŋ pajo to joayi dwoko, koth madwoŋ to chako chwe.</t>
+  </si>
+  <si>
+    <t>Merin adek me to jotweyo dhiaŋ pajo i tiendi yath dho thengi ngudo to jokidho bwok koth i pecho machegin.</t>
+  </si>
+  <si>
+    <t>Munyo koth ochok jokidho i tiendi yath ma nende jotweyo iye dhiaŋ pajo jo wo chaki woth pajo to jokunwaŋo dhiaŋ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jodwaro dhiaŋ kisi kamoro jye to jokunwaŋo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jokwo ido jotieko kwalo woko dhiaŋ chon.</t>
+  </si>
+  <si>
+    <t>Wok ndelo no merin adek me jokedho chikirok pajo ama</t>
+  </si>
+  <si>
+    <t>Wakafundo okwoŋere ni doko gokibino neno malo (polo) kama koth owoki iye ma omiyo dhiaŋ pajo okwali.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kir konon me Wakafundo kineni malo.</t>
+  </si>
+  <si>
+    <t>Koneno malo, latho atha.</t>
+  </si>
+  <si>
+    <t>Alur okwoŋere ni doko gokibino piye wi yath ma oido jotweyo iye dhiaŋ pajo aka omiyo jokwo jokwalo.</t>
+  </si>
+  <si>
+    <t>Kagujuguju okwoŋere ni doko gokibino ŋado royo ma jo joluwo munyo jowok i katale.</t>
+  </si>
+  <si>
+    <t>Ka achiel kwoŋ jo otimo gino latho atha gi kenyo.</t>
+  </si>
+  <si>
+    <t>Jadwar</t>
+  </si>
+  <si>
+    <t>Chango chango, obedo jalmoro gi pecho pere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalo obedo jadwar. </t>
+  </si>
+  <si>
+    <t>Ndelo acheil owacho ri dhako pere gi nyithindho ni jokidhi jodoyi mwogo.</t>
+  </si>
+  <si>
+    <t>Go to kidho dwar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhako bende oayi gi nyithindho kadho doyo mwogo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I ndelo mwogo no nitye winyo ma chiemo i iye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhako no gi nyithindho pere jodoyo mwogo to jochowo woko ndelo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo winyo me obino chiemo onwaŋo ndelo ler.  </t>
+  </si>
+  <si>
+    <t>Winyo me to chako wer.</t>
+  </si>
+  <si>
+    <t>Dhako me, dhako me</t>
+  </si>
+  <si>
+    <t>Imiyan girachula</t>
+  </si>
+  <si>
+    <t>Abende abino miyin girachula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo gowero ameno to diewo i ndelo to lum doko twi pa gen nende kenyo kufuri.  </t>
+  </si>
+  <si>
+    <t>To gochiemo rigin to yeŋ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo jadwoŋ me odwoko dwar to kidho neno muga ma nende dhako pere gi nyithindho jofuro.  </t>
+  </si>
+  <si>
+    <t>To nwaŋo ndelo oyukino ma ongoye kada lakikwer achiel ma otoŋ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwoŋ me odwoko to penjo dhako pere muga.  </t>
+  </si>
+  <si>
+    <t>Dhako owacho rigo ni, "Nende wadoyo adoyo mwogo jye to wachowo."</t>
+  </si>
+  <si>
+    <t>Jadwoŋ me owacho rigo ni, "Ongoye kacha, kada lakikwer ma otoŋ, kada achiel."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaweremere jadwoŋ me doko odhiro dhako me gi nyithindho kidho doyo mwogo.  </t>
+  </si>
+  <si>
+    <t>Jome jodoyo mwogo doko to jochowo.</t>
+  </si>
+  <si>
+    <t>Munyo winyo me obino to nwaŋo ndelo ler doko to chako wer.</t>
+  </si>
+  <si>
+    <t>Doko to lum twi i ndelo gipi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo jadwoŋ me odwoko dwar to kidho i ndelo neno muga to nwaŋo ni ongoye kama ofuri, kada achiel.  </t>
+  </si>
+  <si>
+    <t>Ka godok penjo dhako to dhako wacho rigo paka jofuro afura ndelo jye.</t>
+  </si>
+  <si>
+    <t>Ndelo maradek jadwoŋ me oayi gi dhako pere gi nyithindho jye to jokidho i ndelo to go bende jye temo furi to weyo munyo dhako gi nyithindho medere gi fur to go kadho dwar</t>
+  </si>
+  <si>
+    <t>Jome jofuro, to jochowo ndelo, to jodoki.</t>
+  </si>
+  <si>
+    <t>Winyo me doko obino to nwaŋo ndelo ler to doko wero ni</t>
+  </si>
+  <si>
+    <t>To dudi twi to gochiemo to yeŋ to kadho.</t>
+  </si>
+  <si>
+    <t>Munyo jadwoŋ me okidho i ndelo onwa?o kir kama go ofuro jye dudi otwi iye.</t>
+  </si>
+  <si>
+    <t>Nitye jawodhe ma onwaŋo go i ndelo to wacho rigo ni, "Nitye gima bino wero i ndelo perin ka otieki furo to dudi twi."</t>
+  </si>
+  <si>
+    <t>Ere dikin ipondi ibino neno.</t>
+  </si>
+  <si>
+    <t>Yaweremere jadwoŋ me doko odhiro dhako gi nyithindho kidho doyo mwogo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To jadwoŋ me pondo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munyo dhako gi nyithindho jotieko doy, gowacho ri dhako umo go gi lum aka jodoki.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winyo me doko obino to nwaŋo ndelo ler to chako wer.  </t>
+  </si>
+  <si>
+    <t>Jadwoŋ me ogoyo winyo no, to neko.</t>
   </si>
 </sst>
 </file>
@@ -3384,8 +4219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A846"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A827" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7626,4 +8461,1412 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:A279"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="A297" sqref="A297"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="100.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>